--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045094C1-0BF8-4F7F-99C3-0C7844CAB767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C746BC7-9869-48BE-9278-1B1B0E2E5865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$59</definedName>
-    <definedName name="PlantList">Sheet1!$B$2:$B$292</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$57</definedName>
+    <definedName name="PlantList">Sheet1!$B$2:$B$290</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="525">
   <si>
     <t>Plant ID</t>
   </si>
@@ -382,21 +382,6 @@
     <t>https://i.postimg.cc/dtYkcW3T/Euphorbia.jpg</t>
   </si>
   <si>
-    <t>OP-012</t>
-  </si>
-  <si>
-    <t>Euonymus fortunei</t>
-  </si>
-  <si>
-    <t>Fortune’s Euonymus</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/pT5hR4KK/Euonymus-fortunei.jpg</t>
-  </si>
-  <si>
-    <t>0.9 - 1.8 m</t>
-  </si>
-  <si>
     <t>OP-013</t>
   </si>
   <si>
@@ -499,30 +484,6 @@
     <t>1,100-1,650 g/year</t>
   </si>
   <si>
-    <t>OP-018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ehretia microphylla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fukien tea tree </t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/1RNwQnKb/Ehretia-microphylla.jpg</t>
-  </si>
-  <si>
-    <t>1 - 2  m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - 2 m </t>
-  </si>
-  <si>
-    <t>700 g/year</t>
-  </si>
-  <si>
-    <t>960 g/year</t>
-  </si>
-  <si>
     <t>OP-019</t>
   </si>
   <si>
@@ -1484,6 +1445,177 @@
   </si>
   <si>
     <t>نبات العنكبوت</t>
+  </si>
+  <si>
+    <t>Arabic name</t>
+  </si>
+  <si>
+    <t>Spider Plant</t>
+  </si>
+  <si>
+    <t>ليديبوريا فضية</t>
+  </si>
+  <si>
+    <t>تيكوما صفراء</t>
+  </si>
+  <si>
+    <t>القرنفل</t>
+  </si>
+  <si>
+    <t>الفربيون</t>
+  </si>
+  <si>
+    <t>الجهنمية</t>
+  </si>
+  <si>
+    <t>لانتانا</t>
+  </si>
+  <si>
+    <t>بونسيانا</t>
+  </si>
+  <si>
+    <t>شجرة النيم</t>
+  </si>
+  <si>
+    <t>الفيكس</t>
+  </si>
+  <si>
+    <t>شجرة الكافور</t>
+  </si>
+  <si>
+    <t>شجرة الغاف</t>
+  </si>
+  <si>
+    <t>اللوز الهندي</t>
+  </si>
+  <si>
+    <t>نخيل واشنطن</t>
+  </si>
+  <si>
+    <t>نخلة التمر</t>
+  </si>
+  <si>
+    <t>كف مريم</t>
+  </si>
+  <si>
+    <t>شجرة المورينغا</t>
+  </si>
+  <si>
+    <t>شجرة السيسبان</t>
+  </si>
+  <si>
+    <t>الكازورينا</t>
+  </si>
+  <si>
+    <t>غازانيا</t>
+  </si>
+  <si>
+    <t>شجرة المانجو</t>
+  </si>
+  <si>
+    <t>التوت الأسود</t>
+  </si>
+  <si>
+    <t>الزينيا</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> أوفوربيا ملياي</t>
+  </si>
+  <si>
+    <t>الألوفيرا</t>
+  </si>
+  <si>
+    <t>عشبة ألترنانثيرا</t>
+  </si>
+  <si>
+    <t>بورتولاكا</t>
+  </si>
+  <si>
+    <t>نبات الحلفا</t>
+  </si>
+  <si>
+    <t>أغاف</t>
+  </si>
+  <si>
+    <t>نبات الثعبان الأسطواني</t>
+  </si>
+  <si>
+    <t>نبات المظلة</t>
+  </si>
+  <si>
+    <t>نبات المحار</t>
+  </si>
+  <si>
+    <t>الياسمين الهندي</t>
+  </si>
+  <si>
+    <t>اوليندر</t>
+  </si>
+  <si>
+    <t>تمرحنا</t>
+  </si>
+  <si>
+    <t>خيار الشمبر</t>
+  </si>
+  <si>
+    <t>شجرة الملنجتونيا</t>
+  </si>
+  <si>
+    <t>شجرة التابوبيا</t>
+  </si>
+  <si>
+    <t>الخبيز الساحلي</t>
+  </si>
+  <si>
+    <t>السدرالبلدي</t>
+  </si>
+  <si>
+    <t>الحبن الأصفر</t>
+  </si>
+  <si>
+    <t>شجرة كورديا</t>
+  </si>
+  <si>
+    <t>كونوكاربس</t>
+  </si>
+  <si>
+    <t>مريمية فضية</t>
+  </si>
+  <si>
+    <t>المشموم</t>
+  </si>
+  <si>
+    <t>البتوتيا المكسيكية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البورتولاكا </t>
+  </si>
+  <si>
+    <t>الثيل، العشب الأفريقي</t>
+  </si>
+  <si>
+    <t>كاسيا جلوكا</t>
+  </si>
+  <si>
+    <t>الفينكا</t>
+  </si>
+  <si>
+    <t>سانسيفيريا</t>
+  </si>
+  <si>
+    <t>نبات المكحلة</t>
+  </si>
+  <si>
+    <t>الويديليا</t>
+  </si>
+  <si>
+    <t>اللانتانا المتدلي</t>
+  </si>
+  <si>
+    <t>السنط العربي الشوكي</t>
+  </si>
+  <si>
+    <t>قطر الندى، حي العلم</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1750,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1965,39 +2099,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C3B61-471E-4868-9D01-BC7FF88A37C8}">
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="4"/>
     <col min="2" max="2" width="32.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" style="4"/>
-    <col min="14" max="14" width="14.1796875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1796875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="4"/>
+    <col min="3" max="3" width="23.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" style="4" customWidth="1"/>
+    <col min="13" max="14" width="9.1796875" style="4"/>
+    <col min="15" max="15" width="14.1796875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.1796875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="24" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2008,61 +2143,64 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2070,64 +2208,67 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D2" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="R2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="T2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
@@ -2137,62 +2278,65 @@
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="T3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>48</v>
       </c>
@@ -2202,62 +2346,65 @@
       <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="24" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -2267,62 +2414,65 @@
       <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="24" t="s">
+        <v>493</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="M5" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q5" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="T5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -2332,62 +2482,65 @@
       <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>73</v>
       </c>
@@ -2397,62 +2550,65 @@
       <c r="C7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="F7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q7" s="4" t="s">
         <v>27</v>
       </c>
       <c r="R7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="T7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" t="s">
         <v>78</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="V7" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>80</v>
       </c>
@@ -2462,62 +2618,65 @@
       <c r="C8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="M8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P8" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="T8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U8" s="4" t="s">
+      <c r="V8" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>90</v>
       </c>
@@ -2527,62 +2686,65 @@
       <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="L9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="M9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q9" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>95</v>
       </c>
@@ -2592,62 +2754,65 @@
       <c r="C10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="U10" s="4" t="s">
+      <c r="V10" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>102</v>
       </c>
@@ -2657,62 +2822,65 @@
       <c r="C11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q11" s="4" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="R11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="S11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="T11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="4" t="s">
+      <c r="V11" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>109</v>
       </c>
@@ -2722,62 +2890,65 @@
       <c r="C12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="24" t="s">
+        <v>473</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="U12" s="4" t="s">
+      <c r="V12" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>113</v>
       </c>
@@ -2787,1557 +2958,1629 @@
       <c r="C13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="I13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>117</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q13" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>479</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>503</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="I24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L14" s="4" t="s">
+      <c r="K24" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="P24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="N25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="F26" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="I26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="K26" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="N26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="F27" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="I27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R16" s="4" t="s">
+      <c r="K27" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="S16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="N27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="F28" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="I28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="U18" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="U20" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="K26" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="U26" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>229</v>
       </c>
       <c r="L28" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" s="10" t="s">
+      <c r="P28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="8" t="s">
+      <c r="Q29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S29" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="T29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="F30" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="I30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="U29" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>243</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="8" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="Q30" s="8" t="s">
         <v>44</v>
       </c>
       <c r="R30" s="8" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>244</v>
+        <v>45</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="U30" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V30" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D31" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>481</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>164</v>
+      <c r="F31" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="G31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="I31" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J31" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="K31" s="8" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P31" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="Q31" s="8" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="R31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>214</v>
+      <c r="T31" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>164</v>
+      <c r="F32" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="I32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J32" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="K32" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="P32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R32" s="8" t="s">
+      <c r="Q33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="U32" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="T33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V33" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="F34" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="I34" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="J33" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="K33" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>272</v>
       </c>
       <c r="L34" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M34" s="8" t="s">
-        <v>31</v>
-      </c>
       <c r="N34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>108</v>
       </c>
       <c r="Q34" s="8" t="s">
         <v>44</v>
       </c>
       <c r="R34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S34" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T34" s="4" t="s">
-        <v>273</v>
+      <c r="T34" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="U34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="V34" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="G35" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="F36" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="I36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J35" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R35" s="8" t="s">
+      <c r="K36" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="S35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T35" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="K36" s="8" t="s">
+      <c r="T36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="V36" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="L36" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T36" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>287</v>
       </c>
@@ -4347,972 +4590,1017 @@
       <c r="C37" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="F37" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="G37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>511</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>513</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="10" t="s">
+      <c r="I43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="10" t="s">
+      <c r="K43" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>515</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R37" s="8" t="s">
+      <c r="Q46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R46" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T37" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D38" s="13" t="s">
+      <c r="T46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U46" t="s">
+        <v>345</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B47" t="s">
+        <v>347</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="F47" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="10" t="s">
+      <c r="I47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="P38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="8" t="s">
+      <c r="K47" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="T47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U47" t="s">
+        <v>351</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>517</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I39" s="10" t="s">
+      <c r="F48" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="P39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="U39" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="K41" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q41" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="S41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R42" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S42" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T43" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="U46" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R47" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S47" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>357</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U48" t="s">
+        <v>359</v>
+      </c>
+      <c r="V48" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C49" t="s">
+        <v>363</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="P48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R48" s="4" t="s">
+      <c r="Q49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R49" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T48" t="s">
-        <v>358</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B49" t="s">
-        <v>360</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="D49" s="12" t="s">
+      <c r="T49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U49" t="s">
+        <v>366</v>
+      </c>
+      <c r="V49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C50" t="s">
+        <v>370</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="4" t="s">
+      <c r="F50" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I49" s="4" t="s">
+      <c r="I50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L49" s="4" t="s">
+      <c r="K50" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M49" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="4" t="s">
+      <c r="N50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T49" t="s">
-        <v>364</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q50" s="4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="R50" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T50" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U50" t="s">
         <v>372</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" t="s">
         <v>375</v>
       </c>
       <c r="C51" t="s">
         <v>376</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="12" t="s">
+      <c r="F51" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="F51" s="4" t="s">
-        <v>164</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="I51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J51" s="4" t="s">
+      <c r="K51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L51" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="M51" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="R51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T51" t="s">
+      <c r="T51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U51" t="s">
         <v>379</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>381</v>
       </c>
@@ -5322,521 +5610,411 @@
       <c r="C52" t="s">
         <v>383</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="F52" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="F52" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="G52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J52" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="K52" s="4" t="s">
+      <c r="K52" t="s">
+        <v>100</v>
+      </c>
+      <c r="L52" t="s">
         <v>87</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="M52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M52" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N52" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P52" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P52" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q52" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R52" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T52" t="s">
+        <v>30</v>
+      </c>
+      <c r="T52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U52" t="s">
         <v>385</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>388</v>
       </c>
       <c r="C53" t="s">
         <v>389</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="E53" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="F53" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="F53" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="G53" s="4" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K53" s="4" t="s">
+      <c r="K53" t="s">
         <v>391</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="L53" t="s">
+        <v>392</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M53" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N53" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P53" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="Q53" s="4" t="s">
         <v>27</v>
       </c>
       <c r="R53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T53" t="s">
-        <v>392</v>
+      <c r="T53" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="U53" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="V53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C54" t="s">
-        <v>396</v>
-      </c>
-      <c r="D54" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="E54" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E54" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>40</v>
+      <c r="F54" s="12" t="s">
+        <v>398</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>26</v>
+        <v>328</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J54" t="s">
-        <v>100</v>
-      </c>
-      <c r="K54" t="s">
+      <c r="K54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U54" t="s">
+        <v>400</v>
+      </c>
+      <c r="V54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C55" t="s">
+        <v>404</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>522</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L55" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="4" t="s">
+      <c r="N55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T54" t="s">
-        <v>398</v>
-      </c>
-      <c r="U54" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
+      <c r="Q55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U55" t="s">
         <v>400</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="V55" t="s">
         <v>401</v>
       </c>
-      <c r="C55" t="s">
-        <v>402</v>
-      </c>
-      <c r="D55" s="12" t="s">
+    </row>
+    <row r="56" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C56" t="s">
+        <v>409</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>523</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G55" s="4" t="s">
+      <c r="F56" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55" s="4" t="s">
+      <c r="I56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J55" t="s">
-        <v>404</v>
-      </c>
-      <c r="K55" t="s">
-        <v>405</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" t="s">
-        <v>406</v>
-      </c>
-      <c r="U55" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B56" t="s">
-        <v>409</v>
-      </c>
-      <c r="C56" t="s">
-        <v>410</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="K56" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F56" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K56" s="4" t="s">
+      <c r="L56" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="L56" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="M56" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="O56" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="Q56" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R56" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T56" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U56" t="s">
         <v>413</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>415</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="E57" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="F57" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="F57" s="4" t="s">
-        <v>341</v>
-      </c>
       <c r="G57" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="H57" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="I57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>419</v>
       </c>
       <c r="L57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N57" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="Q57" s="4" t="s">
         <v>44</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T57" t="s">
-        <v>413</v>
-      </c>
-      <c r="U57" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U57" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="V57" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C58" t="s">
-        <v>422</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="T58" t="s">
-        <v>426</v>
-      </c>
-      <c r="U58" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D59" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R59" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="S59" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T59" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="U59" s="4" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="58" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="65" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="66" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="67" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -5959,158 +6137,152 @@
     <row r="184" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="185" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="186" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="187" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="188" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U47">
-    <sortCondition ref="A2:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V45">
+    <sortCondition ref="A2:A45"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B28:B45 B1:B20 B47:B48 B57:B1048576">
+  <conditionalFormatting sqref="B26:B43 B1:B18 B45:B46 B55:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{58D66573-3890-4498-A66F-3227660DC8D7}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M28:M1048576 M2:M20 H2:H1048576 P2:Q1048576 S2:S1048576" xr:uid="{26BEA281-5615-4C1E-80B9-785C1C126E1E}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{58D66573-3890-4498-A66F-3227660DC8D7}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N26:N1048576 N2:N18 I2:I1048576 Q2:R1048576 T2:T1048576" xr:uid="{26BEA281-5615-4C1E-80B9-785C1C126E1E}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L28:L1048576 L2:L20 N2:N1048576" xr:uid="{BADEB7D1-F197-43A2-9AAB-F8E1A586A330}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M1048576 M2:M18 O2:O1048576" xr:uid="{BADEB7D1-F197-43A2-9AAB-F8E1A586A330}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{9B94FA55-E999-447C-AE3A-D83167D0511E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{9B94FA55-E999-447C-AE3A-D83167D0511E}">
       <formula1>"Trees,Shrubs,Herbs,Grasses,Ground covers,Succulents,Palms,Climbers"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{8471231C-23F2-4910-9D7C-984D1473D629}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{8471231C-23F2-4910-9D7C-984D1473D629}">
       <formula1>"Annual,Perennial,Evergreen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{FA170704-FC67-4572-AA76-5580DBDBF151}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{FA170704-FC67-4572-AA76-5580DBDBF151}">
       <formula1>"Full sun,Partial sun,Partial shade,Full shade"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{BE3FA2F7-250C-446F-866C-ED07901AF023}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{BE3FA2F7-250C-446F-866C-ED07901AF023}">
       <formula1>"Taproot,Fibrous,Adventitious"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{5236AF81-EC4F-4378-AD19-A16F9D681D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{5236AF81-EC4F-4378-AD19-A16F9D681D97}">
       <formula1>"Yes,No,Seasonal"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{2600CC34-FEC8-4358-A166-A0A0AADE2B16}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{5323DA1F-90E3-4EC4-9236-3FABF03E7B7B}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{018E3A31-D699-48D2-AD40-1BB7690AEFD7}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{392A5314-B9BB-4171-8F94-222188BA99B0}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{C2587916-F827-41B7-8EDB-D66AF039E12E}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{5B092A59-B505-409F-881F-B73548F6938E}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{000CFFF4-9940-48FD-A423-432D48721CE1}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{3CA9DF8A-4187-4A78-B778-6207A316B333}"/>
-    <hyperlink ref="D11" r:id="rId9" xr:uid="{0E189887-694C-422E-A29F-FCEF22C7419F}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{8C60A978-0633-4E7B-9B20-39535DD7DDC8}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{335FBD22-12AF-4A45-A77B-B9C20A6141F5}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{719CD489-BB63-497E-AE08-21DC9CA54CA3}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{DF2B3021-CB8F-44D8-BD31-AA8794C176EC}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{D7DA4A7E-52AB-4E28-B3FC-EF963D4DDD4D}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{1C616BAB-4C73-4EBF-B776-7BA076A7033C}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{23CE6F16-08A6-4E8D-9C4D-C9B5127E144A}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{20B5027B-96F0-4AB2-8117-19AE93DC6B0A}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{ECBD96C7-2596-4362-B615-FF5B44F512E6}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{4101BD30-6698-4EB1-8903-7E1FFBFB9B63}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{4874A1A2-8C4B-4BED-8969-BE02721678F3}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{2252DC4A-0C0B-416E-BC31-B768BCEAE16F}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{4112E39B-C26E-46CC-A777-150B9CFB739F}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{1EAE0336-600F-4BB9-896A-74726C93DF17}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{21F64656-BD08-4D53-8965-D64438F9240D}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{3C3C0EB3-86DF-4285-8FCA-00C307A1F95B}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{B18E89B5-8326-4B91-9453-371E52799A2B}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{0065F6AA-32BB-4DC3-AA2B-7BCDD6A44EBB}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{1D7D50F0-D5C5-4C40-A96A-49B41DE78C68}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{E9386162-3288-47F3-A64B-B7C674CF0CD6}"/>
-    <hyperlink ref="D32" r:id="rId30" xr:uid="{CBFB0E77-BEDF-48EA-9924-465E247355C4}"/>
-    <hyperlink ref="D33" r:id="rId31" xr:uid="{7044A41C-3685-470B-8F5B-80661D43C5E2}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{9D6A02AB-3D8C-4EB2-9FAA-84914A73B229}"/>
-    <hyperlink ref="D35" r:id="rId33" xr:uid="{9CABA5BB-A509-4C32-89C4-9B32A2504DF8}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{5A417341-CE47-428C-AE6B-8D0346B9AE99}"/>
-    <hyperlink ref="D37" r:id="rId35" xr:uid="{CF17741F-78A9-4737-A2EB-92996670749C}"/>
-    <hyperlink ref="D38" r:id="rId36" xr:uid="{06CB0C63-7DAC-491B-B517-7A7458705E0C}"/>
-    <hyperlink ref="D39" r:id="rId37" xr:uid="{1309698B-F196-45BB-9281-74166A20313B}"/>
-    <hyperlink ref="D40" r:id="rId38" xr:uid="{7876597A-46B3-4B6F-A74A-403496DE329B}"/>
-    <hyperlink ref="D41" r:id="rId39" xr:uid="{958469ED-DB41-484F-A776-1929CD714AF0}"/>
-    <hyperlink ref="D42" r:id="rId40" xr:uid="{794C1888-69A6-447B-A567-A33FE86DF71D}"/>
-    <hyperlink ref="D43" r:id="rId41" xr:uid="{FEC534E3-9431-492F-BD28-606DCB57CC8B}"/>
-    <hyperlink ref="D44" r:id="rId42" xr:uid="{2FB904E2-A75D-4A26-89C5-7589D678E56D}"/>
-    <hyperlink ref="D45" r:id="rId43" xr:uid="{BF526CAA-01FF-4066-91C6-A6F8BB3FCE21}"/>
-    <hyperlink ref="D46" r:id="rId44" xr:uid="{564ECDC1-2645-4F7E-98E6-1AABE34BEBC5}"/>
-    <hyperlink ref="D47" r:id="rId45" xr:uid="{FDCBB645-209E-4F77-ACEA-005347D2AE33}"/>
-    <hyperlink ref="E47" r:id="rId46" xr:uid="{54BE221F-8340-430F-949D-BE5DE2FA3C4E}"/>
-    <hyperlink ref="E46" r:id="rId47" xr:uid="{A942DD69-E44F-4CB0-B16D-4BADC06684CA}"/>
-    <hyperlink ref="E45" r:id="rId48" xr:uid="{5E7FC22A-71EE-428D-811A-20CD14846773}"/>
-    <hyperlink ref="E44" r:id="rId49" xr:uid="{C81E3ED7-E859-4259-8AF6-E7FC262BB034}"/>
-    <hyperlink ref="E43" r:id="rId50" xr:uid="{911FC1D7-A9ED-4554-916C-71358693FDB0}"/>
-    <hyperlink ref="D7" r:id="rId51" xr:uid="{9DAD28EA-4D30-4C83-907D-B7839F214B5C}"/>
-    <hyperlink ref="D48:D56" r:id="rId52" display="Open Image" xr:uid="{FD9F38CB-4E6C-4DD2-80EE-848175CFCA26}"/>
-    <hyperlink ref="D57" r:id="rId53" xr:uid="{6B895142-1E73-4D31-AAC6-1CE3C4CB9B68}"/>
-    <hyperlink ref="D58" r:id="rId54" xr:uid="{91615C1B-C881-4716-A52E-40DD942077BD}"/>
-    <hyperlink ref="D48" r:id="rId55" xr:uid="{3377DCFF-475F-4542-93FD-6062E02F5E45}"/>
-    <hyperlink ref="D49" r:id="rId56" xr:uid="{12139F7E-B38E-437B-9222-336AF9D313FF}"/>
-    <hyperlink ref="D50" r:id="rId57" xr:uid="{CC1893E0-7383-4D0F-B2FE-CFA7DBAE0BBE}"/>
-    <hyperlink ref="D51" r:id="rId58" xr:uid="{94FD7C65-6909-4A50-AD27-24EDD09433A8}"/>
-    <hyperlink ref="D52" r:id="rId59" xr:uid="{E845C3E1-366F-42A8-A577-9E93944ED709}"/>
-    <hyperlink ref="D53" r:id="rId60" xr:uid="{C489F4DF-E77E-4E9B-BB14-5119A4FD9738}"/>
-    <hyperlink ref="D54" r:id="rId61" xr:uid="{575FEEB6-B9F7-4106-8B3F-F80429460924}"/>
-    <hyperlink ref="D55" r:id="rId62" xr:uid="{8ECF9E2D-3F0A-4F42-AEBB-DE9451488D6E}"/>
-    <hyperlink ref="D56" r:id="rId63" xr:uid="{BDD4B0CC-0287-42D5-AE5A-3CC11C4612A6}"/>
-    <hyperlink ref="E48" r:id="rId64" xr:uid="{3CD73538-0D5C-4762-9F07-5D755DDEAF16}"/>
-    <hyperlink ref="E49" r:id="rId65" xr:uid="{40FF8D89-9B78-411F-8DB4-626B9AFF5A1D}"/>
-    <hyperlink ref="E50" r:id="rId66" xr:uid="{CA1C7212-1B59-4F8C-8BD6-3636D3D60A6A}"/>
-    <hyperlink ref="E51" r:id="rId67" xr:uid="{D38263CB-493C-439F-9F17-4236A96C66D1}"/>
-    <hyperlink ref="E52" r:id="rId68" xr:uid="{EF268AAA-D055-4ABB-9D80-BF7100CCE5F6}"/>
-    <hyperlink ref="E53" r:id="rId69" xr:uid="{9510EADC-FE45-4655-A213-003980F89284}"/>
-    <hyperlink ref="E54" r:id="rId70" xr:uid="{F8417B3D-8E2F-49A0-9346-F7DD1246A5EF}"/>
-    <hyperlink ref="E55" r:id="rId71" xr:uid="{784F421E-E918-4DD5-B45B-D31C95BEA044}"/>
-    <hyperlink ref="E56" r:id="rId72" xr:uid="{E1623873-15FE-460E-A915-DCDFCC91D3DA}"/>
-    <hyperlink ref="E57" r:id="rId73" xr:uid="{1A559C67-3450-466A-BFBC-07027D6BBCF5}"/>
-    <hyperlink ref="E58" r:id="rId74" xr:uid="{FA985005-458A-41F1-8F52-FF06E87B4865}"/>
-    <hyperlink ref="E42" r:id="rId75" xr:uid="{F038B75C-7931-42AD-9969-6CD70B6EC772}"/>
-    <hyperlink ref="E41" r:id="rId76" xr:uid="{84FC8343-E3AA-4D3A-BB39-83E0BFE9B563}"/>
-    <hyperlink ref="E40" r:id="rId77" xr:uid="{B2C56123-0097-4CCC-AF7B-A2DE5F633E15}"/>
-    <hyperlink ref="E38" r:id="rId78" xr:uid="{11AFD464-CA0C-4AB6-A72C-328EF8CF24ED}"/>
-    <hyperlink ref="E37" r:id="rId79" xr:uid="{5A6AFE26-9F39-46A3-A100-193A48287A3F}"/>
-    <hyperlink ref="E36" r:id="rId80" xr:uid="{DDB837BA-3D81-41EA-9139-B2979B5F07EB}"/>
-    <hyperlink ref="E35" r:id="rId81" xr:uid="{DBA6C7E9-CD5E-40DC-A123-2FCC71D0FB48}"/>
-    <hyperlink ref="E26" r:id="rId82" xr:uid="{12ACB02F-48ED-4EE0-9507-EC61696A7FA3}"/>
-    <hyperlink ref="E27" r:id="rId83" xr:uid="{5C50D50C-3B59-4219-9D58-CB56E8E4D83D}"/>
-    <hyperlink ref="E29" r:id="rId84" xr:uid="{A263D1F2-CC83-4D4E-B6AA-B01AA7A310EB}"/>
-    <hyperlink ref="E30" r:id="rId85" xr:uid="{2F9757A9-9D79-4515-96E4-E4F3DBC74C11}"/>
-    <hyperlink ref="E31" r:id="rId86" xr:uid="{F4511DE4-AE2D-442C-B19E-D21562864BE5}"/>
-    <hyperlink ref="E32" r:id="rId87" xr:uid="{6BDC74CA-B98A-4E3C-BE2B-5014BF208EC5}"/>
-    <hyperlink ref="E33" r:id="rId88" xr:uid="{DBCA2FA0-F5E4-4B17-9D87-8CC3A5D53F8D}"/>
-    <hyperlink ref="E34" r:id="rId89" xr:uid="{ABC699BF-9AEF-4876-A7E0-2587D1E9EAC0}"/>
-    <hyperlink ref="E2" r:id="rId90" xr:uid="{DA9FB63F-9F74-435C-B5D8-06A21ED3558C}"/>
-    <hyperlink ref="E3" r:id="rId91" xr:uid="{4BE46902-2799-42A9-9C90-0CCEE6252939}"/>
-    <hyperlink ref="E4" r:id="rId92" xr:uid="{8FCD70DA-9DCA-468F-AA3E-53987C024760}"/>
-    <hyperlink ref="E5" r:id="rId93" xr:uid="{E844596D-F0CD-407D-BEA4-453A5F4E279C}"/>
-    <hyperlink ref="E6" r:id="rId94" xr:uid="{38F1636E-04EF-45FA-A853-30396B0673BC}"/>
-    <hyperlink ref="E7" r:id="rId95" xr:uid="{3165D5FD-C390-4891-AFEF-1A038F336C20}"/>
-    <hyperlink ref="E8" r:id="rId96" xr:uid="{FCC9E8ED-A3E7-4095-AFE1-27D2DC670279}"/>
-    <hyperlink ref="E9" r:id="rId97" xr:uid="{107532CA-5743-406B-95B9-68ECDC90423E}"/>
-    <hyperlink ref="E10" r:id="rId98" xr:uid="{BB486086-2D95-4F5D-BA89-5641639117FF}"/>
-    <hyperlink ref="E11" r:id="rId99" xr:uid="{A7B283C4-7CC9-45DA-BEA9-C4B723BA0901}"/>
-    <hyperlink ref="E12" r:id="rId100" xr:uid="{322CF00C-EA10-456A-B798-E9038EF2F98E}"/>
-    <hyperlink ref="E13" r:id="rId101" xr:uid="{F06D7493-EDA1-4EFF-99EC-A44C05C68CD5}"/>
-    <hyperlink ref="E14" r:id="rId102" xr:uid="{A5F34439-5B1F-484F-926B-9E881979CA2E}"/>
-    <hyperlink ref="E15" r:id="rId103" xr:uid="{13F387A6-F110-4670-A23B-D5BD4882CBC5}"/>
-    <hyperlink ref="E16" r:id="rId104" xr:uid="{B06AC7C1-2925-4A6E-BBDD-686E6460F34D}"/>
-    <hyperlink ref="E17" r:id="rId105" xr:uid="{88DEB030-5BCA-4AC4-9C4C-9F00355F866F}"/>
-    <hyperlink ref="E18" r:id="rId106" xr:uid="{F7C4CC7F-176E-4169-9057-340E4EC0B6F7}"/>
-    <hyperlink ref="E19" r:id="rId107" xr:uid="{BDEE1163-5E21-4DDD-A162-506CA50835CE}"/>
-    <hyperlink ref="E20" r:id="rId108" xr:uid="{FA76E78D-5E89-42F7-AC4E-E641F9E26B7A}"/>
-    <hyperlink ref="E21" r:id="rId109" xr:uid="{10716D52-5753-4C47-A7F2-CDD8599B36C1}"/>
-    <hyperlink ref="E22" r:id="rId110" xr:uid="{A818F6D6-B899-4855-B989-FBB6827669A9}"/>
-    <hyperlink ref="E23" r:id="rId111" xr:uid="{12F92AB0-9F69-4935-B4D4-D20F8DE0D7E1}"/>
-    <hyperlink ref="E24" r:id="rId112" xr:uid="{FD67F12F-1173-4E4B-A8E3-F3A81C85E4EB}"/>
-    <hyperlink ref="E25" r:id="rId113" xr:uid="{64CA3CAB-0D61-45C4-9B27-C04EE14B58B5}"/>
-    <hyperlink ref="E28" r:id="rId114" xr:uid="{335A8E87-D725-4028-9DB7-E8624E6E544C}"/>
-    <hyperlink ref="E39" r:id="rId115" xr:uid="{B9227BF6-565E-4CC0-BF4C-4C508A7DB46B}"/>
-    <hyperlink ref="D59" r:id="rId116" xr:uid="{B6DDFCF8-2D59-4DA8-9C7A-A1B7B7E26168}"/>
-    <hyperlink ref="E59" r:id="rId117" xr:uid="{42C95BBC-98B4-4E80-B097-88E6F392B903}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{2600CC34-FEC8-4358-A166-A0A0AADE2B16}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5323DA1F-90E3-4EC4-9236-3FABF03E7B7B}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{018E3A31-D699-48D2-AD40-1BB7690AEFD7}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{392A5314-B9BB-4171-8F94-222188BA99B0}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{C2587916-F827-41B7-8EDB-D66AF039E12E}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{5B092A59-B505-409F-881F-B73548F6938E}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{000CFFF4-9940-48FD-A423-432D48721CE1}"/>
+    <hyperlink ref="E10" r:id="rId8" xr:uid="{3CA9DF8A-4187-4A78-B778-6207A316B333}"/>
+    <hyperlink ref="E11" r:id="rId9" xr:uid="{0E189887-694C-422E-A29F-FCEF22C7419F}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{8C60A978-0633-4E7B-9B20-39535DD7DDC8}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{719CD489-BB63-497E-AE08-21DC9CA54CA3}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{DF2B3021-CB8F-44D8-BD31-AA8794C176EC}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{D7DA4A7E-52AB-4E28-B3FC-EF963D4DDD4D}"/>
+    <hyperlink ref="E16" r:id="rId14" xr:uid="{1C616BAB-4C73-4EBF-B776-7BA076A7033C}"/>
+    <hyperlink ref="E17" r:id="rId15" xr:uid="{23CE6F16-08A6-4E8D-9C4D-C9B5127E144A}"/>
+    <hyperlink ref="E18" r:id="rId16" xr:uid="{ECBD96C7-2596-4362-B615-FF5B44F512E6}"/>
+    <hyperlink ref="E19" r:id="rId17" xr:uid="{4101BD30-6698-4EB1-8903-7E1FFBFB9B63}"/>
+    <hyperlink ref="E20" r:id="rId18" xr:uid="{4874A1A2-8C4B-4BED-8969-BE02721678F3}"/>
+    <hyperlink ref="E21" r:id="rId19" xr:uid="{2252DC4A-0C0B-416E-BC31-B768BCEAE16F}"/>
+    <hyperlink ref="E22" r:id="rId20" xr:uid="{4112E39B-C26E-46CC-A777-150B9CFB739F}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{1EAE0336-600F-4BB9-896A-74726C93DF17}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{21F64656-BD08-4D53-8965-D64438F9240D}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{3C3C0EB3-86DF-4285-8FCA-00C307A1F95B}"/>
+    <hyperlink ref="E26" r:id="rId24" xr:uid="{B18E89B5-8326-4B91-9453-371E52799A2B}"/>
+    <hyperlink ref="E27" r:id="rId25" xr:uid="{0065F6AA-32BB-4DC3-AA2B-7BCDD6A44EBB}"/>
+    <hyperlink ref="E28" r:id="rId26" xr:uid="{1D7D50F0-D5C5-4C40-A96A-49B41DE78C68}"/>
+    <hyperlink ref="E29" r:id="rId27" xr:uid="{E9386162-3288-47F3-A64B-B7C674CF0CD6}"/>
+    <hyperlink ref="E30" r:id="rId28" xr:uid="{CBFB0E77-BEDF-48EA-9924-465E247355C4}"/>
+    <hyperlink ref="E31" r:id="rId29" xr:uid="{7044A41C-3685-470B-8F5B-80661D43C5E2}"/>
+    <hyperlink ref="E32" r:id="rId30" xr:uid="{9D6A02AB-3D8C-4EB2-9FAA-84914A73B229}"/>
+    <hyperlink ref="E33" r:id="rId31" xr:uid="{9CABA5BB-A509-4C32-89C4-9B32A2504DF8}"/>
+    <hyperlink ref="E34" r:id="rId32" xr:uid="{5A417341-CE47-428C-AE6B-8D0346B9AE99}"/>
+    <hyperlink ref="E35" r:id="rId33" xr:uid="{CF17741F-78A9-4737-A2EB-92996670749C}"/>
+    <hyperlink ref="E36" r:id="rId34" xr:uid="{06CB0C63-7DAC-491B-B517-7A7458705E0C}"/>
+    <hyperlink ref="E37" r:id="rId35" xr:uid="{1309698B-F196-45BB-9281-74166A20313B}"/>
+    <hyperlink ref="E38" r:id="rId36" xr:uid="{7876597A-46B3-4B6F-A74A-403496DE329B}"/>
+    <hyperlink ref="E39" r:id="rId37" xr:uid="{958469ED-DB41-484F-A776-1929CD714AF0}"/>
+    <hyperlink ref="E40" r:id="rId38" xr:uid="{794C1888-69A6-447B-A567-A33FE86DF71D}"/>
+    <hyperlink ref="E41" r:id="rId39" xr:uid="{FEC534E3-9431-492F-BD28-606DCB57CC8B}"/>
+    <hyperlink ref="E42" r:id="rId40" xr:uid="{2FB904E2-A75D-4A26-89C5-7589D678E56D}"/>
+    <hyperlink ref="E43" r:id="rId41" xr:uid="{BF526CAA-01FF-4066-91C6-A6F8BB3FCE21}"/>
+    <hyperlink ref="E44" r:id="rId42" xr:uid="{564ECDC1-2645-4F7E-98E6-1AABE34BEBC5}"/>
+    <hyperlink ref="E45" r:id="rId43" xr:uid="{FDCBB645-209E-4F77-ACEA-005347D2AE33}"/>
+    <hyperlink ref="F45" r:id="rId44" xr:uid="{54BE221F-8340-430F-949D-BE5DE2FA3C4E}"/>
+    <hyperlink ref="F44" r:id="rId45" xr:uid="{A942DD69-E44F-4CB0-B16D-4BADC06684CA}"/>
+    <hyperlink ref="F43" r:id="rId46" xr:uid="{5E7FC22A-71EE-428D-811A-20CD14846773}"/>
+    <hyperlink ref="F42" r:id="rId47" xr:uid="{C81E3ED7-E859-4259-8AF6-E7FC262BB034}"/>
+    <hyperlink ref="F41" r:id="rId48" xr:uid="{911FC1D7-A9ED-4554-916C-71358693FDB0}"/>
+    <hyperlink ref="E7" r:id="rId49" xr:uid="{9DAD28EA-4D30-4C83-907D-B7839F214B5C}"/>
+    <hyperlink ref="E46:E54" r:id="rId50" display="Open Image" xr:uid="{FD9F38CB-4E6C-4DD2-80EE-848175CFCA26}"/>
+    <hyperlink ref="E55" r:id="rId51" xr:uid="{6B895142-1E73-4D31-AAC6-1CE3C4CB9B68}"/>
+    <hyperlink ref="E56" r:id="rId52" xr:uid="{91615C1B-C881-4716-A52E-40DD942077BD}"/>
+    <hyperlink ref="E46" r:id="rId53" xr:uid="{3377DCFF-475F-4542-93FD-6062E02F5E45}"/>
+    <hyperlink ref="E47" r:id="rId54" xr:uid="{12139F7E-B38E-437B-9222-336AF9D313FF}"/>
+    <hyperlink ref="E48" r:id="rId55" xr:uid="{CC1893E0-7383-4D0F-B2FE-CFA7DBAE0BBE}"/>
+    <hyperlink ref="E49" r:id="rId56" xr:uid="{94FD7C65-6909-4A50-AD27-24EDD09433A8}"/>
+    <hyperlink ref="E50" r:id="rId57" xr:uid="{E845C3E1-366F-42A8-A577-9E93944ED709}"/>
+    <hyperlink ref="E51" r:id="rId58" xr:uid="{C489F4DF-E77E-4E9B-BB14-5119A4FD9738}"/>
+    <hyperlink ref="E52" r:id="rId59" xr:uid="{575FEEB6-B9F7-4106-8B3F-F80429460924}"/>
+    <hyperlink ref="E53" r:id="rId60" xr:uid="{8ECF9E2D-3F0A-4F42-AEBB-DE9451488D6E}"/>
+    <hyperlink ref="E54" r:id="rId61" xr:uid="{BDD4B0CC-0287-42D5-AE5A-3CC11C4612A6}"/>
+    <hyperlink ref="F46" r:id="rId62" xr:uid="{3CD73538-0D5C-4762-9F07-5D755DDEAF16}"/>
+    <hyperlink ref="F47" r:id="rId63" xr:uid="{40FF8D89-9B78-411F-8DB4-626B9AFF5A1D}"/>
+    <hyperlink ref="F48" r:id="rId64" xr:uid="{CA1C7212-1B59-4F8C-8BD6-3636D3D60A6A}"/>
+    <hyperlink ref="F49" r:id="rId65" xr:uid="{D38263CB-493C-439F-9F17-4236A96C66D1}"/>
+    <hyperlink ref="F50" r:id="rId66" xr:uid="{EF268AAA-D055-4ABB-9D80-BF7100CCE5F6}"/>
+    <hyperlink ref="F51" r:id="rId67" xr:uid="{9510EADC-FE45-4655-A213-003980F89284}"/>
+    <hyperlink ref="F52" r:id="rId68" xr:uid="{F8417B3D-8E2F-49A0-9346-F7DD1246A5EF}"/>
+    <hyperlink ref="F53" r:id="rId69" xr:uid="{784F421E-E918-4DD5-B45B-D31C95BEA044}"/>
+    <hyperlink ref="F54" r:id="rId70" xr:uid="{E1623873-15FE-460E-A915-DCDFCC91D3DA}"/>
+    <hyperlink ref="F55" r:id="rId71" xr:uid="{1A559C67-3450-466A-BFBC-07027D6BBCF5}"/>
+    <hyperlink ref="F56" r:id="rId72" xr:uid="{FA985005-458A-41F1-8F52-FF06E87B4865}"/>
+    <hyperlink ref="F40" r:id="rId73" xr:uid="{F038B75C-7931-42AD-9969-6CD70B6EC772}"/>
+    <hyperlink ref="F39" r:id="rId74" xr:uid="{84FC8343-E3AA-4D3A-BB39-83E0BFE9B563}"/>
+    <hyperlink ref="F38" r:id="rId75" xr:uid="{B2C56123-0097-4CCC-AF7B-A2DE5F633E15}"/>
+    <hyperlink ref="F36" r:id="rId76" xr:uid="{11AFD464-CA0C-4AB6-A72C-328EF8CF24ED}"/>
+    <hyperlink ref="F35" r:id="rId77" xr:uid="{5A6AFE26-9F39-46A3-A100-193A48287A3F}"/>
+    <hyperlink ref="F34" r:id="rId78" xr:uid="{DDB837BA-3D81-41EA-9139-B2979B5F07EB}"/>
+    <hyperlink ref="F33" r:id="rId79" xr:uid="{DBA6C7E9-CD5E-40DC-A123-2FCC71D0FB48}"/>
+    <hyperlink ref="F24" r:id="rId80" xr:uid="{12ACB02F-48ED-4EE0-9507-EC61696A7FA3}"/>
+    <hyperlink ref="F25" r:id="rId81" xr:uid="{5C50D50C-3B59-4219-9D58-CB56E8E4D83D}"/>
+    <hyperlink ref="F27" r:id="rId82" xr:uid="{A263D1F2-CC83-4D4E-B6AA-B01AA7A310EB}"/>
+    <hyperlink ref="F28" r:id="rId83" xr:uid="{2F9757A9-9D79-4515-96E4-E4F3DBC74C11}"/>
+    <hyperlink ref="F29" r:id="rId84" xr:uid="{F4511DE4-AE2D-442C-B19E-D21562864BE5}"/>
+    <hyperlink ref="F30" r:id="rId85" xr:uid="{6BDC74CA-B98A-4E3C-BE2B-5014BF208EC5}"/>
+    <hyperlink ref="F31" r:id="rId86" xr:uid="{DBCA2FA0-F5E4-4B17-9D87-8CC3A5D53F8D}"/>
+    <hyperlink ref="F32" r:id="rId87" xr:uid="{ABC699BF-9AEF-4876-A7E0-2587D1E9EAC0}"/>
+    <hyperlink ref="F2" r:id="rId88" xr:uid="{DA9FB63F-9F74-435C-B5D8-06A21ED3558C}"/>
+    <hyperlink ref="F3" r:id="rId89" xr:uid="{4BE46902-2799-42A9-9C90-0CCEE6252939}"/>
+    <hyperlink ref="F4" r:id="rId90" xr:uid="{8FCD70DA-9DCA-468F-AA3E-53987C024760}"/>
+    <hyperlink ref="F5" r:id="rId91" xr:uid="{E844596D-F0CD-407D-BEA4-453A5F4E279C}"/>
+    <hyperlink ref="F6" r:id="rId92" xr:uid="{38F1636E-04EF-45FA-A853-30396B0673BC}"/>
+    <hyperlink ref="F7" r:id="rId93" xr:uid="{3165D5FD-C390-4891-AFEF-1A038F336C20}"/>
+    <hyperlink ref="F8" r:id="rId94" xr:uid="{FCC9E8ED-A3E7-4095-AFE1-27D2DC670279}"/>
+    <hyperlink ref="F9" r:id="rId95" xr:uid="{107532CA-5743-406B-95B9-68ECDC90423E}"/>
+    <hyperlink ref="F10" r:id="rId96" xr:uid="{BB486086-2D95-4F5D-BA89-5641639117FF}"/>
+    <hyperlink ref="F11" r:id="rId97" xr:uid="{A7B283C4-7CC9-45DA-BEA9-C4B723BA0901}"/>
+    <hyperlink ref="F12" r:id="rId98" xr:uid="{322CF00C-EA10-456A-B798-E9038EF2F98E}"/>
+    <hyperlink ref="F13" r:id="rId99" xr:uid="{A5F34439-5B1F-484F-926B-9E881979CA2E}"/>
+    <hyperlink ref="F14" r:id="rId100" xr:uid="{13F387A6-F110-4670-A23B-D5BD4882CBC5}"/>
+    <hyperlink ref="F15" r:id="rId101" xr:uid="{B06AC7C1-2925-4A6E-BBDD-686E6460F34D}"/>
+    <hyperlink ref="F16" r:id="rId102" xr:uid="{88DEB030-5BCA-4AC4-9C4C-9F00355F866F}"/>
+    <hyperlink ref="F17" r:id="rId103" xr:uid="{F7C4CC7F-176E-4169-9057-340E4EC0B6F7}"/>
+    <hyperlink ref="F18" r:id="rId104" xr:uid="{FA76E78D-5E89-42F7-AC4E-E641F9E26B7A}"/>
+    <hyperlink ref="F19" r:id="rId105" xr:uid="{10716D52-5753-4C47-A7F2-CDD8599B36C1}"/>
+    <hyperlink ref="F20" r:id="rId106" xr:uid="{A818F6D6-B899-4855-B989-FBB6827669A9}"/>
+    <hyperlink ref="F21" r:id="rId107" xr:uid="{12F92AB0-9F69-4935-B4D4-D20F8DE0D7E1}"/>
+    <hyperlink ref="F22" r:id="rId108" xr:uid="{FD67F12F-1173-4E4B-A8E3-F3A81C85E4EB}"/>
+    <hyperlink ref="F23" r:id="rId109" xr:uid="{64CA3CAB-0D61-45C4-9B27-C04EE14B58B5}"/>
+    <hyperlink ref="F26" r:id="rId110" xr:uid="{335A8E87-D725-4028-9DB7-E8624E6E544C}"/>
+    <hyperlink ref="F37" r:id="rId111" xr:uid="{B9227BF6-565E-4CC0-BF4C-4C508A7DB46B}"/>
+    <hyperlink ref="E57" r:id="rId112" xr:uid="{B6DDFCF8-2D59-4DA8-9C7A-A1B7B7E26168}"/>
+    <hyperlink ref="F57" r:id="rId113" xr:uid="{42C95BBC-98B4-4E80-B097-88E6F392B903}"/>
   </hyperlinks>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6141,39 +6313,39 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="B5" s="21"/>
       <c r="D5" s="21"/>
@@ -6181,35 +6353,35 @@
     </row>
     <row r="6" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="B10" s="21"/>
       <c r="D10" s="21"/>
@@ -6217,14 +6389,14 @@
     </row>
     <row r="11" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B12" s="23"/>
       <c r="D12" s="22"/>
@@ -6232,35 +6404,35 @@
     </row>
     <row r="13" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B17" s="21"/>
       <c r="D17" s="21"/>
@@ -6268,112 +6440,112 @@
     </row>
     <row r="18" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B33" s="21"/>
       <c r="D33" s="21"/>
@@ -6381,84 +6553,84 @@
     </row>
     <row r="34" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -6915,6 +7087,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D89A625C5B6364BB7302BED22ED65DA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05bac8ad6e033965382d52c38353e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7855343b-5261-4afc-a17c-d4c130fbaa85" xmlns:ns4="72f917e0-5d36-43ac-975d-26afa4cf7fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452e5605b09f318b6d66379e79837bd5" ns3:_="" ns4:_="">
     <xsd:import namespace="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
@@ -7161,14 +7341,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
   <ds:schemaRefs>
@@ -7178,6 +7350,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7194,14 +7376,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C746BC7-9869-48BE-9278-1B1B0E2E5865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288B144-6182-4FDF-9CA0-2755D5B18223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$57</definedName>
     <definedName name="PlantList">Sheet1!$B$2:$B$290</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="470">
   <si>
     <t>Plant ID</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Ledebouria socialis</t>
   </si>
   <si>
-    <t>Silver Squill, Wood Hyacinth</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/zGffq4r3/Ledebouria-socialis.jpg</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>Euphorbia milii</t>
   </si>
   <si>
-    <t>Crown of Thorns</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/Gp95FQ7K/Crown-of-Thorns.jpg</t>
   </si>
   <si>
@@ -241,9 +235,6 @@
     <t>Tecoma stans</t>
   </si>
   <si>
-    <t>Yellow Bells</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/BbG6s6SG/Tecoma-stans.jpg</t>
   </si>
   <si>
@@ -268,9 +259,6 @@
     <t>Dianthus spp.</t>
   </si>
   <si>
-    <t>Dianthus</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/tJtggjJn/Dianthus-spp.jpg</t>
   </si>
   <si>
@@ -289,9 +277,6 @@
     <t>Alternanthera brasiliana</t>
   </si>
   <si>
-    <t>Brazilian Joyweed</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/HxMxf5C2/Alternanthera-brasiliana.jpg</t>
   </si>
   <si>
@@ -319,9 +304,6 @@
     <t>Portulaca Oleracea</t>
   </si>
   <si>
-    <t>Portulaca</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/zXFLznH2/Portulaca-Oleracea.jpg</t>
   </si>
   <si>
@@ -334,9 +316,6 @@
     <t>Pennisetum spp.</t>
   </si>
   <si>
-    <t>Pennisetum</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/4yzYhcLd/Pennisetum-spp.jpg</t>
   </si>
   <si>
@@ -355,9 +334,6 @@
     <t>Foxtail Agave</t>
   </si>
   <si>
-    <t>Agave spp.</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/HW5cKGYg/Foxtail-Agave.jpg</t>
   </si>
   <si>
@@ -376,9 +352,6 @@
     <t>Euphorbia</t>
   </si>
   <si>
-    <t>Euphorbia lactea</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/dtYkcW3T/Euphorbia.jpg</t>
   </si>
   <si>
@@ -388,9 +361,6 @@
     <t>Bougainvillea spp.</t>
   </si>
   <si>
-    <t>Bougainvillea</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/NFhyMDxS/Bougainvillea-spp.jpg</t>
   </si>
   <si>
@@ -427,9 +397,6 @@
     <t>Dracaena angolensis</t>
   </si>
   <si>
-    <t xml:space="preserve">cylindrical snake plant </t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/VN60Hd6G/Dracaena-angolensis.jpg</t>
   </si>
   <si>
@@ -448,9 +415,6 @@
     <t xml:space="preserve">Cyperus aternifolius </t>
   </si>
   <si>
-    <t xml:space="preserve">Umbrella plant </t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/YCtWYXww/Cyperus-aternifolius.jpg</t>
   </si>
   <si>
@@ -469,9 +433,6 @@
     <t>Tradescantia spathacea</t>
   </si>
   <si>
-    <t xml:space="preserve">Oyster plant </t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/GhFD4WVQ/Tradescantia-spathacea.jpg</t>
   </si>
   <si>
@@ -490,9 +451,6 @@
     <t>Delonix regia</t>
   </si>
   <si>
-    <t>Royal Poinciana</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/G26DDdbM/Delonix-regia.jpg</t>
   </si>
   <si>
@@ -517,9 +475,6 @@
     <t>Millingtonia hortensis</t>
   </si>
   <si>
-    <t>Indian Cork Tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/bNcbNyCr/Millingtonia-hortensis-1.jpg</t>
   </si>
   <si>
@@ -541,9 +496,6 @@
     <t>Azadirachta indica</t>
   </si>
   <si>
-    <t>Neem</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/q7zgxSbW/Azadirachta-indica-1.jpg</t>
   </si>
   <si>
@@ -565,9 +517,6 @@
     <t>Nerium oleander</t>
   </si>
   <si>
-    <t>Oleander</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/8CKM1L9g/Nerium-oleander-1.jpg</t>
   </si>
   <si>
@@ -589,9 +538,6 @@
     <t>Ficus spp</t>
   </si>
   <si>
-    <t>Ficus</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/Qdqcy2qt/Ficus-spp-1.jpg</t>
   </si>
   <si>
@@ -616,9 +562,6 @@
     <t>Cinnamomum camphora</t>
   </si>
   <si>
-    <t>Camphor Tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/857WsjgJ/Cinnamomum-camphora-1.jpg</t>
   </si>
   <si>
@@ -634,9 +577,6 @@
     <t>Ligustrum spp</t>
   </si>
   <si>
-    <t>Privet</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/509hdWv2/Ligustrum-spp.jpg</t>
   </si>
   <si>
@@ -658,9 +598,6 @@
     <t>Cassia fistula</t>
   </si>
   <si>
-    <t>Golden shower tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/bNSKjTGk/Cassia-fistula.jpg</t>
   </si>
   <si>
@@ -682,9 +619,6 @@
     <t>Plumeria alba</t>
   </si>
   <si>
-    <t>Frangipani</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/R0Vw5gPT/Plumeria-alba-1.jpg</t>
   </si>
   <si>
@@ -703,9 +637,6 @@
     <t>Tabebuia spp</t>
   </si>
   <si>
-    <t>Trumpet tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/zBd9q2SS/Tabebuia-spp.jpg</t>
   </si>
   <si>
@@ -724,9 +655,6 @@
     <t>Thespesia populnea</t>
   </si>
   <si>
-    <t>Portia tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/dQxzXX0J/Thespesia-populnea.jpg</t>
   </si>
   <si>
@@ -748,9 +676,6 @@
     <t>Prosopis cineraria</t>
   </si>
   <si>
-    <t>Ghaf tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/BbXRb5mW/Prosopis-cineraria.jpg</t>
   </si>
   <si>
@@ -766,9 +691,6 @@
     <t>Ziziphus spina-christi</t>
   </si>
   <si>
-    <t>Christ’s thorn jujube</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/HkGFWy5K/Ziziphus-spina-christi.jpg</t>
   </si>
   <si>
@@ -790,9 +712,6 @@
     <t>Terminalia catappa</t>
   </si>
   <si>
-    <t>Indian almond</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/HLdKX169/Terminalia-catappa-L.jpg</t>
   </si>
   <si>
@@ -811,9 +730,6 @@
     <t>Washingtonia robusta</t>
   </si>
   <si>
-    <t>Mexican fan palm</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/sgpqMg42/Washingtonia-robusta.jpg</t>
   </si>
   <si>
@@ -835,9 +751,6 @@
     <t>Phoenix dactylifera</t>
   </si>
   <si>
-    <t>Date palm</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/k45pYF3V/Phoenix-dactylifera.jpg</t>
   </si>
   <si>
@@ -853,9 +766,6 @@
     <t>Vitex agnus-castus</t>
   </si>
   <si>
-    <t>Chaste tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/FRnnMdNT/Vitex-agnus-castus-2.jpg</t>
   </si>
   <si>
@@ -871,9 +781,6 @@
     <t>Moringa oleifera</t>
   </si>
   <si>
-    <t>Drumstick tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/W48y7YKL/Moringa-oleifera.jpg</t>
   </si>
   <si>
@@ -889,9 +796,6 @@
     <t>Sesbania grandiflora</t>
   </si>
   <si>
-    <t>Agati</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/gjXBmz0m/sesbania-grandiflora.jpg</t>
   </si>
   <si>
@@ -910,9 +814,6 @@
     <t>Thevetia peruviana</t>
   </si>
   <si>
-    <t>Yellow oleander</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/13SpMmw2/Thevetia-peruviana-1.jpg</t>
   </si>
   <si>
@@ -925,9 +826,6 @@
     <t>Casuarina equisetifolia</t>
   </si>
   <si>
-    <t>Australian pine</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/X7F4g3kR/Casuarina-equisetifolia.jpg</t>
   </si>
   <si>
@@ -943,9 +841,6 @@
     <t>Cordia sebestena</t>
   </si>
   <si>
-    <t>Geiger tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/Wpd2h0Fb/Cordia-sebestena.jpg</t>
   </si>
   <si>
@@ -958,9 +853,6 @@
     <t>Conocarpus erectus</t>
   </si>
   <si>
-    <t>Buttonwood</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/MHC3GCcR/Conocarpus-erectus-2.jpg</t>
   </si>
   <si>
@@ -979,9 +871,6 @@
     <t xml:space="preserve">Leucophyllum frutescens </t>
   </si>
   <si>
-    <t>Texas Sage</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/T1JQRW9f/pexels-jeffrey-eisen-1257101-12190619.jpg</t>
   </si>
   <si>
@@ -1003,9 +892,6 @@
     <t>Ocimum basilicum</t>
   </si>
   <si>
-    <t>Sweet Basil</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/Xq6ZLkNk/pexels-brent-keane-181485-1684990.jpg</t>
   </si>
   <si>
@@ -1021,9 +907,6 @@
     <t>Gazania rigens</t>
   </si>
   <si>
-    <t>Treasure Flower</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/66VVS8sp/pexels-digitalbuggu-165925.jpg</t>
   </si>
   <si>
@@ -1039,9 +922,6 @@
     <t>Ruellia simplex</t>
   </si>
   <si>
-    <t>Mexican Petunia</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/CKfk41HY/pexels-duy-le-duc-1257907900-27278478.jpg</t>
   </si>
   <si>
@@ -1054,9 +934,6 @@
     <t>Portulaca grandiflora</t>
   </si>
   <si>
-    <t>Moss Rose</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/VNRrgCrx/pexels-ancatakespics-7839320.jpg</t>
   </si>
   <si>
@@ -1066,9 +943,6 @@
     <t>Mangifera indica L.</t>
   </si>
   <si>
-    <t>Mango Tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/y8jxGMDL/Mango-Tree.jpg</t>
   </si>
   <si>
@@ -1087,9 +961,6 @@
     <t>Cynodon dactylon</t>
   </si>
   <si>
-    <t>Bermuda Grass</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/tChY3ZpQ/Grass.jpg</t>
   </si>
   <si>
@@ -1108,9 +979,6 @@
     <t>Senna surattensis</t>
   </si>
   <si>
-    <t>Scrambled Egg Tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/50Yt6jnr/Senna-surattensis.jpg</t>
   </si>
   <si>
@@ -1132,9 +1000,6 @@
     <t>Morus nigra L.</t>
   </si>
   <si>
-    <t>Black Mulberry</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/QdhV08dB/Morus-nigra-L.jpg</t>
   </si>
   <si>
@@ -1153,9 +1018,6 @@
     <t>Catharanthus roseus</t>
   </si>
   <si>
-    <t>Madagascar Periwinkle</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/Y2L4SDPS/Catharanthus-roseus.jpg</t>
   </si>
   <si>
@@ -1171,9 +1033,6 @@
     <t>Zinnia elegans Jacq.</t>
   </si>
   <si>
-    <t>Zinnia</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/65NQpWRH/Zinnia-elegans-Jacq.jpg</t>
   </si>
   <si>
@@ -1192,9 +1051,6 @@
     <t>Sansevieria trifasciata Prain</t>
   </si>
   <si>
-    <t>Snake Plant</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/zfPBzTSW/sanseviera-2.jpg</t>
   </si>
   <si>
@@ -1210,9 +1066,6 @@
     <t>Tradescantia pallida</t>
   </si>
   <si>
-    <t>Purple Heart</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/k40g89Hg/Tradescantia-pallida.jpg</t>
   </si>
   <si>
@@ -1234,9 +1087,6 @@
     <t>Sphagneticola trilobata</t>
   </si>
   <si>
-    <t>Creeping Daisy</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/QCcxJwLk/sphagneticola-trilobata.jpg</t>
   </si>
   <si>
@@ -1255,9 +1105,6 @@
     <t>Lantana montevidensis</t>
   </si>
   <si>
-    <t>Trailing Lantana</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/3JMk0CMF/Lantana-montevidensis.jpg</t>
   </si>
   <si>
@@ -1270,9 +1117,6 @@
     <t>Vachellia nilotica</t>
   </si>
   <si>
-    <t>Gum Arabic Tree</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/gchJpXwX/Vachellia-nilotica.jpg</t>
   </si>
   <si>
@@ -1294,9 +1138,6 @@
     <t>Mesembryanthemum cordifolium L.f.</t>
   </si>
   <si>
-    <t>Baby Sun Rose</t>
-  </si>
-  <si>
     <t>https://i.postimg.cc/xX6mmxDf/Mesembryanthemum-cordifolium.jpg</t>
   </si>
   <si>
@@ -1445,12 +1286,6 @@
   </si>
   <si>
     <t>نبات العنكبوت</t>
-  </si>
-  <si>
-    <t>Arabic name</t>
-  </si>
-  <si>
-    <t>Spider Plant</t>
   </si>
   <si>
     <t>ليديبوريا فضية</t>
@@ -2099,11 +1934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C3B61-471E-4868-9D01-BC7FF88A37C8}">
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:U186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2111,28 +1946,27 @@
     <col min="1" max="1" width="9.1796875" style="4"/>
     <col min="2" max="2" width="32.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="23.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="21.54296875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.81640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="14.54296875" style="4" customWidth="1"/>
-    <col min="13" max="14" width="9.1796875" style="4"/>
-    <col min="15" max="15" width="14.1796875" style="4" customWidth="1"/>
-    <col min="16" max="16" width="11.7265625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.1796875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" style="4"/>
+    <col min="14" max="14" width="14.1796875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2143,64 +1977,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>468</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2208,3813 +2039,3645 @@
         <v>22</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>467</v>
+        <v>414</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="S2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="O3" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>44</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>492</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>51</v>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="C5" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>59</v>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>471</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="P6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V6" s="4" t="s">
+      <c r="E7" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>472</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>76</v>
+      <c r="F7" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="4" t="s">
+      <c r="C8" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="4" t="s">
+      <c r="M8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="4" t="s">
+      <c r="P8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="E8" s="12" t="s">
+      <c r="L9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="E10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>495</v>
-      </c>
-      <c r="E9" s="12" t="s">
+      <c r="U10" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="E11" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>496</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="V10" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>497</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>105</v>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="M11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="O11" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="S11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>473</v>
+        <v>102</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="K13" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="4" t="s">
+      <c r="M13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="V12" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="P13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="K14" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="E13" s="12" t="s">
+    </row>
+    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" s="8" t="s">
+      <c r="E15" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="V13" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="V14" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>129</v>
+      <c r="F15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>40</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="4" t="s">
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="4" t="s">
+      <c r="P17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="V15" s="4" t="s">
+      <c r="S17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="B18" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>499</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="C18" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="F18" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="4" t="s">
+      <c r="G18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="V16" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>500</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>33</v>
+      <c r="P18" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R18" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S18" s="8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="U18" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="V18" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>505</v>
+        <v>143</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="U19" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="E20" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>477</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>167</v>
+      <c r="F20" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S20" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="U20" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="U22" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="V20" s="8" t="s">
+    </row>
+    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C23" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="F23" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="K23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="10" t="s">
+      <c r="E24" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="P24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U21" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="S24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="U24" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>478</v>
-      </c>
-      <c r="E22" s="13" t="s">
+    </row>
+    <row r="25" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="L22" s="8" t="s">
+      <c r="E25" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="10" t="s">
+      <c r="F25" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="Q22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" s="8" t="s">
+      <c r="K25" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>479</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>503</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O24" s="8" t="s">
+      <c r="M25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="P24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U24" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K25" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>108</v>
+      <c r="O25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R25" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="U25" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="E26" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>214</v>
+      <c r="E26" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>216</v>
+        <v>30</v>
       </c>
       <c r="M26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>108</v>
+      <c r="O26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R26" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S26" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>506</v>
+        <v>197</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>221</v>
+        <v>198</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>223</v>
+        <v>30</v>
       </c>
       <c r="M27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>108</v>
+      <c r="O27" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S27" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>507</v>
+        <v>203</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E28" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>480</v>
-      </c>
       <c r="E29" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>236</v>
+        <v>211</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>52</v>
+        <v>212</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>229</v>
+        <v>32</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R29" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S29" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="V29" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>508</v>
+        <v>215</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>453</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>242</v>
+        <v>216</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R30" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S30" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="U30" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="V30" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>481</v>
+        <v>222</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>250</v>
+        <v>223</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R31" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S31" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>482</v>
+        <v>228</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>257</v>
+        <v>229</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="10" t="s">
         <v>33</v>
       </c>
+      <c r="P32" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="Q32" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R32" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S32" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T32" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="V32" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>483</v>
+        <v>235</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>265</v>
+        <v>236</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>52</v>
+        <v>237</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>267</v>
+        <v>30</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R33" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S33" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="T33" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>484</v>
+        <v>240</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>271</v>
+        <v>241</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>273</v>
+        <v>30</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R34" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S34" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T34" s="8" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="U34" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="V34" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K35" s="8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>485</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>278</v>
-      </c>
       <c r="L35" s="8" t="s">
-        <v>267</v>
+        <v>32</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P35" s="10" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R35" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T35" s="8" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="T35" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="U35" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="V35" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>486</v>
+        <v>250</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>283</v>
+        <v>251</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>285</v>
+        <v>32</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>186</v>
+        <v>32</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R36" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S36" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T36" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T36" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="U36" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="U37" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="V36" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>509</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="U38" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="8" t="s">
+      <c r="E39" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S37" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="T37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="U37" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="V37" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P38" s="10" t="s">
+      <c r="H39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="Q38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T38" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U38" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="V38" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>510</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O39" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P39" s="10" t="s">
-        <v>33</v>
+      <c r="P39" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R39" s="8" t="s">
         <v>44</v>
       </c>
       <c r="S39" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39" s="8" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="U39" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="V39" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>511</v>
+        <v>269</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="E40" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H40" s="8" t="s">
+      <c r="E41" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K40" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="P40" s="10" t="s">
+      <c r="H41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="R40" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="S40" s="8" t="s">
+      <c r="P41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T40" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U40" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="V40" s="4" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="S41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F41" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P41" s="4" t="s">
+      <c r="E42" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O42" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S41" s="4" t="s">
+      <c r="P42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="T41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="S42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T42" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="U42" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="M42" s="4" t="s">
+      <c r="E43" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P42" s="4" t="s">
+      <c r="M43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U42" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="V42" s="4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>488</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="P43" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>44</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>31</v>
+        <v>290</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="V43" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>514</v>
+        <v>292</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="E44" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T44" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="U44" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F44" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H44" s="4" t="s">
+      <c r="E45" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R45" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="U45" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T44" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U44" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>515</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U45" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="V45" s="4" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>489</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="H46" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>344</v>
+        <v>32</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>44</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U46" t="s">
-        <v>345</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="T46" t="s">
+        <v>303</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="B47" t="s">
-        <v>347</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>516</v>
+        <v>305</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>349</v>
+        <v>306</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>322</v>
+        <v>30</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>44</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T47" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U47" t="s">
-        <v>351</v>
-      </c>
-      <c r="V47" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="T47" t="s">
+        <v>308</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>517</v>
+        <v>311</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E48" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T48" t="s">
+        <v>315</v>
+      </c>
+      <c r="U48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="D49" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R48" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T48" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U48" t="s">
-        <v>359</v>
-      </c>
-      <c r="V48" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C49" t="s">
-        <v>363</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>490</v>
-      </c>
       <c r="E49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>364</v>
+        <v>319</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>52</v>
+        <v>320</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>365</v>
+        <v>32</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>44</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T49" s="4" t="s">
-        <v>27</v>
+        <v>27</v>
+      </c>
+      <c r="T49" t="s">
+        <v>321</v>
       </c>
       <c r="U49" t="s">
-        <v>366</v>
-      </c>
-      <c r="V49" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="B50" t="s">
-        <v>369</v>
-      </c>
-      <c r="C50" t="s">
-        <v>370</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>518</v>
+        <v>324</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E50" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T50" t="s">
+        <v>326</v>
+      </c>
+      <c r="U50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M50" s="4" t="s">
+      <c r="E51" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L51" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P50" s="4" t="s">
+      <c r="M51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="O51" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q50" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R50" s="4" t="s">
+      <c r="P51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R51" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U50" t="s">
-        <v>372</v>
-      </c>
-      <c r="V50" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="B51" t="s">
-        <v>375</v>
-      </c>
-      <c r="C51" t="s">
-        <v>376</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>491</v>
-      </c>
-      <c r="E51" s="12" t="s">
+      <c r="S51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T51" t="s">
+        <v>332</v>
+      </c>
+      <c r="U51" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" t="s">
+        <v>335</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F51" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="M51" s="4" t="s">
+      <c r="E52" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52" t="s">
+        <v>82</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O51" s="4" t="s">
+      <c r="M52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P51" s="4" t="s">
+      <c r="S52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T52" t="s">
+        <v>337</v>
+      </c>
+      <c r="U52" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s">
+        <v>342</v>
+      </c>
+      <c r="K53" t="s">
+        <v>343</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R51" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S51" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U51" t="s">
-        <v>379</v>
-      </c>
-      <c r="V51" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B52" t="s">
-        <v>382</v>
-      </c>
-      <c r="C52" t="s">
-        <v>383</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" t="s">
-        <v>100</v>
-      </c>
-      <c r="L52" t="s">
-        <v>87</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O52" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R52" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S52" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T52" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U52" t="s">
-        <v>385</v>
-      </c>
-      <c r="V52" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C53" t="s">
-        <v>389</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>520</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K53" t="s">
-        <v>391</v>
-      </c>
-      <c r="L53" t="s">
-        <v>392</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O53" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="P53" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="R53" s="4" t="s">
         <v>44</v>
       </c>
       <c r="S53" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="T53" s="4" t="s">
-        <v>31</v>
+        <v>31</v>
+      </c>
+      <c r="T53" t="s">
+        <v>344</v>
       </c>
       <c r="U53" t="s">
-        <v>393</v>
-      </c>
-      <c r="V53" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s">
-        <v>396</v>
-      </c>
-      <c r="C54" t="s">
-        <v>397</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>521</v>
+        <v>347</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="E54" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54" t="s">
+        <v>350</v>
+      </c>
+      <c r="U54" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="M54" s="4" t="s">
+      <c r="E55" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="L55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P54" s="4" t="s">
+      <c r="M55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="Q54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R54" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T54" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U54" t="s">
-        <v>400</v>
-      </c>
-      <c r="V54" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C55" t="s">
-        <v>404</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>522</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="P55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T55" t="s">
+        <v>350</v>
+      </c>
+      <c r="U55" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>468</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M55" s="4" t="s">
+      <c r="E56" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T56" t="s">
+        <v>361</v>
+      </c>
+      <c r="U56" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>469</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L57" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P55" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R55" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U55" t="s">
-        <v>400</v>
-      </c>
-      <c r="V55" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C56" t="s">
-        <v>409</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>523</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R56" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="S56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T56" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U56" t="s">
-        <v>413</v>
-      </c>
-      <c r="V56" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>524</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="M57" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O57" s="4" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="S57" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>31</v>
+        <v>367</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="V57" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="59" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="60" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="61" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:22" ht="14.5" x14ac:dyDescent="0.35"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="59" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="65" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="66" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="67" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -6138,7 +5801,7 @@
     <row r="185" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="186" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U45">
     <sortCondition ref="A2:A45"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6146,143 +5809,143 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1" xr:uid="{58D66573-3890-4498-A66F-3227660DC8D7}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N26:N1048576 N2:N18 I2:I1048576 Q2:R1048576 T2:T1048576" xr:uid="{26BEA281-5615-4C1E-80B9-785C1C126E1E}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{58D66573-3890-4498-A66F-3227660DC8D7}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M1048576 M2:M18 H2:H1048576 P2:Q1048576 S2:S1048576" xr:uid="{26BEA281-5615-4C1E-80B9-785C1C126E1E}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M1048576 M2:M18 O2:O1048576" xr:uid="{BADEB7D1-F197-43A2-9AAB-F8E1A586A330}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L26:L1048576 L2:L18 N2:N1048576" xr:uid="{BADEB7D1-F197-43A2-9AAB-F8E1A586A330}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{9B94FA55-E999-447C-AE3A-D83167D0511E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{9B94FA55-E999-447C-AE3A-D83167D0511E}">
       <formula1>"Trees,Shrubs,Herbs,Grasses,Ground covers,Succulents,Palms,Climbers"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{8471231C-23F2-4910-9D7C-984D1473D629}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{8471231C-23F2-4910-9D7C-984D1473D629}">
       <formula1>"Annual,Perennial,Evergreen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{FA170704-FC67-4572-AA76-5580DBDBF151}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{FA170704-FC67-4572-AA76-5580DBDBF151}">
       <formula1>"Full sun,Partial sun,Partial shade,Full shade"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{BE3FA2F7-250C-446F-866C-ED07901AF023}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{BE3FA2F7-250C-446F-866C-ED07901AF023}">
       <formula1>"Taproot,Fibrous,Adventitious"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S1048576" xr:uid="{5236AF81-EC4F-4378-AD19-A16F9D681D97}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{5236AF81-EC4F-4378-AD19-A16F9D681D97}">
       <formula1>"Yes,No,Seasonal"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{2600CC34-FEC8-4358-A166-A0A0AADE2B16}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{5323DA1F-90E3-4EC4-9236-3FABF03E7B7B}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{018E3A31-D699-48D2-AD40-1BB7690AEFD7}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{392A5314-B9BB-4171-8F94-222188BA99B0}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{C2587916-F827-41B7-8EDB-D66AF039E12E}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{5B092A59-B505-409F-881F-B73548F6938E}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{000CFFF4-9940-48FD-A423-432D48721CE1}"/>
-    <hyperlink ref="E10" r:id="rId8" xr:uid="{3CA9DF8A-4187-4A78-B778-6207A316B333}"/>
-    <hyperlink ref="E11" r:id="rId9" xr:uid="{0E189887-694C-422E-A29F-FCEF22C7419F}"/>
-    <hyperlink ref="E12" r:id="rId10" xr:uid="{8C60A978-0633-4E7B-9B20-39535DD7DDC8}"/>
-    <hyperlink ref="E13" r:id="rId11" xr:uid="{719CD489-BB63-497E-AE08-21DC9CA54CA3}"/>
-    <hyperlink ref="E14" r:id="rId12" xr:uid="{DF2B3021-CB8F-44D8-BD31-AA8794C176EC}"/>
-    <hyperlink ref="E15" r:id="rId13" xr:uid="{D7DA4A7E-52AB-4E28-B3FC-EF963D4DDD4D}"/>
-    <hyperlink ref="E16" r:id="rId14" xr:uid="{1C616BAB-4C73-4EBF-B776-7BA076A7033C}"/>
-    <hyperlink ref="E17" r:id="rId15" xr:uid="{23CE6F16-08A6-4E8D-9C4D-C9B5127E144A}"/>
-    <hyperlink ref="E18" r:id="rId16" xr:uid="{ECBD96C7-2596-4362-B615-FF5B44F512E6}"/>
-    <hyperlink ref="E19" r:id="rId17" xr:uid="{4101BD30-6698-4EB1-8903-7E1FFBFB9B63}"/>
-    <hyperlink ref="E20" r:id="rId18" xr:uid="{4874A1A2-8C4B-4BED-8969-BE02721678F3}"/>
-    <hyperlink ref="E21" r:id="rId19" xr:uid="{2252DC4A-0C0B-416E-BC31-B768BCEAE16F}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{4112E39B-C26E-46CC-A777-150B9CFB739F}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{1EAE0336-600F-4BB9-896A-74726C93DF17}"/>
-    <hyperlink ref="E24" r:id="rId22" xr:uid="{21F64656-BD08-4D53-8965-D64438F9240D}"/>
-    <hyperlink ref="E25" r:id="rId23" xr:uid="{3C3C0EB3-86DF-4285-8FCA-00C307A1F95B}"/>
-    <hyperlink ref="E26" r:id="rId24" xr:uid="{B18E89B5-8326-4B91-9453-371E52799A2B}"/>
-    <hyperlink ref="E27" r:id="rId25" xr:uid="{0065F6AA-32BB-4DC3-AA2B-7BCDD6A44EBB}"/>
-    <hyperlink ref="E28" r:id="rId26" xr:uid="{1D7D50F0-D5C5-4C40-A96A-49B41DE78C68}"/>
-    <hyperlink ref="E29" r:id="rId27" xr:uid="{E9386162-3288-47F3-A64B-B7C674CF0CD6}"/>
-    <hyperlink ref="E30" r:id="rId28" xr:uid="{CBFB0E77-BEDF-48EA-9924-465E247355C4}"/>
-    <hyperlink ref="E31" r:id="rId29" xr:uid="{7044A41C-3685-470B-8F5B-80661D43C5E2}"/>
-    <hyperlink ref="E32" r:id="rId30" xr:uid="{9D6A02AB-3D8C-4EB2-9FAA-84914A73B229}"/>
-    <hyperlink ref="E33" r:id="rId31" xr:uid="{9CABA5BB-A509-4C32-89C4-9B32A2504DF8}"/>
-    <hyperlink ref="E34" r:id="rId32" xr:uid="{5A417341-CE47-428C-AE6B-8D0346B9AE99}"/>
-    <hyperlink ref="E35" r:id="rId33" xr:uid="{CF17741F-78A9-4737-A2EB-92996670749C}"/>
-    <hyperlink ref="E36" r:id="rId34" xr:uid="{06CB0C63-7DAC-491B-B517-7A7458705E0C}"/>
-    <hyperlink ref="E37" r:id="rId35" xr:uid="{1309698B-F196-45BB-9281-74166A20313B}"/>
-    <hyperlink ref="E38" r:id="rId36" xr:uid="{7876597A-46B3-4B6F-A74A-403496DE329B}"/>
-    <hyperlink ref="E39" r:id="rId37" xr:uid="{958469ED-DB41-484F-A776-1929CD714AF0}"/>
-    <hyperlink ref="E40" r:id="rId38" xr:uid="{794C1888-69A6-447B-A567-A33FE86DF71D}"/>
-    <hyperlink ref="E41" r:id="rId39" xr:uid="{FEC534E3-9431-492F-BD28-606DCB57CC8B}"/>
-    <hyperlink ref="E42" r:id="rId40" xr:uid="{2FB904E2-A75D-4A26-89C5-7589D678E56D}"/>
-    <hyperlink ref="E43" r:id="rId41" xr:uid="{BF526CAA-01FF-4066-91C6-A6F8BB3FCE21}"/>
-    <hyperlink ref="E44" r:id="rId42" xr:uid="{564ECDC1-2645-4F7E-98E6-1AABE34BEBC5}"/>
-    <hyperlink ref="E45" r:id="rId43" xr:uid="{FDCBB645-209E-4F77-ACEA-005347D2AE33}"/>
-    <hyperlink ref="F45" r:id="rId44" xr:uid="{54BE221F-8340-430F-949D-BE5DE2FA3C4E}"/>
-    <hyperlink ref="F44" r:id="rId45" xr:uid="{A942DD69-E44F-4CB0-B16D-4BADC06684CA}"/>
-    <hyperlink ref="F43" r:id="rId46" xr:uid="{5E7FC22A-71EE-428D-811A-20CD14846773}"/>
-    <hyperlink ref="F42" r:id="rId47" xr:uid="{C81E3ED7-E859-4259-8AF6-E7FC262BB034}"/>
-    <hyperlink ref="F41" r:id="rId48" xr:uid="{911FC1D7-A9ED-4554-916C-71358693FDB0}"/>
-    <hyperlink ref="E7" r:id="rId49" xr:uid="{9DAD28EA-4D30-4C83-907D-B7839F214B5C}"/>
-    <hyperlink ref="E46:E54" r:id="rId50" display="Open Image" xr:uid="{FD9F38CB-4E6C-4DD2-80EE-848175CFCA26}"/>
-    <hyperlink ref="E55" r:id="rId51" xr:uid="{6B895142-1E73-4D31-AAC6-1CE3C4CB9B68}"/>
-    <hyperlink ref="E56" r:id="rId52" xr:uid="{91615C1B-C881-4716-A52E-40DD942077BD}"/>
-    <hyperlink ref="E46" r:id="rId53" xr:uid="{3377DCFF-475F-4542-93FD-6062E02F5E45}"/>
-    <hyperlink ref="E47" r:id="rId54" xr:uid="{12139F7E-B38E-437B-9222-336AF9D313FF}"/>
-    <hyperlink ref="E48" r:id="rId55" xr:uid="{CC1893E0-7383-4D0F-B2FE-CFA7DBAE0BBE}"/>
-    <hyperlink ref="E49" r:id="rId56" xr:uid="{94FD7C65-6909-4A50-AD27-24EDD09433A8}"/>
-    <hyperlink ref="E50" r:id="rId57" xr:uid="{E845C3E1-366F-42A8-A577-9E93944ED709}"/>
-    <hyperlink ref="E51" r:id="rId58" xr:uid="{C489F4DF-E77E-4E9B-BB14-5119A4FD9738}"/>
-    <hyperlink ref="E52" r:id="rId59" xr:uid="{575FEEB6-B9F7-4106-8B3F-F80429460924}"/>
-    <hyperlink ref="E53" r:id="rId60" xr:uid="{8ECF9E2D-3F0A-4F42-AEBB-DE9451488D6E}"/>
-    <hyperlink ref="E54" r:id="rId61" xr:uid="{BDD4B0CC-0287-42D5-AE5A-3CC11C4612A6}"/>
-    <hyperlink ref="F46" r:id="rId62" xr:uid="{3CD73538-0D5C-4762-9F07-5D755DDEAF16}"/>
-    <hyperlink ref="F47" r:id="rId63" xr:uid="{40FF8D89-9B78-411F-8DB4-626B9AFF5A1D}"/>
-    <hyperlink ref="F48" r:id="rId64" xr:uid="{CA1C7212-1B59-4F8C-8BD6-3636D3D60A6A}"/>
-    <hyperlink ref="F49" r:id="rId65" xr:uid="{D38263CB-493C-439F-9F17-4236A96C66D1}"/>
-    <hyperlink ref="F50" r:id="rId66" xr:uid="{EF268AAA-D055-4ABB-9D80-BF7100CCE5F6}"/>
-    <hyperlink ref="F51" r:id="rId67" xr:uid="{9510EADC-FE45-4655-A213-003980F89284}"/>
-    <hyperlink ref="F52" r:id="rId68" xr:uid="{F8417B3D-8E2F-49A0-9346-F7DD1246A5EF}"/>
-    <hyperlink ref="F53" r:id="rId69" xr:uid="{784F421E-E918-4DD5-B45B-D31C95BEA044}"/>
-    <hyperlink ref="F54" r:id="rId70" xr:uid="{E1623873-15FE-460E-A915-DCDFCC91D3DA}"/>
-    <hyperlink ref="F55" r:id="rId71" xr:uid="{1A559C67-3450-466A-BFBC-07027D6BBCF5}"/>
-    <hyperlink ref="F56" r:id="rId72" xr:uid="{FA985005-458A-41F1-8F52-FF06E87B4865}"/>
-    <hyperlink ref="F40" r:id="rId73" xr:uid="{F038B75C-7931-42AD-9969-6CD70B6EC772}"/>
-    <hyperlink ref="F39" r:id="rId74" xr:uid="{84FC8343-E3AA-4D3A-BB39-83E0BFE9B563}"/>
-    <hyperlink ref="F38" r:id="rId75" xr:uid="{B2C56123-0097-4CCC-AF7B-A2DE5F633E15}"/>
-    <hyperlink ref="F36" r:id="rId76" xr:uid="{11AFD464-CA0C-4AB6-A72C-328EF8CF24ED}"/>
-    <hyperlink ref="F35" r:id="rId77" xr:uid="{5A6AFE26-9F39-46A3-A100-193A48287A3F}"/>
-    <hyperlink ref="F34" r:id="rId78" xr:uid="{DDB837BA-3D81-41EA-9139-B2979B5F07EB}"/>
-    <hyperlink ref="F33" r:id="rId79" xr:uid="{DBA6C7E9-CD5E-40DC-A123-2FCC71D0FB48}"/>
-    <hyperlink ref="F24" r:id="rId80" xr:uid="{12ACB02F-48ED-4EE0-9507-EC61696A7FA3}"/>
-    <hyperlink ref="F25" r:id="rId81" xr:uid="{5C50D50C-3B59-4219-9D58-CB56E8E4D83D}"/>
-    <hyperlink ref="F27" r:id="rId82" xr:uid="{A263D1F2-CC83-4D4E-B6AA-B01AA7A310EB}"/>
-    <hyperlink ref="F28" r:id="rId83" xr:uid="{2F9757A9-9D79-4515-96E4-E4F3DBC74C11}"/>
-    <hyperlink ref="F29" r:id="rId84" xr:uid="{F4511DE4-AE2D-442C-B19E-D21562864BE5}"/>
-    <hyperlink ref="F30" r:id="rId85" xr:uid="{6BDC74CA-B98A-4E3C-BE2B-5014BF208EC5}"/>
-    <hyperlink ref="F31" r:id="rId86" xr:uid="{DBCA2FA0-F5E4-4B17-9D87-8CC3A5D53F8D}"/>
-    <hyperlink ref="F32" r:id="rId87" xr:uid="{ABC699BF-9AEF-4876-A7E0-2587D1E9EAC0}"/>
-    <hyperlink ref="F2" r:id="rId88" xr:uid="{DA9FB63F-9F74-435C-B5D8-06A21ED3558C}"/>
-    <hyperlink ref="F3" r:id="rId89" xr:uid="{4BE46902-2799-42A9-9C90-0CCEE6252939}"/>
-    <hyperlink ref="F4" r:id="rId90" xr:uid="{8FCD70DA-9DCA-468F-AA3E-53987C024760}"/>
-    <hyperlink ref="F5" r:id="rId91" xr:uid="{E844596D-F0CD-407D-BEA4-453A5F4E279C}"/>
-    <hyperlink ref="F6" r:id="rId92" xr:uid="{38F1636E-04EF-45FA-A853-30396B0673BC}"/>
-    <hyperlink ref="F7" r:id="rId93" xr:uid="{3165D5FD-C390-4891-AFEF-1A038F336C20}"/>
-    <hyperlink ref="F8" r:id="rId94" xr:uid="{FCC9E8ED-A3E7-4095-AFE1-27D2DC670279}"/>
-    <hyperlink ref="F9" r:id="rId95" xr:uid="{107532CA-5743-406B-95B9-68ECDC90423E}"/>
-    <hyperlink ref="F10" r:id="rId96" xr:uid="{BB486086-2D95-4F5D-BA89-5641639117FF}"/>
-    <hyperlink ref="F11" r:id="rId97" xr:uid="{A7B283C4-7CC9-45DA-BEA9-C4B723BA0901}"/>
-    <hyperlink ref="F12" r:id="rId98" xr:uid="{322CF00C-EA10-456A-B798-E9038EF2F98E}"/>
-    <hyperlink ref="F13" r:id="rId99" xr:uid="{A5F34439-5B1F-484F-926B-9E881979CA2E}"/>
-    <hyperlink ref="F14" r:id="rId100" xr:uid="{13F387A6-F110-4670-A23B-D5BD4882CBC5}"/>
-    <hyperlink ref="F15" r:id="rId101" xr:uid="{B06AC7C1-2925-4A6E-BBDD-686E6460F34D}"/>
-    <hyperlink ref="F16" r:id="rId102" xr:uid="{88DEB030-5BCA-4AC4-9C4C-9F00355F866F}"/>
-    <hyperlink ref="F17" r:id="rId103" xr:uid="{F7C4CC7F-176E-4169-9057-340E4EC0B6F7}"/>
-    <hyperlink ref="F18" r:id="rId104" xr:uid="{FA76E78D-5E89-42F7-AC4E-E641F9E26B7A}"/>
-    <hyperlink ref="F19" r:id="rId105" xr:uid="{10716D52-5753-4C47-A7F2-CDD8599B36C1}"/>
-    <hyperlink ref="F20" r:id="rId106" xr:uid="{A818F6D6-B899-4855-B989-FBB6827669A9}"/>
-    <hyperlink ref="F21" r:id="rId107" xr:uid="{12F92AB0-9F69-4935-B4D4-D20F8DE0D7E1}"/>
-    <hyperlink ref="F22" r:id="rId108" xr:uid="{FD67F12F-1173-4E4B-A8E3-F3A81C85E4EB}"/>
-    <hyperlink ref="F23" r:id="rId109" xr:uid="{64CA3CAB-0D61-45C4-9B27-C04EE14B58B5}"/>
-    <hyperlink ref="F26" r:id="rId110" xr:uid="{335A8E87-D725-4028-9DB7-E8624E6E544C}"/>
-    <hyperlink ref="F37" r:id="rId111" xr:uid="{B9227BF6-565E-4CC0-BF4C-4C508A7DB46B}"/>
-    <hyperlink ref="E57" r:id="rId112" xr:uid="{B6DDFCF8-2D59-4DA8-9C7A-A1B7B7E26168}"/>
-    <hyperlink ref="F57" r:id="rId113" xr:uid="{42C95BBC-98B4-4E80-B097-88E6F392B903}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2600CC34-FEC8-4358-A166-A0A0AADE2B16}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{5323DA1F-90E3-4EC4-9236-3FABF03E7B7B}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{018E3A31-D699-48D2-AD40-1BB7690AEFD7}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{392A5314-B9BB-4171-8F94-222188BA99B0}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{C2587916-F827-41B7-8EDB-D66AF039E12E}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{5B092A59-B505-409F-881F-B73548F6938E}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{000CFFF4-9940-48FD-A423-432D48721CE1}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{3CA9DF8A-4187-4A78-B778-6207A316B333}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{0E189887-694C-422E-A29F-FCEF22C7419F}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{8C60A978-0633-4E7B-9B20-39535DD7DDC8}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{719CD489-BB63-497E-AE08-21DC9CA54CA3}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{DF2B3021-CB8F-44D8-BD31-AA8794C176EC}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{D7DA4A7E-52AB-4E28-B3FC-EF963D4DDD4D}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{1C616BAB-4C73-4EBF-B776-7BA076A7033C}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{23CE6F16-08A6-4E8D-9C4D-C9B5127E144A}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{ECBD96C7-2596-4362-B615-FF5B44F512E6}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{4101BD30-6698-4EB1-8903-7E1FFBFB9B63}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{4874A1A2-8C4B-4BED-8969-BE02721678F3}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{2252DC4A-0C0B-416E-BC31-B768BCEAE16F}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{4112E39B-C26E-46CC-A777-150B9CFB739F}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{1EAE0336-600F-4BB9-896A-74726C93DF17}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{21F64656-BD08-4D53-8965-D64438F9240D}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{3C3C0EB3-86DF-4285-8FCA-00C307A1F95B}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{B18E89B5-8326-4B91-9453-371E52799A2B}"/>
+    <hyperlink ref="D27" r:id="rId25" xr:uid="{0065F6AA-32BB-4DC3-AA2B-7BCDD6A44EBB}"/>
+    <hyperlink ref="D28" r:id="rId26" xr:uid="{1D7D50F0-D5C5-4C40-A96A-49B41DE78C68}"/>
+    <hyperlink ref="D29" r:id="rId27" xr:uid="{E9386162-3288-47F3-A64B-B7C674CF0CD6}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{CBFB0E77-BEDF-48EA-9924-465E247355C4}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{7044A41C-3685-470B-8F5B-80661D43C5E2}"/>
+    <hyperlink ref="D32" r:id="rId30" xr:uid="{9D6A02AB-3D8C-4EB2-9FAA-84914A73B229}"/>
+    <hyperlink ref="D33" r:id="rId31" xr:uid="{9CABA5BB-A509-4C32-89C4-9B32A2504DF8}"/>
+    <hyperlink ref="D34" r:id="rId32" xr:uid="{5A417341-CE47-428C-AE6B-8D0346B9AE99}"/>
+    <hyperlink ref="D35" r:id="rId33" xr:uid="{CF17741F-78A9-4737-A2EB-92996670749C}"/>
+    <hyperlink ref="D36" r:id="rId34" xr:uid="{06CB0C63-7DAC-491B-B517-7A7458705E0C}"/>
+    <hyperlink ref="D37" r:id="rId35" xr:uid="{1309698B-F196-45BB-9281-74166A20313B}"/>
+    <hyperlink ref="D38" r:id="rId36" xr:uid="{7876597A-46B3-4B6F-A74A-403496DE329B}"/>
+    <hyperlink ref="D39" r:id="rId37" xr:uid="{958469ED-DB41-484F-A776-1929CD714AF0}"/>
+    <hyperlink ref="D40" r:id="rId38" xr:uid="{794C1888-69A6-447B-A567-A33FE86DF71D}"/>
+    <hyperlink ref="D41" r:id="rId39" xr:uid="{FEC534E3-9431-492F-BD28-606DCB57CC8B}"/>
+    <hyperlink ref="D42" r:id="rId40" xr:uid="{2FB904E2-A75D-4A26-89C5-7589D678E56D}"/>
+    <hyperlink ref="D43" r:id="rId41" xr:uid="{BF526CAA-01FF-4066-91C6-A6F8BB3FCE21}"/>
+    <hyperlink ref="D44" r:id="rId42" xr:uid="{564ECDC1-2645-4F7E-98E6-1AABE34BEBC5}"/>
+    <hyperlink ref="D45" r:id="rId43" xr:uid="{FDCBB645-209E-4F77-ACEA-005347D2AE33}"/>
+    <hyperlink ref="E45" r:id="rId44" xr:uid="{54BE221F-8340-430F-949D-BE5DE2FA3C4E}"/>
+    <hyperlink ref="E44" r:id="rId45" xr:uid="{A942DD69-E44F-4CB0-B16D-4BADC06684CA}"/>
+    <hyperlink ref="E43" r:id="rId46" xr:uid="{5E7FC22A-71EE-428D-811A-20CD14846773}"/>
+    <hyperlink ref="E42" r:id="rId47" xr:uid="{C81E3ED7-E859-4259-8AF6-E7FC262BB034}"/>
+    <hyperlink ref="E41" r:id="rId48" xr:uid="{911FC1D7-A9ED-4554-916C-71358693FDB0}"/>
+    <hyperlink ref="D7" r:id="rId49" xr:uid="{9DAD28EA-4D30-4C83-907D-B7839F214B5C}"/>
+    <hyperlink ref="D46:D54" r:id="rId50" display="Open Image" xr:uid="{FD9F38CB-4E6C-4DD2-80EE-848175CFCA26}"/>
+    <hyperlink ref="D55" r:id="rId51" xr:uid="{6B895142-1E73-4D31-AAC6-1CE3C4CB9B68}"/>
+    <hyperlink ref="D56" r:id="rId52" xr:uid="{91615C1B-C881-4716-A52E-40DD942077BD}"/>
+    <hyperlink ref="D46" r:id="rId53" xr:uid="{3377DCFF-475F-4542-93FD-6062E02F5E45}"/>
+    <hyperlink ref="D47" r:id="rId54" xr:uid="{12139F7E-B38E-437B-9222-336AF9D313FF}"/>
+    <hyperlink ref="D48" r:id="rId55" xr:uid="{CC1893E0-7383-4D0F-B2FE-CFA7DBAE0BBE}"/>
+    <hyperlink ref="D49" r:id="rId56" xr:uid="{94FD7C65-6909-4A50-AD27-24EDD09433A8}"/>
+    <hyperlink ref="D50" r:id="rId57" xr:uid="{E845C3E1-366F-42A8-A577-9E93944ED709}"/>
+    <hyperlink ref="D51" r:id="rId58" xr:uid="{C489F4DF-E77E-4E9B-BB14-5119A4FD9738}"/>
+    <hyperlink ref="D52" r:id="rId59" xr:uid="{575FEEB6-B9F7-4106-8B3F-F80429460924}"/>
+    <hyperlink ref="D53" r:id="rId60" xr:uid="{8ECF9E2D-3F0A-4F42-AEBB-DE9451488D6E}"/>
+    <hyperlink ref="D54" r:id="rId61" xr:uid="{BDD4B0CC-0287-42D5-AE5A-3CC11C4612A6}"/>
+    <hyperlink ref="E46" r:id="rId62" xr:uid="{3CD73538-0D5C-4762-9F07-5D755DDEAF16}"/>
+    <hyperlink ref="E47" r:id="rId63" xr:uid="{40FF8D89-9B78-411F-8DB4-626B9AFF5A1D}"/>
+    <hyperlink ref="E48" r:id="rId64" xr:uid="{CA1C7212-1B59-4F8C-8BD6-3636D3D60A6A}"/>
+    <hyperlink ref="E49" r:id="rId65" xr:uid="{D38263CB-493C-439F-9F17-4236A96C66D1}"/>
+    <hyperlink ref="E50" r:id="rId66" xr:uid="{EF268AAA-D055-4ABB-9D80-BF7100CCE5F6}"/>
+    <hyperlink ref="E51" r:id="rId67" xr:uid="{9510EADC-FE45-4655-A213-003980F89284}"/>
+    <hyperlink ref="E52" r:id="rId68" xr:uid="{F8417B3D-8E2F-49A0-9346-F7DD1246A5EF}"/>
+    <hyperlink ref="E53" r:id="rId69" xr:uid="{784F421E-E918-4DD5-B45B-D31C95BEA044}"/>
+    <hyperlink ref="E54" r:id="rId70" xr:uid="{E1623873-15FE-460E-A915-DCDFCC91D3DA}"/>
+    <hyperlink ref="E55" r:id="rId71" xr:uid="{1A559C67-3450-466A-BFBC-07027D6BBCF5}"/>
+    <hyperlink ref="E56" r:id="rId72" xr:uid="{FA985005-458A-41F1-8F52-FF06E87B4865}"/>
+    <hyperlink ref="E40" r:id="rId73" xr:uid="{F038B75C-7931-42AD-9969-6CD70B6EC772}"/>
+    <hyperlink ref="E39" r:id="rId74" xr:uid="{84FC8343-E3AA-4D3A-BB39-83E0BFE9B563}"/>
+    <hyperlink ref="E38" r:id="rId75" xr:uid="{B2C56123-0097-4CCC-AF7B-A2DE5F633E15}"/>
+    <hyperlink ref="E36" r:id="rId76" xr:uid="{11AFD464-CA0C-4AB6-A72C-328EF8CF24ED}"/>
+    <hyperlink ref="E35" r:id="rId77" xr:uid="{5A6AFE26-9F39-46A3-A100-193A48287A3F}"/>
+    <hyperlink ref="E34" r:id="rId78" xr:uid="{DDB837BA-3D81-41EA-9139-B2979B5F07EB}"/>
+    <hyperlink ref="E33" r:id="rId79" xr:uid="{DBA6C7E9-CD5E-40DC-A123-2FCC71D0FB48}"/>
+    <hyperlink ref="E24" r:id="rId80" xr:uid="{12ACB02F-48ED-4EE0-9507-EC61696A7FA3}"/>
+    <hyperlink ref="E25" r:id="rId81" xr:uid="{5C50D50C-3B59-4219-9D58-CB56E8E4D83D}"/>
+    <hyperlink ref="E27" r:id="rId82" xr:uid="{A263D1F2-CC83-4D4E-B6AA-B01AA7A310EB}"/>
+    <hyperlink ref="E28" r:id="rId83" xr:uid="{2F9757A9-9D79-4515-96E4-E4F3DBC74C11}"/>
+    <hyperlink ref="E29" r:id="rId84" xr:uid="{F4511DE4-AE2D-442C-B19E-D21562864BE5}"/>
+    <hyperlink ref="E30" r:id="rId85" xr:uid="{6BDC74CA-B98A-4E3C-BE2B-5014BF208EC5}"/>
+    <hyperlink ref="E31" r:id="rId86" xr:uid="{DBCA2FA0-F5E4-4B17-9D87-8CC3A5D53F8D}"/>
+    <hyperlink ref="E32" r:id="rId87" xr:uid="{ABC699BF-9AEF-4876-A7E0-2587D1E9EAC0}"/>
+    <hyperlink ref="E2" r:id="rId88" xr:uid="{DA9FB63F-9F74-435C-B5D8-06A21ED3558C}"/>
+    <hyperlink ref="E3" r:id="rId89" xr:uid="{4BE46902-2799-42A9-9C90-0CCEE6252939}"/>
+    <hyperlink ref="E4" r:id="rId90" xr:uid="{8FCD70DA-9DCA-468F-AA3E-53987C024760}"/>
+    <hyperlink ref="E5" r:id="rId91" xr:uid="{E844596D-F0CD-407D-BEA4-453A5F4E279C}"/>
+    <hyperlink ref="E6" r:id="rId92" xr:uid="{38F1636E-04EF-45FA-A853-30396B0673BC}"/>
+    <hyperlink ref="E7" r:id="rId93" xr:uid="{3165D5FD-C390-4891-AFEF-1A038F336C20}"/>
+    <hyperlink ref="E8" r:id="rId94" xr:uid="{FCC9E8ED-A3E7-4095-AFE1-27D2DC670279}"/>
+    <hyperlink ref="E9" r:id="rId95" xr:uid="{107532CA-5743-406B-95B9-68ECDC90423E}"/>
+    <hyperlink ref="E10" r:id="rId96" xr:uid="{BB486086-2D95-4F5D-BA89-5641639117FF}"/>
+    <hyperlink ref="E11" r:id="rId97" xr:uid="{A7B283C4-7CC9-45DA-BEA9-C4B723BA0901}"/>
+    <hyperlink ref="E12" r:id="rId98" xr:uid="{322CF00C-EA10-456A-B798-E9038EF2F98E}"/>
+    <hyperlink ref="E13" r:id="rId99" xr:uid="{A5F34439-5B1F-484F-926B-9E881979CA2E}"/>
+    <hyperlink ref="E14" r:id="rId100" xr:uid="{13F387A6-F110-4670-A23B-D5BD4882CBC5}"/>
+    <hyperlink ref="E15" r:id="rId101" xr:uid="{B06AC7C1-2925-4A6E-BBDD-686E6460F34D}"/>
+    <hyperlink ref="E16" r:id="rId102" xr:uid="{88DEB030-5BCA-4AC4-9C4C-9F00355F866F}"/>
+    <hyperlink ref="E17" r:id="rId103" xr:uid="{F7C4CC7F-176E-4169-9057-340E4EC0B6F7}"/>
+    <hyperlink ref="E18" r:id="rId104" xr:uid="{FA76E78D-5E89-42F7-AC4E-E641F9E26B7A}"/>
+    <hyperlink ref="E19" r:id="rId105" xr:uid="{10716D52-5753-4C47-A7F2-CDD8599B36C1}"/>
+    <hyperlink ref="E20" r:id="rId106" xr:uid="{A818F6D6-B899-4855-B989-FBB6827669A9}"/>
+    <hyperlink ref="E21" r:id="rId107" xr:uid="{12F92AB0-9F69-4935-B4D4-D20F8DE0D7E1}"/>
+    <hyperlink ref="E22" r:id="rId108" xr:uid="{FD67F12F-1173-4E4B-A8E3-F3A81C85E4EB}"/>
+    <hyperlink ref="E23" r:id="rId109" xr:uid="{64CA3CAB-0D61-45C4-9B27-C04EE14B58B5}"/>
+    <hyperlink ref="E26" r:id="rId110" xr:uid="{335A8E87-D725-4028-9DB7-E8624E6E544C}"/>
+    <hyperlink ref="E37" r:id="rId111" xr:uid="{B9227BF6-565E-4CC0-BF4C-4C508A7DB46B}"/>
+    <hyperlink ref="D57" r:id="rId112" xr:uid="{B6DDFCF8-2D59-4DA8-9C7A-A1B7B7E26168}"/>
+    <hyperlink ref="E57" r:id="rId113" xr:uid="{42C95BBC-98B4-4E80-B097-88E6F392B903}"/>
   </hyperlinks>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6313,39 +5976,39 @@
   <sheetData>
     <row r="1" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>422</v>
+        <v>369</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>423</v>
+        <v>370</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>424</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>426</v>
+        <v>373</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="B5" s="21"/>
       <c r="D5" s="21"/>
@@ -6353,35 +6016,35 @@
     </row>
     <row r="6" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>429</v>
+        <v>376</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
     <row r="9" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="B10" s="21"/>
       <c r="D10" s="21"/>
@@ -6389,14 +6052,14 @@
     </row>
     <row r="11" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="B12" s="23"/>
       <c r="D12" s="22"/>
@@ -6404,35 +6067,35 @@
     </row>
     <row r="13" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
     </row>
     <row r="14" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>437</v>
+        <v>384</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
     <row r="15" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
     <row r="16" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
     </row>
     <row r="17" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="B17" s="21"/>
       <c r="D17" s="21"/>
@@ -6440,112 +6103,112 @@
     </row>
     <row r="18" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
     <row r="23" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
     <row r="24" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>447</v>
+        <v>394</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
     </row>
     <row r="25" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>448</v>
+        <v>395</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
     </row>
     <row r="27" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
     </row>
     <row r="28" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
     </row>
     <row r="29" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>455</v>
+        <v>402</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
     </row>
     <row r="33" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="B33" s="21"/>
       <c r="D33" s="21"/>
@@ -6553,84 +6216,84 @@
     </row>
     <row r="34" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>457</v>
+        <v>404</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
     </row>
     <row r="35" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
     </row>
     <row r="36" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
     </row>
     <row r="37" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>461</v>
+        <v>408</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
     <row r="40" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
     <row r="41" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
@@ -7087,14 +6750,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D89A625C5B6364BB7302BED22ED65DA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05bac8ad6e033965382d52c38353e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7855343b-5261-4afc-a17c-d4c130fbaa85" xmlns:ns4="72f917e0-5d36-43ac-975d-26afa4cf7fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452e5605b09f318b6d66379e79837bd5" ns3:_="" ns4:_="">
     <xsd:import namespace="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
@@ -7341,6 +6996,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
   <ds:schemaRefs>
@@ -7350,16 +7013,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7376,4 +7029,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288B144-6182-4FDF-9CA0-2755D5B18223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D251AA8-28D4-410D-A5C4-C833767C13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
@@ -1936,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C3B61-471E-4868-9D01-BC7FF88A37C8}">
   <dimension ref="A1:U186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -6750,6 +6750,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D89A625C5B6364BB7302BED22ED65DA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05bac8ad6e033965382d52c38353e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7855343b-5261-4afc-a17c-d4c130fbaa85" xmlns:ns4="72f917e0-5d36-43ac-975d-26afa4cf7fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452e5605b09f318b6d66379e79837bd5" ns3:_="" ns4:_="">
     <xsd:import namespace="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
@@ -6996,14 +7004,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
   <ds:schemaRefs>
@@ -7013,6 +7013,16 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7029,14 +7039,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D251AA8-28D4-410D-A5C4-C833767C13D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E93DBD-7082-4861-8400-4D64B90B96CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1936,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C3B61-471E-4868-9D01-BC7FF88A37C8}">
   <dimension ref="A1:U186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -5959,9 +5959,9 @@
   </sheetPr>
   <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6722,16 +6722,13 @@
       <c r="F163" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B336:B1048576" xr:uid="{85296FD7-FAAE-4FEC-9ADD-424C2C60C1D9}">
       <formula1>PlantList</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D5:D6 D9:D10 D13 D16:D1048576" xr:uid="{77C76449-A653-4CD7-806C-BE59A710973E}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B335" xr:uid="{2F4CBFDC-D32D-4934-A5F2-2B76FA17BF53}">
       <formula1>PlantList</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{698A3875-02CE-4468-BE8B-3C96AA3B4781}">
-      <formula1>"Building,Gate,Roadside,Residential,Infrastructure,Facilities,Car park"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -6741,23 +6738,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D89A625C5B6364BB7302BED22ED65DA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05bac8ad6e033965382d52c38353e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7855343b-5261-4afc-a17c-d4c130fbaa85" xmlns:ns4="72f917e0-5d36-43ac-975d-26afa4cf7fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452e5605b09f318b6d66379e79837bd5" ns3:_="" ns4:_="">
     <xsd:import namespace="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
@@ -7004,25 +6984,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7039,4 +7018,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3195EB9-01E0-43BA-AE45-18A067FF6FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFCC3F4-78AE-4719-87AB-773A0AAF169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="491">
   <si>
     <t>Plant ID</t>
   </si>
@@ -967,12 +967,6 @@
     <t>Conocarpus erectus</t>
   </si>
   <si>
-    <t>كونوكاربس</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/MHC3GCcR/Conocarpus-erectus-2.jpg</t>
-  </si>
-  <si>
     <t>1 - 20 m</t>
   </si>
   <si>
@@ -1012,12 +1006,6 @@
     <t>Ocimum basilicum</t>
   </si>
   <si>
-    <t>المشموم</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Xq6ZLkNk/pexels-brent-keane-181485-1684990.jpg</t>
-  </si>
-  <si>
     <t>0.3 - 0.5 m</t>
   </si>
   <si>
@@ -1451,13 +1439,88 @@
   </si>
   <si>
     <t>Gate 3-S55</t>
+  </si>
+  <si>
+    <t>المشموم البحريني</t>
+  </si>
+  <si>
+    <t>دمس رمادي</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5y0VwZzt/almshmwm-albhryny.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pX3HFcLL/dms-rmady.jpg</t>
+  </si>
+  <si>
+    <t>OP-059</t>
+  </si>
+  <si>
+    <t>OP-060</t>
+  </si>
+  <si>
+    <t>Euphorbia tithymaloides</t>
+  </si>
+  <si>
+    <t>1.5 - 2.5 m</t>
+  </si>
+  <si>
+    <t>15-25 g/year</t>
+  </si>
+  <si>
+    <t>30-50 g/year</t>
+  </si>
+  <si>
+    <t>Crinum asiaticum</t>
+  </si>
+  <si>
+    <t>0.6 - 1.0 m</t>
+  </si>
+  <si>
+    <t>20-35 g/year</t>
+  </si>
+  <si>
+    <t>40-70 g/year</t>
+  </si>
+  <si>
+    <t>OP-061</t>
+  </si>
+  <si>
+    <t>Volkameria inermis</t>
+  </si>
+  <si>
+    <t>2.0 - 4.0 m</t>
+  </si>
+  <si>
+    <t>1.5 - 3.0 m</t>
+  </si>
+  <si>
+    <t>60-100 g/year</t>
+  </si>
+  <si>
+    <t>الفربيون تيثيمالويدس</t>
+  </si>
+  <si>
+    <t>زنبق العنكبوت</t>
+  </si>
+  <si>
+    <t>الياسمين الزفر</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/JnQT10GQ/alfrbywn-tythymalwyds.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZRLfTnCV/alyasmyn-alzfr.jpg</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Kz59ZjRN/znbq-alʿnkbwt.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1534,11 +1597,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1588,9 +1652,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{AE659222-7167-453C-8DC0-4FDDEB47B12A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -1937,36 +2009,36 @@
   <dimension ref="A1:U186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="32.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="14.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="32.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" style="4"/>
+    <col min="14" max="14" width="14.1796875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2031,7 +2103,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45">
+    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2168,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75">
+    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -2161,7 +2233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45">
+    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2226,7 +2298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45">
+    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -2291,7 +2363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45">
+    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
@@ -2356,7 +2428,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45">
+    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2421,7 +2493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45">
+    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2486,7 +2558,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45">
+    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>92</v>
       </c>
@@ -2551,7 +2623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45">
+    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
@@ -2616,7 +2688,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45">
+    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>104</v>
       </c>
@@ -2681,7 +2753,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45">
+    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2746,7 +2818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45">
+    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
@@ -2811,7 +2883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.45">
+    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2876,7 +2948,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45">
+    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>129</v>
       </c>
@@ -2941,7 +3013,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.45">
+    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>136</v>
       </c>
@@ -3006,7 +3078,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45">
+    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>143</v>
       </c>
@@ -3071,7 +3143,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>150</v>
       </c>
@@ -3136,7 +3208,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.45">
+    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>159</v>
       </c>
@@ -3201,7 +3273,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45">
+    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>167</v>
       </c>
@@ -3266,7 +3338,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.45">
+    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>175</v>
       </c>
@@ -3331,7 +3403,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.45">
+    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>183</v>
       </c>
@@ -3396,7 +3468,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75">
+    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>192</v>
       </c>
@@ -3461,7 +3533,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.45">
+    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>198</v>
       </c>
@@ -3526,7 +3598,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.45">
+    <row r="25" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>206</v>
       </c>
@@ -3591,7 +3663,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.45">
+    <row r="26" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>214</v>
       </c>
@@ -3656,7 +3728,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.45">
+    <row r="27" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>221</v>
       </c>
@@ -3721,7 +3793,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.45">
+    <row r="28" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>228</v>
       </c>
@@ -3786,7 +3858,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.45">
+    <row r="29" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>236</v>
       </c>
@@ -3851,7 +3923,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.45">
+    <row r="30" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>242</v>
       </c>
@@ -3916,7 +3988,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.45">
+    <row r="31" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -3981,7 +4053,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>257</v>
       </c>
@@ -4046,7 +4118,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.45">
+    <row r="33" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
@@ -4111,7 +4183,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.45">
+    <row r="34" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>271</v>
       </c>
@@ -4176,7 +4248,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.45">
+    <row r="35" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>277</v>
       </c>
@@ -4241,7 +4313,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.45">
+    <row r="36" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>283</v>
       </c>
@@ -4306,7 +4378,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="14.45">
+    <row r="37" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>290</v>
       </c>
@@ -4371,7 +4443,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="14.45">
+    <row r="38" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>295</v>
       </c>
@@ -4436,7 +4508,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="14.45">
+    <row r="39" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>301</v>
       </c>
@@ -4501,7 +4573,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.45">
+    <row r="40" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>306</v>
       </c>
@@ -4509,13 +4581,13 @@
         <v>307</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>308</v>
+        <v>467</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>309</v>
+        <v>469</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>154</v>
@@ -4530,7 +4602,7 @@
         <v>53</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>232</v>
@@ -4560,27 +4632,27 @@
         <v>32</v>
       </c>
       <c r="T40" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="U40" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" ht="14.45">
-      <c r="A41" s="4" t="s">
+      <c r="C41" s="24" t="s">
         <v>313</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>315</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>70</v>
@@ -4595,10 +4667,10 @@
         <v>53</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>33</v>
@@ -4625,27 +4697,27 @@
         <v>32</v>
       </c>
       <c r="T41" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="U41" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="14.45">
-      <c r="A42" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>322</v>
-      </c>
       <c r="C42" s="24" t="s">
-        <v>323</v>
+        <v>466</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>324</v>
+      <c r="E42" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>26</v>
@@ -4663,7 +4735,7 @@
         <v>89</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>31</v>
@@ -4690,30 +4762,30 @@
         <v>32</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="14.45">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>42</v>
@@ -4755,27 +4827,27 @@
         <v>32</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="14.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>26</v>
@@ -4820,30 +4892,30 @@
         <v>28</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>87</v>
@@ -4858,7 +4930,7 @@
         <v>96</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>31</v>
@@ -4885,27 +4957,27 @@
         <v>32</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="14.45">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>154</v>
@@ -4920,10 +4992,10 @@
         <v>53</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>33</v>
@@ -4950,27 +5022,27 @@
         <v>28</v>
       </c>
       <c r="T46" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="14.45">
+    <row r="47" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B47" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>86</v>
@@ -4985,10 +5057,10 @@
         <v>53</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>31</v>
@@ -5015,27 +5087,27 @@
         <v>28</v>
       </c>
       <c r="T47" t="s">
+        <v>350</v>
+      </c>
+      <c r="U47" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>354</v>
-      </c>
-      <c r="U47" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.75">
-      <c r="A48" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>358</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>154</v>
@@ -5050,10 +5122,10 @@
         <v>53</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>33</v>
@@ -5080,27 +5152,27 @@
         <v>28</v>
       </c>
       <c r="T48" t="s">
+        <v>358</v>
+      </c>
+      <c r="U48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="24" t="s">
         <v>362</v>
-      </c>
-      <c r="U48" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="14.45">
-      <c r="A49" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>366</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>154</v>
@@ -5115,10 +5187,10 @@
         <v>53</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>33</v>
@@ -5145,27 +5217,27 @@
         <v>28</v>
       </c>
       <c r="T49" t="s">
+        <v>365</v>
+      </c>
+      <c r="U49" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B50" t="s">
+        <v>368</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>369</v>
-      </c>
-      <c r="U49" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="14.45">
-      <c r="A50" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="B50" t="s">
-        <v>372</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>373</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>70</v>
@@ -5180,7 +5252,7 @@
         <v>53</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>89</v>
@@ -5210,27 +5282,27 @@
         <v>32</v>
       </c>
       <c r="T50" t="s">
+        <v>371</v>
+      </c>
+      <c r="U50" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B51" t="s">
+        <v>374</v>
+      </c>
+      <c r="C51" s="24" t="s">
         <v>375</v>
-      </c>
-      <c r="U50" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="14.45">
-      <c r="A51" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="B51" t="s">
-        <v>378</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>379</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>26</v>
@@ -5248,7 +5320,7 @@
         <v>88</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>31</v>
@@ -5275,27 +5347,27 @@
         <v>32</v>
       </c>
       <c r="T51" t="s">
+        <v>378</v>
+      </c>
+      <c r="U51" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B52" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="24" t="s">
         <v>382</v>
-      </c>
-      <c r="U51" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="14.45">
-      <c r="A52" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B52" t="s">
-        <v>385</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>386</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>41</v>
@@ -5340,30 +5412,30 @@
         <v>32</v>
       </c>
       <c r="T52" t="s">
+        <v>384</v>
+      </c>
+      <c r="U52" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>388</v>
-      </c>
-      <c r="U52" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="14.45">
-      <c r="A53" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>392</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>42</v>
@@ -5375,10 +5447,10 @@
         <v>53</v>
       </c>
       <c r="J53" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K53" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>31</v>
@@ -5405,30 +5477,30 @@
         <v>32</v>
       </c>
       <c r="T53" t="s">
+        <v>392</v>
+      </c>
+      <c r="U53" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B54" t="s">
+        <v>395</v>
+      </c>
+      <c r="C54" s="24" t="s">
         <v>396</v>
-      </c>
-      <c r="U53" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="14.45">
-      <c r="A54" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B54" t="s">
-        <v>399</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>400</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>42</v>
@@ -5443,7 +5515,7 @@
         <v>96</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>31</v>
@@ -5470,30 +5542,30 @@
         <v>28</v>
       </c>
       <c r="T54" t="s">
+        <v>399</v>
+      </c>
+      <c r="U54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C55" s="24" t="s">
         <v>403</v>
-      </c>
-      <c r="U54" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="14.45">
-      <c r="A55" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>407</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>42</v>
@@ -5508,7 +5580,7 @@
         <v>89</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>31</v>
@@ -5535,27 +5607,27 @@
         <v>28</v>
       </c>
       <c r="T55" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="U55" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="14.45">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>154</v>
@@ -5570,10 +5642,10 @@
         <v>53</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>33</v>
@@ -5600,30 +5672,30 @@
         <v>28</v>
       </c>
       <c r="T56" t="s">
+        <v>412</v>
+      </c>
+      <c r="U56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C57" s="24" t="s">
         <v>416</v>
-      </c>
-      <c r="U56" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="14.45">
-      <c r="A57" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>420</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>42</v>
@@ -5635,7 +5707,7 @@
         <v>53</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>89</v>
@@ -5665,141 +5737,327 @@
         <v>32</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="14.45"/>
-    <row r="59" spans="1:21" ht="14.45"/>
-    <row r="60" spans="1:21" ht="14.45"/>
-    <row r="61" spans="1:21" ht="14.45"/>
-    <row r="62" spans="1:21" ht="14.45"/>
-    <row r="63" spans="1:21" ht="14.45"/>
-    <row r="64" spans="1:21" ht="14.45"/>
-    <row r="65" ht="14.45"/>
-    <row r="66" ht="14.45"/>
-    <row r="67" ht="14.45"/>
-    <row r="68" ht="14.45"/>
-    <row r="69" ht="14.45"/>
-    <row r="70" ht="14.45"/>
-    <row r="71" ht="14.45"/>
-    <row r="72" ht="14.45"/>
-    <row r="73" ht="14.45"/>
-    <row r="74" ht="14.45"/>
-    <row r="75" ht="14.45"/>
-    <row r="76" ht="14.45"/>
-    <row r="77" ht="14.45"/>
-    <row r="78" ht="14.45"/>
-    <row r="79" ht="14.45"/>
-    <row r="80" ht="14.45"/>
-    <row r="81" ht="14.45"/>
-    <row r="82" ht="14.45"/>
-    <row r="83" ht="14.45"/>
-    <row r="84" ht="14.45"/>
-    <row r="85" ht="14.45"/>
-    <row r="86" ht="14.45"/>
-    <row r="87" ht="14.45"/>
-    <row r="88" ht="14.45"/>
-    <row r="89" ht="14.45"/>
-    <row r="90" ht="14.45"/>
-    <row r="91" ht="14.45"/>
-    <row r="92" ht="14.45"/>
-    <row r="93" ht="14.45"/>
-    <row r="94" ht="14.45"/>
-    <row r="95" ht="14.45"/>
-    <row r="96" ht="14.45"/>
-    <row r="97" ht="14.45"/>
-    <row r="98" ht="14.45"/>
-    <row r="99" ht="14.45"/>
-    <row r="100" ht="14.45"/>
-    <row r="101" ht="14.45"/>
-    <row r="102" ht="14.45"/>
-    <row r="103" ht="14.45"/>
-    <row r="104" ht="14.45"/>
-    <row r="105" ht="14.45"/>
-    <row r="106" ht="14.45"/>
-    <row r="107" ht="14.45"/>
-    <row r="108" ht="14.45"/>
-    <row r="109" ht="14.45"/>
-    <row r="110" ht="14.45"/>
-    <row r="111" ht="14.45"/>
-    <row r="112" ht="14.45"/>
-    <row r="113" ht="14.45"/>
-    <row r="114" ht="14.45"/>
-    <row r="115" ht="14.45"/>
-    <row r="116" ht="14.45"/>
-    <row r="117" ht="14.45"/>
-    <row r="118" ht="14.45"/>
-    <row r="119" ht="14.45"/>
-    <row r="120" ht="14.45"/>
-    <row r="121" ht="14.45"/>
-    <row r="122" ht="14.45"/>
-    <row r="123" ht="14.45"/>
-    <row r="124" ht="14.45"/>
-    <row r="125" ht="14.45"/>
-    <row r="126" ht="14.45"/>
-    <row r="127" ht="14.45"/>
-    <row r="128" ht="14.45"/>
-    <row r="129" ht="14.45"/>
-    <row r="130" ht="14.45"/>
-    <row r="131" ht="14.45"/>
-    <row r="132" ht="14.45"/>
-    <row r="133" ht="14.45"/>
-    <row r="134" ht="14.45"/>
-    <row r="135" ht="14.45"/>
-    <row r="136" ht="14.45"/>
-    <row r="137" ht="14.45"/>
-    <row r="138" ht="14.45"/>
-    <row r="139" ht="14.45"/>
-    <row r="140" ht="14.45"/>
-    <row r="141" ht="14.45"/>
-    <row r="142" ht="14.45"/>
-    <row r="143" ht="14.45"/>
-    <row r="144" ht="14.45"/>
-    <row r="145" ht="14.45"/>
-    <row r="146" ht="14.45"/>
-    <row r="147" ht="14.45"/>
-    <row r="148" ht="14.45"/>
-    <row r="149" ht="14.45"/>
-    <row r="150" ht="14.45"/>
-    <row r="151" ht="14.45"/>
-    <row r="152" ht="14.45"/>
-    <row r="153" ht="14.45"/>
-    <row r="154" ht="14.45"/>
-    <row r="155" ht="14.45"/>
-    <row r="156" ht="14.45"/>
-    <row r="157" ht="14.45"/>
-    <row r="158" ht="14.45"/>
-    <row r="159" ht="14.45"/>
-    <row r="160" ht="14.45"/>
-    <row r="161" ht="14.45"/>
-    <row r="162" ht="14.45"/>
-    <row r="163" ht="14.45"/>
-    <row r="164" ht="14.45"/>
-    <row r="165" ht="14.45"/>
-    <row r="166" ht="14.45"/>
-    <row r="167" ht="14.45"/>
-    <row r="168" ht="14.45"/>
-    <row r="169" ht="14.45"/>
-    <row r="170" ht="14.45"/>
-    <row r="171" ht="14.45"/>
-    <row r="172" ht="14.45"/>
-    <row r="173" ht="14.45"/>
-    <row r="174" ht="14.45"/>
-    <row r="175" ht="14.45"/>
-    <row r="176" ht="14.45"/>
-    <row r="177" ht="14.45"/>
-    <row r="178" ht="14.45"/>
-    <row r="179" ht="14.45"/>
-    <row r="180" ht="14.45"/>
-    <row r="181" ht="14.45"/>
-    <row r="182" ht="14.45"/>
-    <row r="183" ht="14.45"/>
-    <row r="184" ht="14.45"/>
-    <row r="185" ht="14.45"/>
-    <row r="186" ht="14.45"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="26" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="27" t="s">
+        <v>488</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P58" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S58" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="U58" s="25" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="26" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="27" t="s">
+        <v>490</v>
+      </c>
+      <c r="F59" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I59" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J59" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q59" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S59" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T59" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="U59" s="25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="26" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="F60" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I60" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O60" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q60" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S60" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="25" t="s">
+        <v>475</v>
+      </c>
+      <c r="U60" s="25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U45">
     <sortCondition ref="A2:A45"/>
@@ -5946,6 +6204,9 @@
     <hyperlink ref="E37" r:id="rId111" xr:uid="{B9227BF6-565E-4CC0-BF4C-4C508A7DB46B}"/>
     <hyperlink ref="D57" r:id="rId112" xr:uid="{B6DDFCF8-2D59-4DA8-9C7A-A1B7B7E26168}"/>
     <hyperlink ref="E57" r:id="rId113" xr:uid="{42C95BBC-98B4-4E80-B097-88E6F392B903}"/>
+    <hyperlink ref="E58" r:id="rId114" xr:uid="{4F00AB62-1372-499A-8211-9711806AABEA}"/>
+    <hyperlink ref="E59" r:id="rId115" xr:uid="{F708A31D-C2B5-4330-AF9A-C16DA58EC2AE}"/>
+    <hyperlink ref="E60" r:id="rId116" xr:uid="{14D81D35-D16E-4182-94FC-43E955C1B5D3}"/>
   </hyperlinks>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5964,761 +6225,761 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" customWidth="1"/>
+    <col min="5" max="5" width="34.26953125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="3" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="4" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="5" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="6" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="7" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="12" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B12" s="23"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="13" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="14" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="16" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="17" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="18" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="19" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
     </row>
-    <row r="20" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="20" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
     </row>
-    <row r="21" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="21" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="22" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="25" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="26" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="27" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="28" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="30" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="31" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="32" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="33" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="35" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="36" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="37" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="38" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
     </row>
-    <row r="39" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="39" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="40" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
-    <row r="41" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="41" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="43" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="44" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="45" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="1:6" ht="14.45">
+    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D46" s="16"/>
       <c r="E46" s="17"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="14.45">
+    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="14.45">
+    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E48" s="18"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="5:6" ht="14.45">
+    <row r="49" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E49" s="18"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="5:6" ht="14.45">
+    <row r="50" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E50" s="18"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="5:6" ht="14.45">
+    <row r="51" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E51" s="18"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="5:6" ht="14.45">
+    <row r="52" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E52" s="18"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="5:6" ht="14.45">
+    <row r="53" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E53" s="18"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="5:6" ht="14.45">
+    <row r="54" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E54" s="18"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="5:6" ht="14.45">
+    <row r="55" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E55" s="18"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="5:6" ht="14.45">
+    <row r="56" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E56" s="18"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="5:6" ht="14.45">
+    <row r="57" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E57" s="18"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="5:6" ht="14.45">
+    <row r="58" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E58" s="18"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="5:6" ht="14.45">
+    <row r="59" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E59" s="18"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="5:6" ht="14.45">
+    <row r="60" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E60" s="18"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="5:6" ht="14.45">
+    <row r="61" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E61" s="18"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="5:6" ht="14.45">
+    <row r="62" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E62" s="18"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="5:6" ht="14.45">
+    <row r="63" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E63" s="18"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="5:6" ht="14.45">
+    <row r="64" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E64" s="18"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" ht="14.45">
+    <row r="65" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E65" s="18"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" ht="14.45">
+    <row r="66" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E66" s="18"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" ht="14.45">
+    <row r="67" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E67" s="18"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" ht="14.45">
+    <row r="68" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E68" s="18"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" ht="14.45">
+    <row r="69" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E69" s="18"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" ht="14.45">
+    <row r="70" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E70" s="18"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" ht="14.45">
+    <row r="71" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E71" s="18"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" ht="14.45">
+    <row r="72" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E72" s="18"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" ht="14.45">
+    <row r="73" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E73" s="18"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" ht="14.45">
+    <row r="74" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" ht="14.45">
+    <row r="75" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" ht="14.45">
+    <row r="76" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" ht="14.45">
+    <row r="77" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" ht="14.45">
+    <row r="78" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" ht="14.45">
+    <row r="79" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" ht="14.45">
+    <row r="80" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" ht="14.45">
+    <row r="81" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" ht="14.45">
+    <row r="82" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" ht="14.45">
+    <row r="83" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" ht="14.45">
+    <row r="84" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" ht="14.45">
+    <row r="85" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" ht="14.45">
+    <row r="86" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" ht="14.45">
+    <row r="87" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" ht="14.45">
+    <row r="88" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" ht="14.45">
+    <row r="89" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" ht="14.45">
+    <row r="90" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" ht="14.45">
+    <row r="91" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" ht="14.45">
+    <row r="92" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" ht="14.45">
+    <row r="93" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" ht="15.6">
+    <row r="94" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E94" s="19"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" ht="15.6">
+    <row r="95" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E95" s="19"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" ht="15.6">
+    <row r="96" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E96" s="19"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" ht="15.6">
+    <row r="97" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E97" s="19"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" ht="15.6">
+    <row r="98" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E98" s="19"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" ht="15.6">
+    <row r="99" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E99" s="19"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" ht="15.6">
+    <row r="100" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E100" s="19"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:6" ht="15.6">
+    <row r="101" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E101" s="19"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="5:6" ht="15.6">
+    <row r="102" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E102" s="19"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="5:6" ht="15.6">
+    <row r="103" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E103" s="19"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:6" ht="15.6">
+    <row r="104" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E104" s="19"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="5:6" ht="15.6">
+    <row r="105" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E105" s="19"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:6" ht="15.6">
+    <row r="106" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E106" s="19"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="5:6" ht="15.6">
+    <row r="107" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E107" s="19"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:6" ht="15.6">
+    <row r="108" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E108" s="19"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:6" ht="15.6">
+    <row r="109" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E109" s="19"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:6" ht="15.6">
+    <row r="110" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E110" s="19"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:6" ht="15.6">
+    <row r="111" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E111" s="19"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:6" ht="15.6">
+    <row r="112" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E112" s="19"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6" ht="15.6">
+    <row r="113" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="E113" s="19"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6" ht="14.45">
+    <row r="114" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E114" s="18"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6" ht="14.45">
+    <row r="115" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E115" s="18"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6" ht="14.45">
+    <row r="116" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E116" s="18"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6" ht="14.45">
+    <row r="117" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E117" s="18"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6" ht="14.45">
+    <row r="118" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E118" s="18"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6" ht="14.45">
+    <row r="119" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E119" s="18"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="5:6" ht="14.45">
+    <row r="120" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E120" s="18"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="5:6" ht="14.45">
+    <row r="121" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E121" s="18"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="5:6" ht="14.45">
+    <row r="122" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E122" s="18"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="5:6" ht="14.45">
+    <row r="123" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E123" s="18"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="5:6" ht="14.45">
+    <row r="124" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E124" s="18"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="5:6" ht="14.45">
+    <row r="125" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E125" s="18"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="5:6" ht="14.45">
+    <row r="126" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E126" s="18"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="5:6" ht="14.45">
+    <row r="127" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E127" s="18"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="5:6" ht="14.45">
+    <row r="128" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E128" s="18"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="5:6" ht="14.45">
+    <row r="129" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E129" s="18"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="5:6" ht="14.45">
+    <row r="130" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E130" s="18"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="5:6" ht="14.45">
+    <row r="131" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E131" s="18"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="5:6" ht="14.45">
+    <row r="132" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="E132" s="18"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="5:6" ht="14.45">
+    <row r="133" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="5:6" ht="14.45">
+    <row r="134" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="5:6" ht="14.45">
+    <row r="135" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="5:6" ht="15" customHeight="1">
+    <row r="136" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="5:6" ht="15" customHeight="1">
+    <row r="137" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="5:6" ht="15" customHeight="1">
+    <row r="138" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="5:6" ht="15" customHeight="1">
+    <row r="139" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="5:6" ht="15" customHeight="1">
+    <row r="140" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="5:6" ht="15" customHeight="1">
+    <row r="141" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="5:6" ht="15" customHeight="1">
+    <row r="142" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="5:6" ht="15" customHeight="1">
+    <row r="143" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="5:6" ht="15" customHeight="1">
+    <row r="144" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="6:6" ht="15" customHeight="1">
+    <row r="145" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="6:6" ht="15" customHeight="1">
+    <row r="146" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="6:6" ht="15" customHeight="1">
+    <row r="147" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="6:6" ht="15" customHeight="1">
+    <row r="148" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="6:6" ht="15" customHeight="1">
+    <row r="149" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="6:6" ht="15" customHeight="1">
+    <row r="150" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="6:6" ht="15" customHeight="1">
+    <row r="151" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="6:6" ht="15" customHeight="1">
+    <row r="152" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="6:6" ht="15" customHeight="1">
+    <row r="153" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="6:6" ht="15" customHeight="1">
+    <row r="154" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="6:6" ht="15" customHeight="1">
+    <row r="155" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="6:6" ht="15" customHeight="1">
+    <row r="156" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="6:6" ht="15" customHeight="1">
+    <row r="157" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="6:6" ht="15" customHeight="1">
+    <row r="158" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="6:6" ht="15" customHeight="1">
+    <row r="159" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="6:6" ht="15" customHeight="1">
+    <row r="160" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="6:6" ht="15" customHeight="1">
+    <row r="161" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="6:6" ht="15" customHeight="1">
+    <row r="162" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="6:6" ht="15" customHeight="1">
+    <row r="163" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F163" s="1"/>
     </row>
   </sheetData>
@@ -6746,6 +7007,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D89A625C5B6364BB7302BED22ED65DA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05bac8ad6e033965382d52c38353e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7855343b-5261-4afc-a17c-d4c130fbaa85" xmlns:ns4="72f917e0-5d36-43ac-975d-26afa4cf7fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452e5605b09f318b6d66379e79837bd5" ns3:_="" ns4:_="">
     <xsd:import namespace="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
@@ -6992,23 +7262,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+    <ds:schemaRef ds:uri="72f917e0-5d36-43ac-975d-26afa4cf7fc0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFCC3F4-78AE-4719-87AB-773A0AAF169F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCDBC44-B4F3-4B48-95D6-5D28A9AC6B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="502">
   <si>
     <t>Plant ID</t>
   </si>
@@ -454,7 +454,7 @@
     <t>OP-016</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyperus aternifolius </t>
+    <t>Cyperus aternifolius</t>
   </si>
   <si>
     <t>نبات المظلة</t>
@@ -967,6 +967,12 @@
     <t>Conocarpus erectus</t>
   </si>
   <si>
+    <t>دمس رمادي</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/pX3HFcLL/dms-rmady.jpg</t>
+  </si>
+  <si>
     <t>1 - 20 m</t>
   </si>
   <si>
@@ -979,13 +985,13 @@
     <t>OP-042</t>
   </si>
   <si>
-    <t xml:space="preserve">Leucophyllum frutescens </t>
+    <t>Leucophyllum frutescens</t>
   </si>
   <si>
     <t>مريمية فضية</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/T1JQRW9f/pexels-jeffrey-eisen-1257101-12190619.jpg</t>
+    <t>https://i.postimg.cc/mDbf4tb2/Leucophyllum-frutescens.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">1.5 - 2.5  m </t>
@@ -1006,6 +1012,12 @@
     <t>Ocimum basilicum</t>
   </si>
   <si>
+    <t>المشموم البحريني</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/5y0VwZzt/almshmwm-albhryny.jpg</t>
+  </si>
+  <si>
     <t>0.3 - 0.5 m</t>
   </si>
   <si>
@@ -1051,7 +1063,7 @@
     <t>Portulaca grandiflora</t>
   </si>
   <si>
-    <t xml:space="preserve">البورتولاكا </t>
+    <t>البورتولاكا</t>
   </si>
   <si>
     <t>https://i.postimg.cc/gjySF1Hp/Portulaca-grandiflora.jpg</t>
@@ -1306,6 +1318,102 @@
     <t>1-4g/year</t>
   </si>
   <si>
+    <t>OP-059</t>
+  </si>
+  <si>
+    <t>Euphorbia tithymaloides</t>
+  </si>
+  <si>
+    <t>الفربيون تيثيمالويدس</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/JnQT10GQ/alfrbywn-tythymalwyds.jpg</t>
+  </si>
+  <si>
+    <t>1.5 - 2.5 m</t>
+  </si>
+  <si>
+    <t>15-25 g/year</t>
+  </si>
+  <si>
+    <t>30-50 g/year</t>
+  </si>
+  <si>
+    <t>OP-060</t>
+  </si>
+  <si>
+    <t>Crinum asiaticum</t>
+  </si>
+  <si>
+    <t>زنبق العنكبوت</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/Kz59ZjRN/znbq-alʿnkbwt.jpg</t>
+  </si>
+  <si>
+    <t>0.6 - 1.0 m</t>
+  </si>
+  <si>
+    <t>20-35 g/year</t>
+  </si>
+  <si>
+    <t>40-70 g/year</t>
+  </si>
+  <si>
+    <t>OP-061</t>
+  </si>
+  <si>
+    <t>Volkameria inermis</t>
+  </si>
+  <si>
+    <t>الياسمين الزفر</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/ZRLfTnCV/alyasmyn-alzfr.jpg</t>
+  </si>
+  <si>
+    <t>2.0 - 4.0 m</t>
+  </si>
+  <si>
+    <t>1.5 - 3.0 m</t>
+  </si>
+  <si>
+    <t>60-100 g/year</t>
+  </si>
+  <si>
+    <t>OP-062</t>
+  </si>
+  <si>
+    <t>Jatropha integerrima</t>
+  </si>
+  <si>
+    <t>الجاتروفا</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/zBgrp9XH/Jatropha-integerrima.jpg</t>
+  </si>
+  <si>
+    <t>2.0 - 3.0 m</t>
+  </si>
+  <si>
+    <t>25-40 g/year</t>
+  </si>
+  <si>
+    <t>50-80 g/year</t>
+  </si>
+  <si>
+    <t>OP-063</t>
+  </si>
+  <si>
+    <t>Caesalpinia pulcherrima</t>
+  </si>
+  <si>
+    <t>طاووس الجنة</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/KzM2QdvT/Caesalpinia-pulcherrima.jpg</t>
+  </si>
+  <si>
     <t>Location number</t>
   </si>
   <si>
@@ -1439,88 +1547,13 @@
   </si>
   <si>
     <t>Gate 3-S55</t>
-  </si>
-  <si>
-    <t>المشموم البحريني</t>
-  </si>
-  <si>
-    <t>دمس رمادي</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/5y0VwZzt/almshmwm-albhryny.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/pX3HFcLL/dms-rmady.jpg</t>
-  </si>
-  <si>
-    <t>OP-059</t>
-  </si>
-  <si>
-    <t>OP-060</t>
-  </si>
-  <si>
-    <t>Euphorbia tithymaloides</t>
-  </si>
-  <si>
-    <t>1.5 - 2.5 m</t>
-  </si>
-  <si>
-    <t>15-25 g/year</t>
-  </si>
-  <si>
-    <t>30-50 g/year</t>
-  </si>
-  <si>
-    <t>Crinum asiaticum</t>
-  </si>
-  <si>
-    <t>0.6 - 1.0 m</t>
-  </si>
-  <si>
-    <t>20-35 g/year</t>
-  </si>
-  <si>
-    <t>40-70 g/year</t>
-  </si>
-  <si>
-    <t>OP-061</t>
-  </si>
-  <si>
-    <t>Volkameria inermis</t>
-  </si>
-  <si>
-    <t>2.0 - 4.0 m</t>
-  </si>
-  <si>
-    <t>1.5 - 3.0 m</t>
-  </si>
-  <si>
-    <t>60-100 g/year</t>
-  </si>
-  <si>
-    <t>الفربيون تيثيمالويدس</t>
-  </si>
-  <si>
-    <t>زنبق العنكبوت</t>
-  </si>
-  <si>
-    <t>الياسمين الزفر</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/JnQT10GQ/alfrbywn-tythymalwyds.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/ZRLfTnCV/alyasmyn-alzfr.jpg</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/Kz59ZjRN/znbq-alʿnkbwt.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1602,7 +1635,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1655,17 +1688,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{AE659222-7167-453C-8DC0-4FDDEB47B12A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2009,36 +2055,36 @@
   <dimension ref="A1:U186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
-    <col min="2" max="2" width="32.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" style="4"/>
-    <col min="14" max="14" width="14.1796875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1796875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="32.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="14.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="14.45">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.45">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -2233,7 +2279,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="14.45">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2298,7 +2344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="14.45">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -2363,7 +2409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="14.45">
       <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2474,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="14.45">
       <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2493,7 +2539,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.45">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2558,7 +2604,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="14.45">
       <c r="A9" s="4" t="s">
         <v>92</v>
       </c>
@@ -2623,7 +2669,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="14.45">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
@@ -2688,7 +2734,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="14.45">
       <c r="A11" s="4" t="s">
         <v>104</v>
       </c>
@@ -2753,7 +2799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="14.45">
       <c r="A12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2818,7 +2864,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="14.45">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
@@ -2883,7 +2929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="14.45">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2948,7 +2994,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="14.45">
       <c r="A15" s="4" t="s">
         <v>129</v>
       </c>
@@ -3013,7 +3059,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="14.45">
       <c r="A16" s="4" t="s">
         <v>136</v>
       </c>
@@ -3078,7 +3124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="14.45">
       <c r="A17" s="4" t="s">
         <v>143</v>
       </c>
@@ -3143,7 +3189,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="14.45">
       <c r="A18" s="4" t="s">
         <v>150</v>
       </c>
@@ -3208,7 +3254,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="14.45">
       <c r="A19" s="4" t="s">
         <v>159</v>
       </c>
@@ -3273,7 +3319,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="14.45">
       <c r="A20" s="4" t="s">
         <v>167</v>
       </c>
@@ -3338,7 +3384,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="14.45">
       <c r="A21" s="4" t="s">
         <v>175</v>
       </c>
@@ -3403,7 +3449,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="14.45">
       <c r="A22" s="4" t="s">
         <v>183</v>
       </c>
@@ -3468,7 +3514,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="14.45">
       <c r="A23" s="4" t="s">
         <v>192</v>
       </c>
@@ -3533,7 +3579,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="14.45">
       <c r="A24" s="4" t="s">
         <v>198</v>
       </c>
@@ -3598,7 +3644,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="14.45">
       <c r="A25" s="4" t="s">
         <v>206</v>
       </c>
@@ -3663,7 +3709,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="14.45">
       <c r="A26" s="4" t="s">
         <v>214</v>
       </c>
@@ -3728,7 +3774,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="14.45">
       <c r="A27" s="4" t="s">
         <v>221</v>
       </c>
@@ -3793,7 +3839,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="14.45">
       <c r="A28" s="4" t="s">
         <v>228</v>
       </c>
@@ -3858,7 +3904,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="14.45">
       <c r="A29" s="4" t="s">
         <v>236</v>
       </c>
@@ -3923,7 +3969,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="14.45">
       <c r="A30" s="4" t="s">
         <v>242</v>
       </c>
@@ -3988,7 +4034,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="14.45">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -4053,7 +4099,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>257</v>
       </c>
@@ -4118,7 +4164,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="14.45">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
@@ -4183,7 +4229,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="14.45">
       <c r="A34" s="4" t="s">
         <v>271</v>
       </c>
@@ -4248,7 +4294,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="14.45">
       <c r="A35" s="4" t="s">
         <v>277</v>
       </c>
@@ -4313,7 +4359,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="14.45">
       <c r="A36" s="4" t="s">
         <v>283</v>
       </c>
@@ -4378,7 +4424,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="14.45">
       <c r="A37" s="4" t="s">
         <v>290</v>
       </c>
@@ -4443,7 +4489,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="14.45">
       <c r="A38" s="4" t="s">
         <v>295</v>
       </c>
@@ -4508,7 +4554,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="14.45">
       <c r="A39" s="4" t="s">
         <v>301</v>
       </c>
@@ -4573,7 +4619,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15.75">
       <c r="A40" s="4" t="s">
         <v>306</v>
       </c>
@@ -4581,13 +4627,13 @@
         <v>307</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>467</v>
+        <v>308</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>469</v>
+        <v>309</v>
       </c>
       <c r="F40" s="8" t="s">
         <v>154</v>
@@ -4602,7 +4648,7 @@
         <v>53</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>232</v>
@@ -4632,27 +4678,27 @@
         <v>32</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="U40" s="4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="15.75">
       <c r="A41" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="D41" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>314</v>
+      <c r="E41" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>70</v>
@@ -4667,10 +4713,10 @@
         <v>53</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>33</v>
@@ -4697,27 +4743,27 @@
         <v>32</v>
       </c>
       <c r="T41" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="U41" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="15.75">
       <c r="A42" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="D42" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>468</v>
+        <v>324</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>26</v>
@@ -4735,7 +4781,7 @@
         <v>89</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>31</v>
@@ -4762,30 +4808,30 @@
         <v>32</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="U42" s="4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="14.45">
       <c r="A43" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>42</v>
@@ -4827,27 +4873,27 @@
         <v>32</v>
       </c>
       <c r="T43" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="14.45">
       <c r="A44" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>26</v>
@@ -4892,30 +4938,30 @@
         <v>28</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="U44" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="14.45">
       <c r="A45" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>87</v>
@@ -4930,7 +4976,7 @@
         <v>96</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>31</v>
@@ -4957,27 +5003,27 @@
         <v>32</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="14.45">
       <c r="A46" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>154</v>
@@ -4992,10 +5038,10 @@
         <v>53</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>33</v>
@@ -5022,27 +5068,27 @@
         <v>28</v>
       </c>
       <c r="T46" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="14.45">
       <c r="A47" s="4" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>86</v>
@@ -5057,10 +5103,10 @@
         <v>53</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L47" s="4" t="s">
         <v>31</v>
@@ -5087,27 +5133,27 @@
         <v>28</v>
       </c>
       <c r="T47" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="U47" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="14.45">
       <c r="A48" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>154</v>
@@ -5122,10 +5168,10 @@
         <v>53</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L48" s="4" t="s">
         <v>33</v>
@@ -5152,27 +5198,27 @@
         <v>28</v>
       </c>
       <c r="T48" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="U48" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="14.45">
       <c r="A49" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>154</v>
@@ -5187,10 +5233,10 @@
         <v>53</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>33</v>
@@ -5217,27 +5263,27 @@
         <v>28</v>
       </c>
       <c r="T49" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="14.45">
       <c r="A50" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>70</v>
@@ -5252,7 +5298,7 @@
         <v>53</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>89</v>
@@ -5282,27 +5328,27 @@
         <v>32</v>
       </c>
       <c r="T50" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="U50" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="14.45">
       <c r="A51" s="4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>26</v>
@@ -5320,7 +5366,7 @@
         <v>88</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>31</v>
@@ -5347,27 +5393,27 @@
         <v>32</v>
       </c>
       <c r="T51" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="U51" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="14.45">
       <c r="A52" s="4" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>41</v>
@@ -5412,30 +5458,30 @@
         <v>32</v>
       </c>
       <c r="T52" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="U52" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="14.45">
       <c r="A53" s="4" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>42</v>
@@ -5447,10 +5493,10 @@
         <v>53</v>
       </c>
       <c r="J53" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L53" s="4" t="s">
         <v>31</v>
@@ -5477,30 +5523,30 @@
         <v>32</v>
       </c>
       <c r="T53" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="U53" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="14.45">
       <c r="A54" s="4" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>42</v>
@@ -5515,7 +5561,7 @@
         <v>96</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>31</v>
@@ -5542,30 +5588,30 @@
         <v>28</v>
       </c>
       <c r="T54" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="U54" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" ht="14.45">
       <c r="A55" s="4" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>42</v>
@@ -5580,7 +5626,7 @@
         <v>89</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>31</v>
@@ -5607,27 +5653,27 @@
         <v>28</v>
       </c>
       <c r="T55" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="U55" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="14.45">
       <c r="A56" s="4" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>154</v>
@@ -5642,10 +5688,10 @@
         <v>53</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="L56" s="4" t="s">
         <v>33</v>
@@ -5672,30 +5718,30 @@
         <v>28</v>
       </c>
       <c r="T56" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="U56" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="14.45">
       <c r="A57" s="4" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>42</v>
@@ -5707,7 +5753,7 @@
         <v>53</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>89</v>
@@ -5737,25 +5783,27 @@
         <v>32</v>
       </c>
       <c r="T57" s="4" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="U57" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" s="26" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="25" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>485</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="27" t="s">
-        <v>488</v>
+        <v>427</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>428</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>41</v>
@@ -5770,7 +5818,7 @@
         <v>53</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>473</v>
+        <v>429</v>
       </c>
       <c r="K58" s="25" t="s">
         <v>102</v>
@@ -5800,25 +5848,27 @@
         <v>32</v>
       </c>
       <c r="T58" s="25" t="s">
-        <v>474</v>
+        <v>430</v>
       </c>
       <c r="U58" s="25" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" s="26" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="25" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>486</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="27" t="s">
-        <v>490</v>
+        <v>434</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>435</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>26</v>
@@ -5836,7 +5886,7 @@
         <v>101</v>
       </c>
       <c r="K59" s="25" t="s">
-        <v>477</v>
+        <v>436</v>
       </c>
       <c r="L59" s="25" t="s">
         <v>31</v>
@@ -5863,25 +5913,27 @@
         <v>32</v>
       </c>
       <c r="T59" s="25" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="U59" s="25" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" s="26" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" s="25" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="27" t="s">
-        <v>489</v>
+        <v>441</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>442</v>
       </c>
       <c r="F60" s="25" t="s">
         <v>70</v>
@@ -5896,10 +5948,10 @@
         <v>53</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="K60" s="25" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="L60" s="25" t="s">
         <v>31</v>
@@ -5926,152 +5978,283 @@
         <v>32</v>
       </c>
       <c r="T60" s="25" t="s">
-        <v>475</v>
+        <v>431</v>
       </c>
       <c r="U60" s="25" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="62" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.5" x14ac:dyDescent="0.35"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="F61" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J61" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="K61" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="L61" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="P61" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q61" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="R61" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="S61" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T61" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="U61" s="24" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="28" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A62" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="I62" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="K62" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="L62" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N62" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="P62" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="R62" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S62" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="T62" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="U62" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" ht="14.45"/>
+    <row r="64" spans="1:21" ht="14.45"/>
+    <row r="65" ht="14.45"/>
+    <row r="66" ht="14.45"/>
+    <row r="67" ht="14.45"/>
+    <row r="68" ht="14.45"/>
+    <row r="69" ht="14.45"/>
+    <row r="70" ht="14.45"/>
+    <row r="71" ht="14.45"/>
+    <row r="72" ht="14.45"/>
+    <row r="73" ht="14.45"/>
+    <row r="74" ht="14.45"/>
+    <row r="75" ht="14.45"/>
+    <row r="76" ht="14.45"/>
+    <row r="77" ht="14.45"/>
+    <row r="78" ht="14.45"/>
+    <row r="79" ht="14.45"/>
+    <row r="80" ht="14.45"/>
+    <row r="81" ht="14.45"/>
+    <row r="82" ht="14.45"/>
+    <row r="83" ht="14.45"/>
+    <row r="84" ht="14.45"/>
+    <row r="85" ht="14.45"/>
+    <row r="86" ht="14.45"/>
+    <row r="87" ht="14.45"/>
+    <row r="88" ht="14.45"/>
+    <row r="89" ht="14.45"/>
+    <row r="90" ht="14.45"/>
+    <row r="91" ht="14.45"/>
+    <row r="92" ht="14.45"/>
+    <row r="93" ht="14.45"/>
+    <row r="94" ht="14.45"/>
+    <row r="95" ht="14.45"/>
+    <row r="96" ht="14.45"/>
+    <row r="97" ht="14.45"/>
+    <row r="98" ht="14.45"/>
+    <row r="99" ht="14.45"/>
+    <row r="100" ht="14.45"/>
+    <row r="101" ht="14.45"/>
+    <row r="102" ht="14.45"/>
+    <row r="103" ht="14.45"/>
+    <row r="104" ht="14.45"/>
+    <row r="105" ht="14.45"/>
+    <row r="106" ht="14.45"/>
+    <row r="107" ht="14.45"/>
+    <row r="108" ht="14.45"/>
+    <row r="109" ht="14.45"/>
+    <row r="110" ht="14.45"/>
+    <row r="111" ht="14.45"/>
+    <row r="112" ht="14.45"/>
+    <row r="113" ht="14.45"/>
+    <row r="114" ht="14.45"/>
+    <row r="115" ht="14.45"/>
+    <row r="116" ht="14.45"/>
+    <row r="117" ht="14.45"/>
+    <row r="118" ht="14.45"/>
+    <row r="119" ht="14.45"/>
+    <row r="120" ht="14.45"/>
+    <row r="121" ht="14.45"/>
+    <row r="122" ht="14.45"/>
+    <row r="123" ht="14.45"/>
+    <row r="124" ht="14.45"/>
+    <row r="125" ht="14.45"/>
+    <row r="126" ht="14.45"/>
+    <row r="127" ht="14.45"/>
+    <row r="128" ht="14.45"/>
+    <row r="129" ht="14.45"/>
+    <row r="130" ht="14.45"/>
+    <row r="131" ht="14.45"/>
+    <row r="132" ht="14.45"/>
+    <row r="133" ht="14.45"/>
+    <row r="134" ht="14.45"/>
+    <row r="135" ht="14.45"/>
+    <row r="136" ht="14.45"/>
+    <row r="137" ht="14.45"/>
+    <row r="138" ht="14.45"/>
+    <row r="139" ht="14.45"/>
+    <row r="140" ht="14.45"/>
+    <row r="141" ht="14.45"/>
+    <row r="142" ht="14.45"/>
+    <row r="143" ht="14.45"/>
+    <row r="144" ht="14.45"/>
+    <row r="145" ht="14.45"/>
+    <row r="146" ht="14.45"/>
+    <row r="147" ht="14.45"/>
+    <row r="148" ht="14.45"/>
+    <row r="149" ht="14.45"/>
+    <row r="150" ht="14.45"/>
+    <row r="151" ht="14.45"/>
+    <row r="152" ht="14.45"/>
+    <row r="153" ht="14.45"/>
+    <row r="154" ht="14.45"/>
+    <row r="155" ht="14.45"/>
+    <row r="156" ht="14.45"/>
+    <row r="157" ht="14.45"/>
+    <row r="158" ht="14.45"/>
+    <row r="159" ht="14.45"/>
+    <row r="160" ht="14.45"/>
+    <row r="161" ht="14.45"/>
+    <row r="162" ht="14.45"/>
+    <row r="163" ht="14.45"/>
+    <row r="164" ht="14.45"/>
+    <row r="165" ht="14.45"/>
+    <row r="166" ht="14.45"/>
+    <row r="167" ht="14.45"/>
+    <row r="168" ht="14.45"/>
+    <row r="169" ht="14.45"/>
+    <row r="170" ht="14.45"/>
+    <row r="171" ht="14.45"/>
+    <row r="172" ht="14.45"/>
+    <row r="173" ht="14.45"/>
+    <row r="174" ht="14.45"/>
+    <row r="175" ht="14.45"/>
+    <row r="176" ht="14.45"/>
+    <row r="177" ht="14.45"/>
+    <row r="178" ht="14.45"/>
+    <row r="179" ht="14.45"/>
+    <row r="180" ht="14.45"/>
+    <row r="181" ht="14.45"/>
+    <row r="182" ht="14.45"/>
+    <row r="183" ht="14.45"/>
+    <row r="184" ht="14.45"/>
+    <row r="185" ht="14.45"/>
+    <row r="186" ht="14.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U45">
     <sortCondition ref="A2:A45"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B26:B43 B1:B18 B45:B46 B55:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  <conditionalFormatting sqref="B26:B43 B1:B18 B45:B46 B55:B60 B63:B1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B61:B62">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1" xr:uid="{58D66573-3890-4498-A66F-3227660DC8D7}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M26:M1048576 M2:M18 H2:H1048576 P2:Q1048576 S2:S1048576" xr:uid="{26BEA281-5615-4C1E-80B9-785C1C126E1E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M18 S2:S1048576 P2:Q1048576 H2:H1048576 M26:M1048576" xr:uid="{26BEA281-5615-4C1E-80B9-785C1C126E1E}">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L26:L1048576 L2:L18 N2:N1048576" xr:uid="{BADEB7D1-F197-43A2-9AAB-F8E1A586A330}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L18 N2:N1048576 L26:L1048576" xr:uid="{BADEB7D1-F197-43A2-9AAB-F8E1A586A330}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{9B94FA55-E999-447C-AE3A-D83167D0511E}">
@@ -6207,6 +6390,13 @@
     <hyperlink ref="E58" r:id="rId114" xr:uid="{4F00AB62-1372-499A-8211-9711806AABEA}"/>
     <hyperlink ref="E59" r:id="rId115" xr:uid="{F708A31D-C2B5-4330-AF9A-C16DA58EC2AE}"/>
     <hyperlink ref="E60" r:id="rId116" xr:uid="{14D81D35-D16E-4182-94FC-43E955C1B5D3}"/>
+    <hyperlink ref="E62" r:id="rId117" xr:uid="{21CE0160-5815-4046-B128-41F3EA044403}"/>
+    <hyperlink ref="E61" r:id="rId118" xr:uid="{F770A038-8037-436F-BBC3-A69F7E24E474}"/>
+    <hyperlink ref="D58" r:id="rId119" xr:uid="{A040D01A-9239-4B6F-9744-25BAB54B8B06}"/>
+    <hyperlink ref="D59" r:id="rId120" xr:uid="{2E14643C-EFD7-4CD4-942A-E4238BD95F13}"/>
+    <hyperlink ref="D60" r:id="rId121" xr:uid="{41E06457-0D18-46A5-944D-698E40BE79B1}"/>
+    <hyperlink ref="D61" r:id="rId122" xr:uid="{1F4339E4-23FD-4F71-A2D7-B9A63D2168DC}"/>
+    <hyperlink ref="D62" r:id="rId123" xr:uid="{74C61858-AB0D-40D4-826E-206B16E6BE95}"/>
   </hyperlinks>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6225,761 +6415,761 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="16.7265625" customWidth="1"/>
-    <col min="5" max="5" width="34.26953125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>421</v>
+        <v>457</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>422</v>
+        <v>458</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
     </row>
-    <row r="3" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>425</v>
+        <v>461</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="21"/>
     </row>
-    <row r="4" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>426</v>
+        <v>462</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="21"/>
     </row>
-    <row r="5" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="B5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
     </row>
-    <row r="6" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>428</v>
+        <v>464</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
     </row>
-    <row r="7" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>429</v>
+        <v>465</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="21"/>
     </row>
-    <row r="8" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>430</v>
+        <v>466</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>431</v>
+        <v>467</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="B10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>433</v>
+        <v>469</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>434</v>
+        <v>470</v>
       </c>
       <c r="B12" s="23"/>
       <c r="D12" s="22"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>435</v>
+        <v>471</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
     </row>
-    <row r="14" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>436</v>
+        <v>472</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="21"/>
     </row>
-    <row r="15" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>437</v>
+        <v>473</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="21"/>
     </row>
-    <row r="16" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>438</v>
+        <v>474</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
     </row>
-    <row r="17" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>439</v>
+        <v>475</v>
       </c>
       <c r="B17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
     </row>
-    <row r="18" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
     </row>
-    <row r="19" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>441</v>
+        <v>477</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
     </row>
-    <row r="20" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>442</v>
+        <v>478</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
     </row>
-    <row r="21" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>444</v>
+        <v>480</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>445</v>
+        <v>481</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>446</v>
+        <v>482</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
     </row>
-    <row r="25" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>447</v>
+        <v>483</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
     </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>448</v>
+        <v>484</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
     </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
     </row>
-    <row r="28" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
     </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>451</v>
+        <v>487</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>453</v>
+        <v>489</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
     </row>
-    <row r="32" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>454</v>
+        <v>490</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
     </row>
-    <row r="33" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>455</v>
+        <v>491</v>
       </c>
       <c r="B33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
     </row>
-    <row r="34" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>456</v>
+        <v>492</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
     </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>457</v>
+        <v>493</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
     </row>
-    <row r="36" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A36" s="20" t="s">
-        <v>458</v>
+        <v>494</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
     </row>
-    <row r="37" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A37" s="20" t="s">
-        <v>459</v>
+        <v>495</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>460</v>
+        <v>496</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
     </row>
-    <row r="39" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>462</v>
+        <v>498</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
     </row>
-    <row r="41" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>427</v>
+        <v>463</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>463</v>
+        <v>499</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>464</v>
+        <v>500</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
     </row>
-    <row r="45" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A45" s="20" t="s">
-        <v>465</v>
+        <v>501</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
     </row>
-    <row r="46" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="14.45">
       <c r="D46" s="16"/>
       <c r="E46" s="17"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="14.45">
       <c r="D47" s="16"/>
       <c r="E47" s="17"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="14.45">
       <c r="E48" s="18"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:6" ht="14.45">
       <c r="E49" s="18"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:6" ht="14.45">
       <c r="E50" s="18"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:6" ht="14.45">
       <c r="E51" s="18"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:6" ht="14.45">
       <c r="E52" s="18"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:6" ht="14.45">
       <c r="E53" s="18"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:6" ht="14.45">
       <c r="E54" s="18"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:6" ht="14.45">
       <c r="E55" s="18"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:6" ht="14.45">
       <c r="E56" s="18"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:6" ht="14.45">
       <c r="E57" s="18"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:6" ht="14.45">
       <c r="E58" s="18"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:6" ht="14.45">
       <c r="E59" s="18"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:6" ht="14.45">
       <c r="E60" s="18"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:6" ht="14.45">
       <c r="E61" s="18"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:6" ht="14.45">
       <c r="E62" s="18"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:6" ht="14.45">
       <c r="E63" s="18"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:6" ht="14.45">
       <c r="E64" s="18"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:6" ht="14.45">
       <c r="E65" s="18"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:6" ht="14.45">
       <c r="E66" s="18"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:6" ht="14.45">
       <c r="E67" s="18"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:6" ht="14.45">
       <c r="E68" s="18"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:6" ht="14.45">
       <c r="E69" s="18"/>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:6" ht="14.45">
       <c r="E70" s="18"/>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:6" ht="14.45">
       <c r="E71" s="18"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:6" ht="14.45">
       <c r="E72" s="18"/>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:6" ht="14.45">
       <c r="E73" s="18"/>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:6" ht="14.45">
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:6" ht="14.45">
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:6" ht="14.45">
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:6" ht="14.45">
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:6" ht="14.45">
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:6" ht="14.45">
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:6" ht="14.45">
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:6" ht="14.45">
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:6" ht="14.45">
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:6" ht="14.45">
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:6" ht="14.45">
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:6" ht="14.45">
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:6" ht="14.45">
       <c r="F86" s="1"/>
     </row>
-    <row r="87" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:6" ht="14.45">
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:6" ht="14.45">
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:6" ht="14.45">
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:6" ht="14.45">
       <c r="F90" s="1"/>
     </row>
-    <row r="91" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:6" ht="14.45">
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:6" ht="14.45">
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:6" ht="14.45">
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:6" ht="15.6">
       <c r="E94" s="19"/>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:6" ht="15.6">
       <c r="E95" s="19"/>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:6" ht="15.6">
       <c r="E96" s="19"/>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:6" ht="15.6">
       <c r="E97" s="19"/>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:6" ht="15.6">
       <c r="E98" s="19"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:6" ht="15.6">
       <c r="E99" s="19"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:6" ht="15.6">
       <c r="E100" s="19"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:6" ht="15.6">
       <c r="E101" s="19"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:6" ht="15.6">
       <c r="E102" s="19"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:6" ht="15.6">
       <c r="E103" s="19"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:6" ht="15.6">
       <c r="E104" s="19"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:6" ht="15.6">
       <c r="E105" s="19"/>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:6" ht="15.6">
       <c r="E106" s="19"/>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:6" ht="15.6">
       <c r="E107" s="19"/>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:6" ht="15.6">
       <c r="E108" s="19"/>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:6" ht="15.6">
       <c r="E109" s="19"/>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:6" ht="15.6">
       <c r="E110" s="19"/>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:6" ht="15.6">
       <c r="E111" s="19"/>
       <c r="F111" s="1"/>
     </row>
-    <row r="112" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:6" ht="15.6">
       <c r="E112" s="19"/>
       <c r="F112" s="1"/>
     </row>
-    <row r="113" spans="5:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:6" ht="15.6">
       <c r="E113" s="19"/>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:6" ht="14.45">
       <c r="E114" s="18"/>
       <c r="F114" s="1"/>
     </row>
-    <row r="115" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:6" ht="14.45">
       <c r="E115" s="18"/>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:6" ht="14.45">
       <c r="E116" s="18"/>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:6" ht="14.45">
       <c r="E117" s="18"/>
       <c r="F117" s="1"/>
     </row>
-    <row r="118" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:6" ht="14.45">
       <c r="E118" s="18"/>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:6" ht="14.45">
       <c r="E119" s="18"/>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:6" ht="14.45">
       <c r="E120" s="18"/>
       <c r="F120" s="1"/>
     </row>
-    <row r="121" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:6" ht="14.45">
       <c r="E121" s="18"/>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:6" ht="14.45">
       <c r="E122" s="18"/>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:6" ht="14.45">
       <c r="E123" s="18"/>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:6" ht="14.45">
       <c r="E124" s="18"/>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:6" ht="14.45">
       <c r="E125" s="18"/>
       <c r="F125" s="1"/>
     </row>
-    <row r="126" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:6" ht="14.45">
       <c r="E126" s="18"/>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:6" ht="14.45">
       <c r="E127" s="18"/>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:6" ht="14.45">
       <c r="E128" s="18"/>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:6" ht="14.45">
       <c r="E129" s="18"/>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:6" ht="14.45">
       <c r="E130" s="18"/>
       <c r="F130" s="1"/>
     </row>
-    <row r="131" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:6" ht="14.45">
       <c r="E131" s="18"/>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:6" ht="14.45">
       <c r="E132" s="18"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:6" ht="14.45">
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:6" ht="14.45">
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="5:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:6" ht="14.45">
       <c r="F135" s="1"/>
     </row>
-    <row r="136" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:6" ht="15" customHeight="1">
       <c r="F136" s="1"/>
     </row>
-    <row r="137" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:6" ht="15" customHeight="1">
       <c r="F137" s="1"/>
     </row>
-    <row r="138" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:6" ht="15" customHeight="1">
       <c r="F138" s="1"/>
     </row>
-    <row r="139" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:6" ht="15" customHeight="1">
       <c r="F139" s="1"/>
     </row>
-    <row r="140" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:6" ht="15" customHeight="1">
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="5:6" ht="15" customHeight="1">
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="5:6" ht="15" customHeight="1">
       <c r="F142" s="1"/>
     </row>
-    <row r="143" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="5:6" ht="15" customHeight="1">
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="5:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="5:6" ht="15" customHeight="1">
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:6" ht="15" customHeight="1">
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:6" ht="15" customHeight="1">
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:6" ht="15" customHeight="1">
       <c r="F147" s="1"/>
     </row>
-    <row r="148" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:6" ht="15" customHeight="1">
       <c r="F148" s="1"/>
     </row>
-    <row r="149" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:6" ht="15" customHeight="1">
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:6" ht="15" customHeight="1">
       <c r="F150" s="1"/>
     </row>
-    <row r="151" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:6" ht="15" customHeight="1">
       <c r="F151" s="1"/>
     </row>
-    <row r="152" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:6" ht="15" customHeight="1">
       <c r="F152" s="1"/>
     </row>
-    <row r="153" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:6" ht="15" customHeight="1">
       <c r="F153" s="1"/>
     </row>
-    <row r="154" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:6" ht="15" customHeight="1">
       <c r="F154" s="1"/>
     </row>
-    <row r="155" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:6" ht="15" customHeight="1">
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:6" ht="15" customHeight="1">
       <c r="F156" s="1"/>
     </row>
-    <row r="157" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:6" ht="15" customHeight="1">
       <c r="F157" s="1"/>
     </row>
-    <row r="158" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:6" ht="15" customHeight="1">
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:6" ht="15" customHeight="1">
       <c r="F159" s="1"/>
     </row>
-    <row r="160" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:6" ht="15" customHeight="1">
       <c r="F160" s="1"/>
     </row>
-    <row r="161" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="6:6" ht="15" customHeight="1">
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="6:6" ht="15" customHeight="1">
       <c r="F162" s="1"/>
     </row>
-    <row r="163" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="6:6" ht="15" customHeight="1">
       <c r="F163" s="1"/>
     </row>
   </sheetData>
@@ -6999,23 +7189,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D89A625C5B6364BB7302BED22ED65DA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05bac8ad6e033965382d52c38353e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7855343b-5261-4afc-a17c-d4c130fbaa85" xmlns:ns4="72f917e0-5d36-43ac-975d-26afa4cf7fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452e5605b09f318b6d66379e79837bd5" ns3:_="" ns4:_="">
     <xsd:import namespace="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
@@ -7262,39 +7435,31 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-    <ds:schemaRef ds:uri="72f917e0-5d36-43ac-975d-26afa4cf7fc0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}"/>
 </file>
--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CCDBC44-B4F3-4B48-95D6-5D28A9AC6B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB66FB-5FE2-4ADC-9B70-3E9A3A66800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="504">
   <si>
     <t>Plant ID</t>
   </si>
@@ -1547,13 +1547,19 @@
   </si>
   <si>
     <t>Gate 3-S55</t>
+  </si>
+  <si>
+    <t>Location type</t>
+  </si>
+  <si>
+    <t>Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1635,7 +1641,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1694,7 +1700,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -2054,37 +2059,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C3B61-471E-4868-9D01-BC7FF88A37C8}">
   <dimension ref="A1:U186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="32.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="14.140625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.140625" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.1796875" style="4"/>
+    <col min="2" max="2" width="32.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.54296875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="9.1796875" style="4"/>
+    <col min="14" max="14" width="14.1796875" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.45">
+    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.45">
+    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.45">
+    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.45">
+    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2344,7 +2349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.45">
+    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -2409,7 +2414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.45">
+    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.45">
+    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2539,7 +2544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.45">
+    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2604,7 +2609,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.45">
+    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>92</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.45">
+    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.45">
+    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>104</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.45">
+    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45">
+    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.45">
+    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45">
+    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>129</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.45">
+    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>136</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45">
+    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>143</v>
       </c>
@@ -3189,7 +3194,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45">
+    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>150</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.45">
+    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>159</v>
       </c>
@@ -3319,7 +3324,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.45">
+    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>167</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.45">
+    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>175</v>
       </c>
@@ -3449,7 +3454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.45">
+    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>183</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.45">
+    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>192</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.45">
+    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>198</v>
       </c>
@@ -3644,7 +3649,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.45">
+    <row r="25" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>206</v>
       </c>
@@ -3709,7 +3714,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.45">
+    <row r="26" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>214</v>
       </c>
@@ -3774,7 +3779,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.45">
+    <row r="27" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>221</v>
       </c>
@@ -3839,7 +3844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.45">
+    <row r="28" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>228</v>
       </c>
@@ -3904,7 +3909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.45">
+    <row r="29" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>236</v>
       </c>
@@ -3969,7 +3974,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.45">
+    <row r="30" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>242</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.45">
+    <row r="31" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -4099,7 +4104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>257</v>
       </c>
@@ -4164,7 +4169,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.45">
+    <row r="33" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.45">
+    <row r="34" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>271</v>
       </c>
@@ -4294,7 +4299,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.45">
+    <row r="35" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>277</v>
       </c>
@@ -4359,7 +4364,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.45">
+    <row r="36" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>283</v>
       </c>
@@ -4424,7 +4429,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="14.45">
+    <row r="37" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>290</v>
       </c>
@@ -4489,7 +4494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="14.45">
+    <row r="38" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>295</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="14.45">
+    <row r="39" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>301</v>
       </c>
@@ -4619,7 +4624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15.75">
+    <row r="40" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>306</v>
       </c>
@@ -4684,7 +4689,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15.75">
+    <row r="41" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>313</v>
       </c>
@@ -4749,7 +4754,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15.75">
+    <row r="42" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>321</v>
       </c>
@@ -4814,7 +4819,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="14.45">
+    <row r="43" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>327</v>
       </c>
@@ -4879,7 +4884,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="14.45">
+    <row r="44" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>333</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="14.45">
+    <row r="45" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>338</v>
       </c>
@@ -5009,7 +5014,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.45">
+    <row r="46" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>342</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="14.45">
+    <row r="47" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>349</v>
       </c>
@@ -5139,7 +5144,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="14.45">
+    <row r="48" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>356</v>
       </c>
@@ -5204,7 +5209,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="14.45">
+    <row r="49" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>364</v>
       </c>
@@ -5269,7 +5274,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="14.45">
+    <row r="50" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>371</v>
       </c>
@@ -5334,7 +5339,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.45">
+    <row r="51" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>377</v>
       </c>
@@ -5399,7 +5404,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="14.45">
+    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>384</v>
       </c>
@@ -5464,7 +5469,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.45">
+    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>390</v>
       </c>
@@ -5529,7 +5534,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="14.45">
+    <row r="54" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>398</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="14.45">
+    <row r="55" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>405</v>
       </c>
@@ -5659,7 +5664,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="14.45">
+    <row r="56" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>410</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="14.45">
+    <row r="57" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>418</v>
       </c>
@@ -5789,7 +5794,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="25" t="s">
         <v>425</v>
       </c>
@@ -5854,7 +5859,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="25" t="s">
         <v>432</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="25" t="s">
         <v>439</v>
       </c>
@@ -5984,7 +5989,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.45" customHeight="1">
+    <row r="61" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="24" t="s">
         <v>446</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="28" customFormat="1" ht="14.45" customHeight="1">
+    <row r="62" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="25" t="s">
         <v>453</v>
       </c>
@@ -6114,130 +6119,130 @@
         <v>452</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="14.45"/>
-    <row r="64" spans="1:21" ht="14.45"/>
-    <row r="65" ht="14.45"/>
-    <row r="66" ht="14.45"/>
-    <row r="67" ht="14.45"/>
-    <row r="68" ht="14.45"/>
-    <row r="69" ht="14.45"/>
-    <row r="70" ht="14.45"/>
-    <row r="71" ht="14.45"/>
-    <row r="72" ht="14.45"/>
-    <row r="73" ht="14.45"/>
-    <row r="74" ht="14.45"/>
-    <row r="75" ht="14.45"/>
-    <row r="76" ht="14.45"/>
-    <row r="77" ht="14.45"/>
-    <row r="78" ht="14.45"/>
-    <row r="79" ht="14.45"/>
-    <row r="80" ht="14.45"/>
-    <row r="81" ht="14.45"/>
-    <row r="82" ht="14.45"/>
-    <row r="83" ht="14.45"/>
-    <row r="84" ht="14.45"/>
-    <row r="85" ht="14.45"/>
-    <row r="86" ht="14.45"/>
-    <row r="87" ht="14.45"/>
-    <row r="88" ht="14.45"/>
-    <row r="89" ht="14.45"/>
-    <row r="90" ht="14.45"/>
-    <row r="91" ht="14.45"/>
-    <row r="92" ht="14.45"/>
-    <row r="93" ht="14.45"/>
-    <row r="94" ht="14.45"/>
-    <row r="95" ht="14.45"/>
-    <row r="96" ht="14.45"/>
-    <row r="97" ht="14.45"/>
-    <row r="98" ht="14.45"/>
-    <row r="99" ht="14.45"/>
-    <row r="100" ht="14.45"/>
-    <row r="101" ht="14.45"/>
-    <row r="102" ht="14.45"/>
-    <row r="103" ht="14.45"/>
-    <row r="104" ht="14.45"/>
-    <row r="105" ht="14.45"/>
-    <row r="106" ht="14.45"/>
-    <row r="107" ht="14.45"/>
-    <row r="108" ht="14.45"/>
-    <row r="109" ht="14.45"/>
-    <row r="110" ht="14.45"/>
-    <row r="111" ht="14.45"/>
-    <row r="112" ht="14.45"/>
-    <row r="113" ht="14.45"/>
-    <row r="114" ht="14.45"/>
-    <row r="115" ht="14.45"/>
-    <row r="116" ht="14.45"/>
-    <row r="117" ht="14.45"/>
-    <row r="118" ht="14.45"/>
-    <row r="119" ht="14.45"/>
-    <row r="120" ht="14.45"/>
-    <row r="121" ht="14.45"/>
-    <row r="122" ht="14.45"/>
-    <row r="123" ht="14.45"/>
-    <row r="124" ht="14.45"/>
-    <row r="125" ht="14.45"/>
-    <row r="126" ht="14.45"/>
-    <row r="127" ht="14.45"/>
-    <row r="128" ht="14.45"/>
-    <row r="129" ht="14.45"/>
-    <row r="130" ht="14.45"/>
-    <row r="131" ht="14.45"/>
-    <row r="132" ht="14.45"/>
-    <row r="133" ht="14.45"/>
-    <row r="134" ht="14.45"/>
-    <row r="135" ht="14.45"/>
-    <row r="136" ht="14.45"/>
-    <row r="137" ht="14.45"/>
-    <row r="138" ht="14.45"/>
-    <row r="139" ht="14.45"/>
-    <row r="140" ht="14.45"/>
-    <row r="141" ht="14.45"/>
-    <row r="142" ht="14.45"/>
-    <row r="143" ht="14.45"/>
-    <row r="144" ht="14.45"/>
-    <row r="145" ht="14.45"/>
-    <row r="146" ht="14.45"/>
-    <row r="147" ht="14.45"/>
-    <row r="148" ht="14.45"/>
-    <row r="149" ht="14.45"/>
-    <row r="150" ht="14.45"/>
-    <row r="151" ht="14.45"/>
-    <row r="152" ht="14.45"/>
-    <row r="153" ht="14.45"/>
-    <row r="154" ht="14.45"/>
-    <row r="155" ht="14.45"/>
-    <row r="156" ht="14.45"/>
-    <row r="157" ht="14.45"/>
-    <row r="158" ht="14.45"/>
-    <row r="159" ht="14.45"/>
-    <row r="160" ht="14.45"/>
-    <row r="161" ht="14.45"/>
-    <row r="162" ht="14.45"/>
-    <row r="163" ht="14.45"/>
-    <row r="164" ht="14.45"/>
-    <row r="165" ht="14.45"/>
-    <row r="166" ht="14.45"/>
-    <row r="167" ht="14.45"/>
-    <row r="168" ht="14.45"/>
-    <row r="169" ht="14.45"/>
-    <row r="170" ht="14.45"/>
-    <row r="171" ht="14.45"/>
-    <row r="172" ht="14.45"/>
-    <row r="173" ht="14.45"/>
-    <row r="174" ht="14.45"/>
-    <row r="175" ht="14.45"/>
-    <row r="176" ht="14.45"/>
-    <row r="177" ht="14.45"/>
-    <row r="178" ht="14.45"/>
-    <row r="179" ht="14.45"/>
-    <row r="180" ht="14.45"/>
-    <row r="181" ht="14.45"/>
-    <row r="182" ht="14.45"/>
-    <row r="183" ht="14.45"/>
-    <row r="184" ht="14.45"/>
-    <row r="185" ht="14.45"/>
-    <row r="186" ht="14.45"/>
+    <row r="63" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="82" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="83" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="84" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="85" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="86" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="87" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="88" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="89" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="90" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="91" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="92" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="93" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="94" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="95" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="96" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="97" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="98" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="99" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="100" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="101" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="102" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="103" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="104" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="105" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="106" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="107" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="108" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="109" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="110" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="111" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="112" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="113" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="114" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="115" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="116" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="117" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="118" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="119" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="120" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="121" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="122" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="123" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="124" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="125" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="126" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="127" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="128" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="129" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="130" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="131" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="132" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="133" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="134" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="135" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="136" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="137" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="138" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="139" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="140" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="141" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="142" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="143" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="144" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="145" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="146" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="147" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="148" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="149" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="150" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="151" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="152" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="153" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="154" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="155" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="156" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="157" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="158" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="159" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="160" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="161" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="162" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="163" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="164" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="165" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="166" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="167" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="168" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="169" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="170" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="171" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="172" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="173" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="174" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="175" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="176" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U45">
     <sortCondition ref="A2:A45"/>
@@ -6408,778 +6413,917 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="34.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="50.453125" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" ht="26.25" customHeight="1">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C1" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-    </row>
-    <row r="4" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="E3" s="22"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="E4" s="22"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="21"/>
       <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B7" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="E7" s="22"/>
+      <c r="F7" s="21"/>
+    </row>
+    <row r="8" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>466</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+    </row>
+    <row r="9" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-    </row>
-    <row r="10" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="E10" s="21"/>
-    </row>
-    <row r="11" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+    </row>
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="C12" s="23"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="21"/>
+    </row>
+    <row r="13" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>472</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="E14" s="22"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B16" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-    </row>
-    <row r="17" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F17" s="21"/>
+    </row>
+    <row r="18" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F20" s="21"/>
+    </row>
+    <row r="21" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B21" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B27" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B28" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F29" s="21"/>
+    </row>
+    <row r="30" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="21"/>
       <c r="E31" s="21"/>
-    </row>
-    <row r="32" spans="1:5" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F31" s="21"/>
+    </row>
+    <row r="32" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B32" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="D32" s="21"/>
       <c r="E32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B33" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="D33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="E33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="D34" s="21"/>
       <c r="E34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="D35" s="21"/>
       <c r="E35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B36" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="D36" s="21"/>
       <c r="E36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>495</v>
       </c>
-      <c r="D37" s="21"/>
       <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B38" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="D38" s="21"/>
       <c r="E38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B39" s="20" t="s">
         <v>497</v>
       </c>
-      <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B40" s="20" t="s">
         <v>498</v>
       </c>
-      <c r="D40" s="21"/>
       <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="D41" s="21"/>
       <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B42" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="D42" s="21"/>
       <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B43" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B44" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>501</v>
       </c>
-      <c r="D45" s="21"/>
       <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.45">
-      <c r="D46" s="16"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.45">
-      <c r="D47" s="16"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.45">
-      <c r="E48" s="18"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="5:6" ht="14.45">
-      <c r="E49" s="18"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="5:6" ht="14.45">
-      <c r="E50" s="18"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="5:6" ht="14.45">
-      <c r="E51" s="18"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="5:6" ht="14.45">
-      <c r="E52" s="18"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="5:6" ht="14.45">
-      <c r="E53" s="18"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="5:6" ht="14.45">
-      <c r="E54" s="18"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="5:6" ht="14.45">
-      <c r="E55" s="18"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="5:6" ht="14.45">
-      <c r="E56" s="18"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="5:6" ht="14.45">
-      <c r="E57" s="18"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="5:6" ht="14.45">
-      <c r="E58" s="18"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="5:6" ht="14.45">
-      <c r="E59" s="18"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="5:6" ht="14.45">
-      <c r="E60" s="18"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="5:6" ht="14.45">
-      <c r="E61" s="18"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="5:6" ht="14.45">
-      <c r="E62" s="18"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="5:6" ht="14.45">
-      <c r="E63" s="18"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="5:6" ht="14.45">
-      <c r="E64" s="18"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="5:6" ht="14.45">
-      <c r="E65" s="18"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="5:6" ht="14.45">
-      <c r="E66" s="18"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="5:6" ht="14.45">
-      <c r="E67" s="18"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="5:6" ht="14.45">
-      <c r="E68" s="18"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="5:6" ht="14.45">
-      <c r="E69" s="18"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="5:6" ht="14.45">
-      <c r="E70" s="18"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="5:6" ht="14.45">
-      <c r="E71" s="18"/>
-      <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="5:6" ht="14.45">
-      <c r="E72" s="18"/>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="5:6" ht="14.45">
-      <c r="E73" s="18"/>
-      <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="5:6" ht="14.45">
-      <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="5:6" ht="14.45">
-      <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="5:6" ht="14.45">
-      <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="5:6" ht="14.45">
-      <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="5:6" ht="14.45">
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="5:6" ht="14.45">
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="5:6" ht="14.45">
-      <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="5:6" ht="14.45">
-      <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="5:6" ht="14.45">
-      <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="5:6" ht="14.45">
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="5:6" ht="14.45">
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="5:6" ht="14.45">
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="5:6" ht="14.45">
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="5:6" ht="14.45">
-      <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="5:6" ht="14.45">
-      <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="5:6" ht="14.45">
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="5:6" ht="14.45">
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="5:6" ht="14.45">
-      <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="5:6" ht="14.45">
-      <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="5:6" ht="14.45">
-      <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="5:6" ht="15.6">
-      <c r="E94" s="19"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="5:6" ht="15.6">
-      <c r="E95" s="19"/>
-      <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="5:6" ht="15.6">
-      <c r="E96" s="19"/>
-      <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="5:6" ht="15.6">
-      <c r="E97" s="19"/>
-      <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="5:6" ht="15.6">
-      <c r="E98" s="19"/>
-      <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="5:6" ht="15.6">
-      <c r="E99" s="19"/>
-      <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="5:6" ht="15.6">
-      <c r="E100" s="19"/>
-      <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="5:6" ht="15.6">
-      <c r="E101" s="19"/>
-      <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="5:6" ht="15.6">
-      <c r="E102" s="19"/>
-      <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="5:6" ht="15.6">
-      <c r="E103" s="19"/>
-      <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="5:6" ht="15.6">
-      <c r="E104" s="19"/>
-      <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="5:6" ht="15.6">
-      <c r="E105" s="19"/>
-      <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="5:6" ht="15.6">
-      <c r="E106" s="19"/>
-      <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="5:6" ht="15.6">
-      <c r="E107" s="19"/>
-      <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="5:6" ht="15.6">
-      <c r="E108" s="19"/>
-      <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="5:6" ht="15.6">
-      <c r="E109" s="19"/>
-      <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="5:6" ht="15.6">
-      <c r="E110" s="19"/>
-      <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="5:6" ht="15.6">
-      <c r="E111" s="19"/>
-      <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="5:6" ht="15.6">
-      <c r="E112" s="19"/>
-      <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="5:6" ht="15.6">
-      <c r="E113" s="19"/>
-      <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="5:6" ht="14.45">
-      <c r="E114" s="18"/>
-      <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="5:6" ht="14.45">
-      <c r="E115" s="18"/>
-      <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="5:6" ht="14.45">
-      <c r="E116" s="18"/>
-      <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="5:6" ht="14.45">
-      <c r="E117" s="18"/>
-      <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="5:6" ht="14.45">
-      <c r="E118" s="18"/>
-      <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="5:6" ht="14.45">
-      <c r="E119" s="18"/>
-      <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="5:6" ht="14.45">
-      <c r="E120" s="18"/>
-      <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="5:6" ht="14.45">
-      <c r="E121" s="18"/>
-      <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="5:6" ht="14.45">
-      <c r="E122" s="18"/>
-      <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="5:6" ht="14.45">
-      <c r="E123" s="18"/>
-      <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="5:6" ht="14.45">
-      <c r="E124" s="18"/>
-      <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="5:6" ht="14.45">
-      <c r="E125" s="18"/>
-      <c r="F125" s="1"/>
-    </row>
-    <row r="126" spans="5:6" ht="14.45">
-      <c r="E126" s="18"/>
-      <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="5:6" ht="14.45">
-      <c r="E127" s="18"/>
-      <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="5:6" ht="14.45">
-      <c r="E128" s="18"/>
-      <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="5:6" ht="14.45">
-      <c r="E129" s="18"/>
-      <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="5:6" ht="14.45">
-      <c r="E130" s="18"/>
-      <c r="F130" s="1"/>
-    </row>
-    <row r="131" spans="5:6" ht="14.45">
-      <c r="E131" s="18"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="5:6" ht="14.45">
-      <c r="E132" s="18"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="5:6" ht="14.45">
-      <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="5:6" ht="14.45">
-      <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="5:6" ht="14.45">
-      <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="5:6" ht="15" customHeight="1">
-      <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="5:6" ht="15" customHeight="1">
-      <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="5:6" ht="15" customHeight="1">
-      <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="5:6" ht="15" customHeight="1">
-      <c r="F139" s="1"/>
-    </row>
-    <row r="140" spans="5:6" ht="15" customHeight="1">
-      <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="5:6" ht="15" customHeight="1">
-      <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="5:6" ht="15" customHeight="1">
-      <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="5:6" ht="15" customHeight="1">
-      <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="5:6" ht="15" customHeight="1">
-      <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="6:6" ht="15" customHeight="1">
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="6:6" ht="15" customHeight="1">
-      <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="6:6" ht="15" customHeight="1">
-      <c r="F147" s="1"/>
-    </row>
-    <row r="148" spans="6:6" ht="15" customHeight="1">
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="6:6" ht="15" customHeight="1">
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="6:6" ht="15" customHeight="1">
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="6:6" ht="15" customHeight="1">
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="6:6" ht="15" customHeight="1">
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="6:6" ht="15" customHeight="1">
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="6:6" ht="15" customHeight="1">
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="6:6" ht="15" customHeight="1">
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="6:6" ht="15" customHeight="1">
-      <c r="F156" s="1"/>
-    </row>
-    <row r="157" spans="6:6" ht="15" customHeight="1">
-      <c r="F157" s="1"/>
-    </row>
-    <row r="158" spans="6:6" ht="15" customHeight="1">
-      <c r="F158" s="1"/>
-    </row>
-    <row r="159" spans="6:6" ht="15" customHeight="1">
-      <c r="F159" s="1"/>
-    </row>
-    <row r="160" spans="6:6" ht="15" customHeight="1">
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="6:6" ht="15" customHeight="1">
-      <c r="F161" s="1"/>
-    </row>
-    <row r="162" spans="6:6" ht="15" customHeight="1">
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="6:6" ht="15" customHeight="1">
-      <c r="F163" s="1"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="20"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F48" s="18"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F49" s="18"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F50" s="18"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F51" s="18"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F52" s="18"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F53" s="18"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F54" s="18"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F55" s="18"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F56" s="18"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F57" s="18"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F58" s="18"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F59" s="18"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F60" s="18"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F61" s="18"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F62" s="18"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F63" s="18"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F64" s="18"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F65" s="18"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F66" s="18"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F67" s="18"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F68" s="18"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F69" s="18"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F70" s="18"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F71" s="18"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F72" s="18"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F73" s="18"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F94" s="19"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F95" s="19"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F96" s="19"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F97" s="19"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F98" s="19"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F99" s="19"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F100" s="19"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F101" s="19"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F102" s="19"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F103" s="19"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F104" s="19"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F105" s="19"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F106" s="19"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F107" s="19"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F108" s="19"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F109" s="19"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F110" s="19"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F111" s="19"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F112" s="19"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F113" s="19"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F114" s="18"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F115" s="18"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F116" s="18"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F117" s="18"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F118" s="18"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F119" s="18"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F120" s="18"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F121" s="18"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F122" s="18"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F123" s="18"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F124" s="18"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F125" s="18"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F126" s="18"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F127" s="18"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F128" s="18"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F129" s="18"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F130" s="18"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F131" s="18"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="F132" s="18"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G163" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B336:B1048576" xr:uid="{85296FD7-FAAE-4FEC-9ADD-424C2C60C1D9}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C336:C1048576" xr:uid="{85296FD7-FAAE-4FEC-9ADD-424C2C60C1D9}">
       <formula1>PlantList</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D5:D6 D9:D10 D13 D16:D1048576" xr:uid="{77C76449-A653-4CD7-806C-BE59A710973E}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B335" xr:uid="{2F4CBFDC-D32D-4934-A5F2-2B76FA17BF53}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E5:E6 E9:E10 E13 E16:E1048576" xr:uid="{77C76449-A653-4CD7-806C-BE59A710973E}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C335" xr:uid="{2F4CBFDC-D32D-4934-A5F2-2B76FA17BF53}">
       <formula1>PlantList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2" xr:uid="{8265CBE8-65B9-4C6A-88DA-1EBE90990BA0}">
+      <formula1>"Building,Gate,Roadside,Residential,Infrastructure,Facilities,Car park"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1" gridLines="1"/>
@@ -7436,14 +7580,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7452,14 +7588,47 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+    <ds:schemaRef ds:uri="72f917e0-5d36-43ac-975d-26afa4cf7fc0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/Outdoor plants.xlsx
+++ b/data/Outdoor plants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landscapingUOB-api\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB66FB-5FE2-4ADC-9B70-3E9A3A66800E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B669DAD4-E91F-49F5-A303-CB4B55738398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8B519764-563C-4CD5-B8E9-9B8B0702B21B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
     <t>نبات المظلة</t>
   </si>
   <si>
-    <t>https://i.postimg.cc/YCtWYXww/Cyperus-aternifolius.jpg</t>
+    <t>https://i.postimg.cc/mrtvb3SH/cyperus-alternifolius.jpg</t>
   </si>
   <si>
     <t>1 - 1.2 m</t>
@@ -1414,6 +1414,9 @@
     <t>https://i.postimg.cc/KzM2QdvT/Caesalpinia-pulcherrima.jpg</t>
   </si>
   <si>
+    <t>Location type</t>
+  </si>
+  <si>
     <t>Location number</t>
   </si>
   <si>
@@ -1423,6 +1426,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Building</t>
+  </si>
+  <si>
     <t>S13</t>
   </si>
   <si>
@@ -1547,19 +1553,13 @@
   </si>
   <si>
     <t>Gate 3-S55</t>
-  </si>
-  <si>
-    <t>Location type</t>
-  </si>
-  <si>
-    <t>Building</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2059,37 +2059,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43C3B61-471E-4868-9D01-BC7FF88A37C8}">
   <dimension ref="A1:U186"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="4"/>
-    <col min="2" max="2" width="32.453125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.81640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="9.1796875" style="4"/>
-    <col min="14" max="14" width="14.1796875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="16.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.453125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.1796875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="33.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.1796875" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="32.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="4" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="14.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.140625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="14.45">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.45">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="14.45">
       <c r="A4" s="4" t="s">
         <v>49</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="14.45">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="14.45">
       <c r="A6" s="4" t="s">
         <v>66</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="14.45">
       <c r="A7" s="4" t="s">
         <v>75</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.45">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="14.45">
       <c r="A9" s="4" t="s">
         <v>92</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="14.45">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="14.45">
       <c r="A11" s="4" t="s">
         <v>104</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="14.45">
       <c r="A12" s="4" t="s">
         <v>111</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="14.45">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="14.45">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="14.45">
       <c r="A15" s="4" t="s">
         <v>129</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>136</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="14.45">
       <c r="A17" s="4" t="s">
         <v>143</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="14.45">
       <c r="A18" s="4" t="s">
         <v>150</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="14.45">
       <c r="A19" s="4" t="s">
         <v>159</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="14.45">
       <c r="A20" s="4" t="s">
         <v>167</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="14.45">
       <c r="A21" s="4" t="s">
         <v>175</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="14.45">
       <c r="A22" s="4" t="s">
         <v>183</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="14.45">
       <c r="A23" s="4" t="s">
         <v>192</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="14.45">
       <c r="A24" s="4" t="s">
         <v>198</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="14.45">
       <c r="A25" s="4" t="s">
         <v>206</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="14.45">
       <c r="A26" s="4" t="s">
         <v>214</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="14.45">
       <c r="A27" s="4" t="s">
         <v>221</v>
       </c>
@@ -3844,7 +3844,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="14.45">
       <c r="A28" s="4" t="s">
         <v>228</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="14.45">
       <c r="A29" s="4" t="s">
         <v>236</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="14.45">
       <c r="A30" s="4" t="s">
         <v>242</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="14.45">
       <c r="A31" s="4" t="s">
         <v>250</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>257</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="14.45">
       <c r="A33" s="4" t="s">
         <v>265</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="14.45">
       <c r="A34" s="4" t="s">
         <v>271</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="14.45">
       <c r="A35" s="4" t="s">
         <v>277</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="14.45">
       <c r="A36" s="4" t="s">
         <v>283</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="14.45">
       <c r="A37" s="4" t="s">
         <v>290</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="14.45">
       <c r="A38" s="4" t="s">
         <v>295</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="14.45">
       <c r="A39" s="4" t="s">
         <v>301</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="14.45">
       <c r="A40" s="4" t="s">
         <v>306</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="14.45">
       <c r="A41" s="4" t="s">
         <v>313</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="14.45">
       <c r="A42" s="4" t="s">
         <v>321</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="14.45">
       <c r="A43" s="4" t="s">
         <v>327</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="14.45">
       <c r="A44" s="4" t="s">
         <v>333</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="14.45">
       <c r="A45" s="4" t="s">
         <v>338</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="14.45">
       <c r="A46" s="4" t="s">
         <v>342</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="14.45">
       <c r="A47" s="4" t="s">
         <v>349</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="14.45">
       <c r="A48" s="4" t="s">
         <v>356</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="14.45">
       <c r="A49" s="4" t="s">
         <v>364</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" ht="14.45">
       <c r="A50" s="4" t="s">
         <v>371</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" ht="14.45">
       <c r="A51" s="4" t="s">
         <v>377</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" ht="14.45">
       <c r="A52" s="4" t="s">
         <v>384</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" ht="14.45">
       <c r="A53" s="4" t="s">
         <v>390</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" ht="14.45">
       <c r="A54" s="4" t="s">
         <v>398</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" ht="14.45">
       <c r="A55" s="4" t="s">
         <v>405</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" ht="14.45">
       <c r="A56" s="4" t="s">
         <v>410</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" ht="14.45">
       <c r="A57" s="4" t="s">
         <v>418</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" ht="14.45">
       <c r="A58" s="25" t="s">
         <v>425</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" ht="14.45">
       <c r="A59" s="25" t="s">
         <v>432</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" ht="14.45">
       <c r="A60" s="25" t="s">
         <v>439</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" ht="14.45" customHeight="1">
       <c r="A61" s="24" t="s">
         <v>446</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" ht="14.45" customHeight="1">
       <c r="A62" s="25" t="s">
         <v>453</v>
       </c>
@@ -6119,130 +6119,130 @@
         <v>452</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="64" spans="1:21" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="81" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="82" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="83" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="84" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="85" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="86" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="87" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="88" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="89" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="90" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="91" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="92" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="93" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="94" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="95" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="96" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="97" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="98" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="99" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="100" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="101" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="102" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="103" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="104" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="105" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="106" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="107" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="108" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="109" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="110" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="111" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="112" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="113" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="114" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="115" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="116" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="117" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="118" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="119" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="120" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="121" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="122" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="123" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="124" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="125" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="126" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="127" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="128" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="129" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="130" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="131" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="132" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="133" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="134" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="135" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="136" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="137" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="138" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="139" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="140" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="141" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="142" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="143" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="144" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="145" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="146" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="147" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="148" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="149" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="150" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="151" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="152" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="153" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="154" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="155" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="156" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="157" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="158" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="159" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="160" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="161" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="162" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="163" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="164" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="165" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="166" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="167" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="168" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="169" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="170" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="171" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="172" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="173" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="174" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="175" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="176" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="177" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="178" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="179" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="180" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="181" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="182" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="183" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="184" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="185" ht="14.5" x14ac:dyDescent="0.35"/>
-    <row r="186" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:21" ht="14.45"/>
+    <row r="64" spans="1:21" ht="14.45"/>
+    <row r="65" ht="14.45"/>
+    <row r="66" ht="14.45"/>
+    <row r="67" ht="14.45"/>
+    <row r="68" ht="14.45"/>
+    <row r="69" ht="14.45"/>
+    <row r="70" ht="14.45"/>
+    <row r="71" ht="14.45"/>
+    <row r="72" ht="14.45"/>
+    <row r="73" ht="14.45"/>
+    <row r="74" ht="14.45"/>
+    <row r="75" ht="14.45"/>
+    <row r="76" ht="14.45"/>
+    <row r="77" ht="14.45"/>
+    <row r="78" ht="14.45"/>
+    <row r="79" ht="14.45"/>
+    <row r="80" ht="14.45"/>
+    <row r="81" ht="14.45"/>
+    <row r="82" ht="14.45"/>
+    <row r="83" ht="14.45"/>
+    <row r="84" ht="14.45"/>
+    <row r="85" ht="14.45"/>
+    <row r="86" ht="14.45"/>
+    <row r="87" ht="14.45"/>
+    <row r="88" ht="14.45"/>
+    <row r="89" ht="14.45"/>
+    <row r="90" ht="14.45"/>
+    <row r="91" ht="14.45"/>
+    <row r="92" ht="14.45"/>
+    <row r="93" ht="14.45"/>
+    <row r="94" ht="14.45"/>
+    <row r="95" ht="14.45"/>
+    <row r="96" ht="14.45"/>
+    <row r="97" ht="14.45"/>
+    <row r="98" ht="14.45"/>
+    <row r="99" ht="14.45"/>
+    <row r="100" ht="14.45"/>
+    <row r="101" ht="14.45"/>
+    <row r="102" ht="14.45"/>
+    <row r="103" ht="14.45"/>
+    <row r="104" ht="14.45"/>
+    <row r="105" ht="14.45"/>
+    <row r="106" ht="14.45"/>
+    <row r="107" ht="14.45"/>
+    <row r="108" ht="14.45"/>
+    <row r="109" ht="14.45"/>
+    <row r="110" ht="14.45"/>
+    <row r="111" ht="14.45"/>
+    <row r="112" ht="14.45"/>
+    <row r="113" ht="14.45"/>
+    <row r="114" ht="14.45"/>
+    <row r="115" ht="14.45"/>
+    <row r="116" ht="14.45"/>
+    <row r="117" ht="14.45"/>
+    <row r="118" ht="14.45"/>
+    <row r="119" ht="14.45"/>
+    <row r="120" ht="14.45"/>
+    <row r="121" ht="14.45"/>
+    <row r="122" ht="14.45"/>
+    <row r="123" ht="14.45"/>
+    <row r="124" ht="14.45"/>
+    <row r="125" ht="14.45"/>
+    <row r="126" ht="14.45"/>
+    <row r="127" ht="14.45"/>
+    <row r="128" ht="14.45"/>
+    <row r="129" ht="14.45"/>
+    <row r="130" ht="14.45"/>
+    <row r="131" ht="14.45"/>
+    <row r="132" ht="14.45"/>
+    <row r="133" ht="14.45"/>
+    <row r="134" ht="14.45"/>
+    <row r="135" ht="14.45"/>
+    <row r="136" ht="14.45"/>
+    <row r="137" ht="14.45"/>
+    <row r="138" ht="14.45"/>
+    <row r="139" ht="14.45"/>
+    <row r="140" ht="14.45"/>
+    <row r="141" ht="14.45"/>
+    <row r="142" ht="14.45"/>
+    <row r="143" ht="14.45"/>
+    <row r="144" ht="14.45"/>
+    <row r="145" ht="14.45"/>
+    <row r="146" ht="14.45"/>
+    <row r="147" ht="14.45"/>
+    <row r="148" ht="14.45"/>
+    <row r="149" ht="14.45"/>
+    <row r="150" ht="14.45"/>
+    <row r="151" ht="14.45"/>
+    <row r="152" ht="14.45"/>
+    <row r="153" ht="14.45"/>
+    <row r="154" ht="14.45"/>
+    <row r="155" ht="14.45"/>
+    <row r="156" ht="14.45"/>
+    <row r="157" ht="14.45"/>
+    <row r="158" ht="14.45"/>
+    <row r="159" ht="14.45"/>
+    <row r="160" ht="14.45"/>
+    <row r="161" ht="14.45"/>
+    <row r="162" ht="14.45"/>
+    <row r="163" ht="14.45"/>
+    <row r="164" ht="14.45"/>
+    <row r="165" ht="14.45"/>
+    <row r="166" ht="14.45"/>
+    <row r="167" ht="14.45"/>
+    <row r="168" ht="14.45"/>
+    <row r="169" ht="14.45"/>
+    <row r="170" ht="14.45"/>
+    <row r="171" ht="14.45"/>
+    <row r="172" ht="14.45"/>
+    <row r="173" ht="14.45"/>
+    <row r="174" ht="14.45"/>
+    <row r="175" ht="14.45"/>
+    <row r="176" ht="14.45"/>
+    <row r="177" ht="14.45"/>
+    <row r="178" ht="14.45"/>
+    <row r="179" ht="14.45"/>
+    <row r="180" ht="14.45"/>
+    <row r="181" ht="14.45"/>
+    <row r="182" ht="14.45"/>
+    <row r="183" ht="14.45"/>
+    <row r="184" ht="14.45"/>
+    <row r="185" ht="14.45"/>
+    <row r="186" ht="14.45"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U45">
     <sortCondition ref="A2:A45"/>
@@ -6415,902 +6415,902 @@
   </sheetPr>
   <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="50.453125" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="50.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="26.25" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E4" s="22"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
     </row>
-    <row r="6" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A6" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A7" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="21"/>
     </row>
-    <row r="8" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A8" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="21"/>
     </row>
-    <row r="9" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A9" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
     </row>
-    <row r="10" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A10" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
     </row>
-    <row r="11" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A11" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="21"/>
     </row>
-    <row r="12" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A12" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C12" s="23"/>
       <c r="E12" s="22"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A13" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
     </row>
-    <row r="14" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="21"/>
     </row>
-    <row r="15" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="21"/>
     </row>
-    <row r="16" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A16" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
     </row>
-    <row r="17" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
     </row>
-    <row r="18" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A18" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="19" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
     </row>
-    <row r="20" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A21" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
     </row>
-    <row r="22" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A22" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
     </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A23" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
     </row>
-    <row r="24" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A24" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
     </row>
-    <row r="25" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A25" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
     </row>
-    <row r="26" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A26" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
     </row>
-    <row r="27" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A27" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
     </row>
-    <row r="28" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A28" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
     </row>
-    <row r="29" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A29" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
     </row>
-    <row r="30" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A30" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A31" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
     </row>
-    <row r="32" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A32" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
     </row>
-    <row r="33" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A33" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C33" s="21"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
     </row>
-    <row r="34" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A34" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
     </row>
-    <row r="35" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A35" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
     </row>
-    <row r="36" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A36" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
     </row>
-    <row r="37" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A37" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
     </row>
-    <row r="38" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A38" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
     </row>
-    <row r="39" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A39" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
     </row>
-    <row r="40" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A40" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
     </row>
-    <row r="41" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A41" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
     </row>
-    <row r="42" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A42" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
     </row>
-    <row r="43" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A43" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
     </row>
-    <row r="44" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A44" s="20" t="s">
-        <v>503</v>
+        <v>461</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
     </row>
-    <row r="45" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="20" customFormat="1" ht="50.25" customHeight="1">
       <c r="A45" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>503</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>501</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="14.45">
       <c r="A46" s="20"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="14.45">
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="14.45">
       <c r="F48" s="18"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:7" ht="14.45">
       <c r="F49" s="18"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:7" ht="14.45">
       <c r="F50" s="18"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:7" ht="14.45">
       <c r="F51" s="18"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:7" ht="14.45">
       <c r="F52" s="18"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:7" ht="14.45">
       <c r="F53" s="18"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:7" ht="14.45">
       <c r="F54" s="18"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:7" ht="14.45">
       <c r="F55" s="18"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:7" ht="14.45">
       <c r="F56" s="18"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:7" ht="14.45">
       <c r="F57" s="18"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:7" ht="14.45">
       <c r="F58" s="18"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:7" ht="14.45">
       <c r="F59" s="18"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:7" ht="14.45">
       <c r="F60" s="18"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:7" ht="14.45">
       <c r="F61" s="18"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:7" ht="14.45">
       <c r="F62" s="18"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:7" ht="14.45">
       <c r="F63" s="18"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:7" ht="14.45">
       <c r="F64" s="18"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:7" ht="14.45">
       <c r="F65" s="18"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:7" ht="14.45">
       <c r="F66" s="18"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:7" ht="14.45">
       <c r="F67" s="18"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:7" ht="14.45">
       <c r="F68" s="18"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:7" ht="14.45">
       <c r="F69" s="18"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:7" ht="14.45">
       <c r="F70" s="18"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:7" ht="14.45">
       <c r="F71" s="18"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:7" ht="14.45">
       <c r="F72" s="18"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:7" ht="14.45">
       <c r="F73" s="18"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:7" ht="14.45">
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:7" ht="14.45">
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:7" ht="14.45">
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:7" ht="14.45">
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:7" ht="14.45">
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:7" ht="14.45">
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:7" ht="14.45">
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:7" ht="14.45">
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:7" ht="14.45">
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:7" ht="14.45">
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:7" ht="14.45">
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:7" ht="14.45">
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:7" ht="14.45">
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:7" ht="14.45">
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:7" ht="14.45">
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:7" ht="14.45">
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:7" ht="14.45">
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:7" ht="14.45">
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:7" ht="14.45">
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:7" ht="14.45">
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:7" ht="15.6">
       <c r="F94" s="19"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:7" ht="15.6">
       <c r="F95" s="19"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:7" ht="15.6">
       <c r="F96" s="19"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:7" ht="15.6">
       <c r="F97" s="19"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:7" ht="15.6">
       <c r="F98" s="19"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:7" ht="15.6">
       <c r="F99" s="19"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:7" ht="15.6">
       <c r="F100" s="19"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:7" ht="15.6">
       <c r="F101" s="19"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:7" ht="15.6">
       <c r="F102" s="19"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:7" ht="15.6">
       <c r="F103" s="19"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:7" ht="15.6">
       <c r="F104" s="19"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:7" ht="15.6">
       <c r="F105" s="19"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:7" ht="15.6">
       <c r="F106" s="19"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:7" ht="15.6">
       <c r="F107" s="19"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:7" ht="15.6">
       <c r="F108" s="19"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:7" ht="15.6">
       <c r="F109" s="19"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:7" ht="15.6">
       <c r="F110" s="19"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:7" ht="15.6">
       <c r="F111" s="19"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:7" ht="15.6">
       <c r="F112" s="19"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="6:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:7" ht="15.6">
       <c r="F113" s="19"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:7" ht="14.45">
       <c r="F114" s="18"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:7" ht="14.45">
       <c r="F115" s="18"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:7" ht="14.45">
       <c r="F116" s="18"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:7" ht="14.45">
       <c r="F117" s="18"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:7" ht="14.45">
       <c r="F118" s="18"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:7" ht="14.45">
       <c r="F119" s="18"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:7" ht="14.45">
       <c r="F120" s="18"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:7" ht="14.45">
       <c r="F121" s="18"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:7" ht="14.45">
       <c r="F122" s="18"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:7" ht="14.45">
       <c r="F123" s="18"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:7" ht="14.45">
       <c r="F124" s="18"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:7" ht="14.45">
       <c r="F125" s="18"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:7" ht="14.45">
       <c r="F126" s="18"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:7" ht="14.45">
       <c r="F127" s="18"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:7" ht="14.45">
       <c r="F128" s="18"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:7" ht="14.45">
       <c r="F129" s="18"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:7" ht="14.45">
       <c r="F130" s="18"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:7" ht="14.45">
       <c r="F131" s="18"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:7" ht="14.45">
       <c r="F132" s="18"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:7" ht="14.45">
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:7" ht="14.45">
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="6:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:7" ht="14.45">
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:7" ht="15" customHeight="1">
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:7" ht="15" customHeight="1">
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:7" ht="15" customHeight="1">
       <c r="G138" s="1"/>
     </row>
-    <row r="139" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:7" ht="15" customHeight="1">
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:7" ht="15" customHeight="1">
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:7" ht="15" customHeight="1">
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:7" ht="15" customHeight="1">
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:7" ht="15" customHeight="1">
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="6:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:7" ht="15" customHeight="1">
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="7:7" ht="15" customHeight="1">
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="7:7" ht="15" customHeight="1">
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="7:7" ht="15" customHeight="1">
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="7:7" ht="15" customHeight="1">
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="7:7" ht="15" customHeight="1">
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="7:7" ht="15" customHeight="1">
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="7:7" ht="15" customHeight="1">
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="7:7" ht="15" customHeight="1">
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="7:7" ht="15" customHeight="1">
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="7:7" ht="15" customHeight="1">
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="7:7" ht="15" customHeight="1">
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="7:7" ht="15" customHeight="1">
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="7:7" ht="15" customHeight="1">
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="7:7" ht="15" customHeight="1">
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="7:7" ht="15" customHeight="1">
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="7:7" ht="15" customHeight="1">
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="7:7" ht="15" customHeight="1">
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="7:7" ht="15" customHeight="1">
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="7:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="7:7" ht="15" customHeight="1">
       <c r="G163" s="1"/>
     </row>
   </sheetData>
@@ -7333,6 +7333,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000D89A625C5B6364BB7302BED22ED65DA" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="05bac8ad6e033965382d52c38353e541">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7855343b-5261-4afc-a17c-d4c130fbaa85" xmlns:ns4="72f917e0-5d36-43ac-975d-26afa4cf7fc0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="452e5605b09f318b6d66379e79837bd5" ns3:_="" ns4:_="">
     <xsd:import namespace="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
@@ -7579,56 +7596,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="7855343b-5261-4afc-a17c-d4c130fbaa85" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-    <ds:schemaRef ds:uri="72f917e0-5d36-43ac-975d-26afa4cf7fc0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BE4A15A-EC2D-4537-B6DC-2F235DBE6314}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53F9CFB-0E7D-4BF1-9CBE-0D133C6536E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7855343b-5261-4afc-a17c-d4c130fbaa85"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56978299-3DC6-451D-A1E5-57FB07C431CC}"/>
 </file>